--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -58,235 +58,343 @@
     <t>Πελάτες Τιμή Πώλησης</t>
   </si>
   <si>
-    <t>Selpak® Toilet Paper Ocean 8τεμ.</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Levander 8τεμ.</t>
-  </si>
-  <si>
-    <t>Bazaar® Υγρό Πατώματος Ultra Άνθη Πασχαλιάς 1ltr</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Repair &amp; Protect 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Classic 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Aqqa Light 400ml</t>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
   </si>
   <si>
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
-    <t>Farmer® Ρύζι Τύπου Αμερικής 1kgr</t>
-  </si>
-  <si>
-    <t>Kelloggs® Δημητριακά Coco Pops White Choco 375gr</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΜΠΛΕ  /45ΜΕΖ</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,25KG ΣΚΟΝΗ ΑΓΡΙΟ ΤΡΙΑΝΤΑΦΥΛΛΟ / 45ΜΕΖ</t>
-  </si>
-  <si>
-    <t>3 Άλφα® Φασόλια Γίγαντες 500gr</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Τελειες Μπουκλες 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Πλουσιο Ογκο 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Hydration 360ml</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Colour Protect 360ml</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL ΜΑΛΑΙΣΙΑΝΗ ΟΡΧΙΔ. &amp; ΣΑΝΔΑΛ. / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>NEOMAT 2,1L GEL 2ΣΕ1 ΑΕΡΙΝΗ ΦΡΕΣΚ / 42 ΜΕΖ</t>
-  </si>
-  <si>
-    <t>Colgate® Οδοντόκρεμα Triple Action 100ml</t>
-  </si>
-  <si>
-    <t>Colgate® Max Fresh Cool Mint 100gr</t>
-  </si>
-  <si>
-    <t>Colgate® Deep Clean Whitening 100ml</t>
-  </si>
-  <si>
-    <t>Bazaar® Υγρό Γεν. Καθαρισμού Μπουκέτο Λουλουδιών 1ltr</t>
-  </si>
-  <si>
-    <t>Dixan® Gel Πλυντηριου Clean Smooth 42μεζ.</t>
-  </si>
-  <si>
-    <t>Pantene® Shampoo Smooth &amp; Sleek 360ml</t>
-  </si>
-  <si>
-    <t>Bazaar® Καθαριστικό Άρωμα Φρεσκάδας Plus 1ltr</t>
-  </si>
-  <si>
-    <t>Selpak® Toilet Paper Powder 8τεμ.</t>
-  </si>
-  <si>
-    <t>DIXAN 2L GEL CLEAN &amp; SMOOTH / 40ΜΕΖ</t>
-  </si>
-  <si>
-    <t>AVA PERLE 430ML CLASSIC</t>
-  </si>
-  <si>
-    <t>Παπαγάλος® Greek Premium Coffee 194gr</t>
-  </si>
-  <si>
-    <t>Colgate® Οδοντόκρεμα Advance White 75ml</t>
-  </si>
-  <si>
-    <t>AVA PERLE 430ML ΛΕΜΟΝΙ</t>
-  </si>
-  <si>
-    <t>Royal Dutch® Μπύρα Κουτί 330ml</t>
-  </si>
-  <si>
-    <t>8690530044494</t>
-  </si>
-  <si>
-    <t>8690530044500</t>
-  </si>
-  <si>
-    <t>5208086416820</t>
-  </si>
-  <si>
-    <t>4015600948016</t>
-  </si>
-  <si>
-    <t>4084500290532</t>
-  </si>
-  <si>
-    <t>8001090724984</t>
+    <t>Papadopoulou® Cookies Διπλή Σοκολάτα 180gr</t>
+  </si>
+  <si>
+    <t>Papadopoulou® Cookies με κομματια σοκολατας 180gr</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Tasty® Lays Αλάτι 150gr</t>
+  </si>
+  <si>
+    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Νεκταρίνια® ΝΑΟΥΣΑΣ  (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>4005808751259</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>5201178026686</t>
   </si>
   <si>
     <t>80135876</t>
   </si>
   <si>
-    <t>5208086412464</t>
-  </si>
-  <si>
-    <t>5053827215671</t>
-  </si>
-  <si>
-    <t>5201395136939</t>
-  </si>
-  <si>
-    <t>5201395137134</t>
-  </si>
-  <si>
-    <t>5201399010235</t>
-  </si>
-  <si>
-    <t>4084500290242</t>
-  </si>
-  <si>
-    <t>4084500290570</t>
-  </si>
-  <si>
-    <t>4084500929982</t>
-  </si>
-  <si>
-    <t>4084500929951</t>
-  </si>
-  <si>
-    <t>5201395137530</t>
-  </si>
-  <si>
-    <t>5201395133334</t>
-  </si>
-  <si>
-    <t>7891024132074</t>
-  </si>
-  <si>
-    <t>8850006324172</t>
-  </si>
-  <si>
-    <t>8714789115474</t>
-  </si>
-  <si>
-    <t>5208086420353</t>
-  </si>
-  <si>
-    <t>5201395138339</t>
-  </si>
-  <si>
-    <t>4084500290600</t>
-  </si>
-  <si>
-    <t>5208086416387</t>
-  </si>
-  <si>
-    <t>8690530044517</t>
-  </si>
-  <si>
-    <t>5201395138438</t>
-  </si>
-  <si>
-    <t>5201314120902</t>
-  </si>
-  <si>
-    <t>5201219486417</t>
-  </si>
-  <si>
-    <t>6001067003366</t>
-  </si>
-  <si>
-    <t>5201314120926</t>
-  </si>
-  <si>
-    <t>87250510</t>
-  </si>
-  <si>
-    <t>Selpak</t>
-  </si>
-  <si>
-    <t>Bazaar</t>
-  </si>
-  <si>
-    <t>Pantene</t>
+    <t>5201004021502</t>
+  </si>
+  <si>
+    <t>5201004021755</t>
+  </si>
+  <si>
+    <t>3574661469294</t>
+  </si>
+  <si>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>3574661467153</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>5201024779957</t>
+  </si>
+  <si>
+    <t>0253</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>4005808283460</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
+  </si>
+  <si>
+    <t>4005808478200</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>5201178033257</t>
+  </si>
+  <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
+    <t>5201178033011</t>
+  </si>
+  <si>
+    <t>4005808407460</t>
+  </si>
+  <si>
+    <t>4005808422999</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
+    <t>4005900128720</t>
+  </si>
+  <si>
+    <t>5201178030928</t>
+  </si>
+  <si>
+    <t>5201178033226</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
+  </si>
+  <si>
+    <t>4005808433292</t>
+  </si>
+  <si>
+    <t>4005808804511</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
+  </si>
+  <si>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>Nivea</t>
   </si>
   <si>
     <t>Nutella</t>
   </si>
   <si>
-    <t>Farmer</t>
-  </si>
-  <si>
-    <t>Kelloggs</t>
-  </si>
-  <si>
-    <t>Neomat</t>
-  </si>
-  <si>
-    <t>3 Άλφα</t>
-  </si>
-  <si>
-    <t>Colgate</t>
-  </si>
-  <si>
-    <t>Dixan</t>
-  </si>
-  <si>
-    <t>Ava</t>
-  </si>
-  <si>
-    <t>Παπαγάλος</t>
-  </si>
-  <si>
-    <t>Royal Dutch</t>
+    <t>Papadopoulou</t>
+  </si>
+  <si>
+    <t>PizBuin</t>
+  </si>
+  <si>
+    <t>Lays</t>
+  </si>
+  <si>
+    <t>Βερύκοκα</t>
+  </si>
+  <si>
+    <t>Νεκταρίνια</t>
+  </si>
+  <si>
+    <t>Ροδάκινο</t>
   </si>
 </sst>
 </file>
@@ -671,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -734,28 +842,28 @@
         <v>12</v>
       </c>
       <c r="C2" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D2" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
-        <v>3.15</v>
+        <v>14.95</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -769,28 +877,28 @@
         <v>12</v>
       </c>
       <c r="C3" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D3" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2">
-        <v>3.35</v>
+        <v>17.85</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -801,31 +909,31 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D4" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2">
-        <v>1.55</v>
+        <v>18.45</v>
       </c>
       <c r="H4" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -839,28 +947,28 @@
         <v>12</v>
       </c>
       <c r="C5" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D5" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="G5" s="2">
-        <v>3.98</v>
+        <v>18.45</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -874,28 +982,28 @@
         <v>12</v>
       </c>
       <c r="C6" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D6" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2">
-        <v>3.98</v>
+        <v>14.95</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -909,28 +1017,28 @@
         <v>12</v>
       </c>
       <c r="C7" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D7" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2">
-        <v>3.98</v>
+        <v>11.95</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -944,16 +1052,16 @@
         <v>13</v>
       </c>
       <c r="C8" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D8" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G8" s="2">
         <v>3.78</v>
@@ -965,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -979,28 +1087,28 @@
         <v>13</v>
       </c>
       <c r="C9" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D9" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="H9" s="2">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1011,31 +1119,31 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D10" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="G10" s="2">
-        <v>4.3</v>
+        <v>1.69</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -1046,31 +1154,31 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D11" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G11" s="2">
-        <v>8.949999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="H11" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1081,31 +1189,31 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D12" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2">
-        <v>8.949999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="H12" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -1116,37 +1224,37 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D13" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="G13" s="2">
-        <v>3.45</v>
+        <v>12.9</v>
       </c>
       <c r="H13" s="2">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1154,34 +1262,34 @@
         <v>12</v>
       </c>
       <c r="C14" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D14" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="G14" s="2">
-        <v>3.98</v>
+        <v>16.65</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="K14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>2.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1189,34 +1297,34 @@
         <v>12</v>
       </c>
       <c r="C15" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D15" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="G15" s="2">
-        <v>3.98</v>
+        <v>13.35</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>2.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1224,34 +1332,34 @@
         <v>12</v>
       </c>
       <c r="C16" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D16" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G16" s="2">
-        <v>3.98</v>
+        <v>12.4</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="K16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>1.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1259,104 +1367,104 @@
         <v>12</v>
       </c>
       <c r="C17" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D17" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G17" s="2">
-        <v>3.98</v>
+        <v>12.5</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>2.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D18" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="G18" s="2">
-        <v>5.95</v>
+        <v>12.2</v>
       </c>
       <c r="H18" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="K18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>3.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D19" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G19" s="2">
-        <v>5.95</v>
+        <v>12.9</v>
       </c>
       <c r="H19" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="K19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>4.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1364,34 +1472,34 @@
         <v>12</v>
       </c>
       <c r="C20" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D20" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="G20" s="2">
-        <v>2.95</v>
+        <v>13.35</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="K20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>1.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1399,69 +1507,69 @@
         <v>12</v>
       </c>
       <c r="C21" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D21" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G21" s="2">
-        <v>2.99</v>
+        <v>13.35</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="K21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D22" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="G22" s="2">
-        <v>2.99</v>
+        <v>1.7</v>
       </c>
       <c r="H22" s="2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I22" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="K22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1469,104 +1577,104 @@
         <v>13</v>
       </c>
       <c r="C23" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D23" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="G23" s="2">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="H23" s="2">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>0.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D24" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="G24" s="2">
-        <v>7.95</v>
+        <v>1.95</v>
       </c>
       <c r="H24" s="2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I24" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="K24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>8.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D25" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="G25" s="2">
-        <v>3.98</v>
+        <v>2.3</v>
       </c>
       <c r="H25" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I25" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="K25" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1574,34 +1682,34 @@
         <v>13</v>
       </c>
       <c r="C26" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D26" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G26" s="2">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="H26" s="2">
-        <v>1.15</v>
+        <v>0.85</v>
       </c>
       <c r="I26" s="1">
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="K26" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>1.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1609,34 +1717,34 @@
         <v>12</v>
       </c>
       <c r="C27" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D27" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G27" s="2">
-        <v>3.35</v>
+        <v>16.8</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="K27" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>4.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1644,34 +1752,34 @@
         <v>12</v>
       </c>
       <c r="C28" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D28" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G28" s="2">
-        <v>7.95</v>
+        <v>8.9</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="K28" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>13.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1679,69 +1787,69 @@
         <v>12</v>
       </c>
       <c r="C29" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D29" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="G29" s="2">
-        <v>1.2</v>
+        <v>17.95</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="K29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" s="2">
-        <v>2.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D30" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="G30" s="2">
-        <v>2.95</v>
+        <v>17.3</v>
       </c>
       <c r="H30" s="2">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="K30" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
-        <v>6.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1749,34 +1857,34 @@
         <v>12</v>
       </c>
       <c r="C31" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D31" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G31" s="2">
-        <v>2.95</v>
+        <v>9.9</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="K31" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>5.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1784,81 +1892,921 @@
         <v>12</v>
       </c>
       <c r="C32" s="4">
-        <v>43998</v>
+        <v>44013</v>
       </c>
       <c r="D32" s="4">
-        <v>44012</v>
+        <v>44027</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="G32" s="2">
-        <v>1.2</v>
+        <v>9.9</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="K32" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L32" s="2">
-        <v>3.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D33" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" s="2">
+        <v>15.95</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>20</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D34" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="2">
+        <v>10.15</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>20</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D35" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="2">
+        <v>10.45</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>20</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K35" s="1">
+        <v>0</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D36" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>20</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D37" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="2">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>20</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D38" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>20</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K38" s="1">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D39" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="2">
+        <v>17.95</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>20</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K39" s="1">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D40" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>20</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D41" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41" s="2">
+        <v>17.95</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>20</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D42" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="2">
+        <v>18.99</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>20</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D43" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>20</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D44" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>20</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D45" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G45" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>20</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D46" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" s="2">
+        <v>17.85</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>20</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D47" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G47" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>20</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D48" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" s="2">
+        <v>16.95</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>20</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K48" s="1">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D49" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G49" s="2">
+        <v>18.95</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>20</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K49" s="1">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D50" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>20</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K50" s="1">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D51" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G51" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>20</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D52" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>20</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K52" s="1">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D53" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" s="2">
+        <v>17.8</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>20</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K53" s="1">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D54" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" s="2">
+        <v>18.95</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>20</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D55" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" s="2">
+        <v>19.9</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>20</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="4">
-        <v>43998</v>
-      </c>
-      <c r="D33" s="4">
-        <v>44012</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="C56" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D56" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="H56" s="2">
         <v>0.85</v>
       </c>
-      <c r="H33" s="2">
-        <v>0.59</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K33" s="1">
-        <v>15</v>
-      </c>
-      <c r="L33" s="2">
-        <v>7.71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="K34" s="5">
-        <v>53</v>
-      </c>
-      <c r="L34" s="5">
-        <v>81.16</v>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D57" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G57" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="K58" s="5">
+        <v>0</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I33">
+  <conditionalFormatting sqref="I1:I57">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1870,7 +2818,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J33">
+  <conditionalFormatting sqref="J1:J57">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -61,6 +61,9 @@
     <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
   </si>
   <si>
@@ -73,150 +76,150 @@
     <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
   </si>
   <si>
+    <t>Papadopoulou® Cookies Διπλή Σοκολάτα 180gr</t>
+  </si>
+  <si>
+    <t>Papadopoulou® Cookies με κομματια σοκολατας 180gr</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Tasty® Lays Αλάτι 150gr</t>
+  </si>
+  <si>
+    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Νεκταρίνια® ΝΑΟΥΣΑΣ  (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
+  </si>
+  <si>
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
-    <t>Papadopoulou® Cookies Διπλή Σοκολάτα 180gr</t>
-  </si>
-  <si>
-    <t>Papadopoulou® Cookies με κομματια σοκολατας 180gr</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Tube 50 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Tasty® Lays Αλάτι 150gr</t>
-  </si>
-  <si>
-    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Νεκταρίνια® ΝΑΟΥΣΑΣ  (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
-  </si>
-  <si>
     <t>5201178035244</t>
   </si>
   <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
     <t>4005808473588</t>
   </si>
   <si>
@@ -232,169 +235,166 @@
     <t>5201178026686</t>
   </si>
   <si>
+    <t>5201004021502</t>
+  </si>
+  <si>
+    <t>5201004021755</t>
+  </si>
+  <si>
+    <t>3574661469294</t>
+  </si>
+  <si>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>3574661467153</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>5201024779957</t>
+  </si>
+  <si>
+    <t>0253</t>
+  </si>
+  <si>
+    <t>0214</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
+  </si>
+  <si>
+    <t>4005808478200</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>5201178033257</t>
+  </si>
+  <si>
+    <t>4005808283460</t>
+  </si>
+  <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
+    <t>4005808407460</t>
+  </si>
+  <si>
+    <t>4005808422999</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
+    <t>4005900128720</t>
+  </si>
+  <si>
+    <t>5201178030928</t>
+  </si>
+  <si>
+    <t>5201178033226</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
+  </si>
+  <si>
+    <t>4005808433292</t>
+  </si>
+  <si>
+    <t>4005808804511</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
+  </si>
+  <si>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>5201178033011</t>
+  </si>
+  <si>
     <t>80135876</t>
   </si>
   <si>
-    <t>5201004021502</t>
-  </si>
-  <si>
-    <t>5201004021755</t>
-  </si>
-  <si>
-    <t>3574661469294</t>
-  </si>
-  <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>3574661312491</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
-  </si>
-  <si>
-    <t>3574661192833</t>
-  </si>
-  <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>3574661467153</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
-  </si>
-  <si>
-    <t>5201024779957</t>
-  </si>
-  <si>
-    <t>0253</t>
-  </si>
-  <si>
-    <t>0214</t>
-  </si>
-  <si>
-    <t>0208</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
-    <t>4005808859634</t>
-  </si>
-  <si>
-    <t>5201178026785</t>
-  </si>
-  <si>
-    <t>4005808283460</t>
-  </si>
-  <si>
-    <t>5201178035831</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>5201178035213</t>
-  </si>
-  <si>
-    <t>4005808478200</t>
-  </si>
-  <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
-    <t>5201178037750</t>
-  </si>
-  <si>
-    <t>4005808441624</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
-  </si>
-  <si>
-    <t>5201178033257</t>
-  </si>
-  <si>
-    <t>4005808593637</t>
-  </si>
-  <si>
-    <t>5201178033011</t>
-  </si>
-  <si>
-    <t>4005808407460</t>
-  </si>
-  <si>
-    <t>4005808422999</t>
-  </si>
-  <si>
-    <t>4005808429882</t>
-  </si>
-  <si>
-    <t>4005900128720</t>
-  </si>
-  <si>
-    <t>5201178030928</t>
-  </si>
-  <si>
-    <t>5201178033226</t>
-  </si>
-  <si>
-    <t>4005808432349</t>
-  </si>
-  <si>
-    <t>4005808433292</t>
-  </si>
-  <si>
-    <t>4005808804511</t>
-  </si>
-  <si>
-    <t>4005808854028</t>
-  </si>
-  <si>
-    <t>4005808856695</t>
-  </si>
-  <si>
-    <t>4005900128607</t>
-  </si>
-  <si>
     <t>Nivea</t>
   </si>
   <si>
+    <t>Papadopoulou</t>
+  </si>
+  <si>
+    <t>PizBuin</t>
+  </si>
+  <si>
+    <t>Lays</t>
+  </si>
+  <si>
+    <t>Βερύκοκα</t>
+  </si>
+  <si>
+    <t>Νεκταρίνια</t>
+  </si>
+  <si>
+    <t>Ροδάκινο</t>
+  </si>
+  <si>
     <t>Nutella</t>
-  </si>
-  <si>
-    <t>Papadopoulou</t>
-  </si>
-  <si>
-    <t>PizBuin</t>
-  </si>
-  <si>
-    <t>Lays</t>
-  </si>
-  <si>
-    <t>Βερύκοκα</t>
-  </si>
-  <si>
-    <t>Νεκταρίνια</t>
-  </si>
-  <si>
-    <t>Ροδάκινο</t>
   </si>
 </sst>
 </file>
@@ -889,7 +889,7 @@
         <v>67</v>
       </c>
       <c r="G3" s="2">
-        <v>17.85</v>
+        <v>16.65</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>68</v>
       </c>
       <c r="G4" s="2">
-        <v>18.45</v>
+        <v>17.85</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>44027</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>69</v>
@@ -994,7 +994,7 @@
         <v>70</v>
       </c>
       <c r="G6" s="2">
-        <v>14.95</v>
+        <v>18.45</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>71</v>
       </c>
       <c r="G7" s="2">
-        <v>11.95</v>
+        <v>14.95</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4">
         <v>44013</v>
@@ -1064,16 +1064,16 @@
         <v>72</v>
       </c>
       <c r="G8" s="2">
-        <v>3.78</v>
+        <v>11.95</v>
       </c>
       <c r="H8" s="2">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1213,7 +1213,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>78</v>
       </c>
       <c r="G14" s="2">
-        <v>16.65</v>
+        <v>13.35</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>79</v>
       </c>
       <c r="G15" s="2">
-        <v>13.35</v>
+        <v>16.8</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1318,7 +1318,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>44027</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G24" s="2">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="H24" s="2">
-        <v>1.65</v>
+        <v>0.85</v>
       </c>
       <c r="I24" s="1">
         <v>0</v>
@@ -1653,13 +1653,13 @@
         <v>44027</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G25" s="2">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H25" s="2">
         <v>0.85</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4">
         <v>44013</v>
@@ -1688,22 +1688,22 @@
         <v>44027</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G26" s="2">
-        <v>2.1</v>
+        <v>8.9</v>
       </c>
       <c r="H26" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="4">
         <v>44013</v>
@@ -1723,22 +1723,22 @@
         <v>44027</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G27" s="2">
-        <v>16.8</v>
+        <v>2.1</v>
       </c>
       <c r="H27" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I27" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         <v>91</v>
       </c>
       <c r="G28" s="2">
-        <v>8.9</v>
+        <v>17.95</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>119</v>
@@ -1799,7 +1799,7 @@
         <v>92</v>
       </c>
       <c r="G29" s="2">
-        <v>17.95</v>
+        <v>19.9</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>93</v>
       </c>
       <c r="G30" s="2">
-        <v>17.3</v>
+        <v>9.9</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>95</v>
       </c>
       <c r="G32" s="2">
-        <v>9.9</v>
+        <v>15.95</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>96</v>
       </c>
       <c r="G33" s="2">
-        <v>15.95</v>
+        <v>10.15</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>97</v>
       </c>
       <c r="G34" s="2">
-        <v>10.15</v>
+        <v>10.45</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>98</v>
       </c>
       <c r="G35" s="2">
-        <v>10.45</v>
+        <v>9.9</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>99</v>
       </c>
       <c r="G36" s="2">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>100</v>
       </c>
       <c r="G37" s="2">
-        <v>9.800000000000001</v>
+        <v>12.7</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>101</v>
       </c>
       <c r="G38" s="2">
-        <v>12.7</v>
+        <v>17.95</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>102</v>
       </c>
       <c r="G39" s="2">
-        <v>17.95</v>
+        <v>16.2</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>103</v>
       </c>
       <c r="G40" s="2">
-        <v>16.2</v>
+        <v>17.95</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>104</v>
       </c>
       <c r="G41" s="2">
-        <v>17.95</v>
+        <v>17.3</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>106</v>
       </c>
       <c r="G43" s="2">
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>107</v>
       </c>
       <c r="G44" s="2">
-        <v>14.3</v>
+        <v>15.5</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>108</v>
       </c>
       <c r="G45" s="2">
-        <v>15.5</v>
+        <v>17.85</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         <v>109</v>
       </c>
       <c r="G46" s="2">
-        <v>17.85</v>
+        <v>17.3</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>110</v>
       </c>
       <c r="G47" s="2">
-        <v>17.3</v>
+        <v>16.95</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>111</v>
       </c>
       <c r="G48" s="2">
-        <v>16.95</v>
+        <v>18.95</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>112</v>
       </c>
       <c r="G49" s="2">
-        <v>18.95</v>
+        <v>15.5</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>113</v>
       </c>
       <c r="G50" s="2">
-        <v>15.5</v>
+        <v>17.3</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>114</v>
       </c>
       <c r="G51" s="2">
-        <v>17.3</v>
+        <v>15.5</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2604,7 +2604,7 @@
         <v>115</v>
       </c>
       <c r="G52" s="2">
-        <v>15.5</v>
+        <v>17.8</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>116</v>
       </c>
       <c r="G53" s="2">
-        <v>17.8</v>
+        <v>18.95</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>117</v>
       </c>
       <c r="G54" s="2">
-        <v>18.95</v>
+        <v>15.5</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C55" s="4">
         <v>44013</v>
@@ -2703,22 +2703,22 @@
         <v>44027</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="G55" s="2">
-        <v>19.9</v>
+        <v>2.1</v>
       </c>
       <c r="H55" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I55" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="K55" s="1">
         <v>0</v>
@@ -2738,16 +2738,16 @@
         <v>44027</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="G56" s="2">
-        <v>2.1</v>
+        <v>3.78</v>
       </c>
       <c r="H56" s="2">
-        <v>0.85</v>
+        <v>2.95</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -2756,10 +2756,10 @@
         <v>126</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="2">
-        <v>0</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2773,36 +2773,36 @@
         <v>44027</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G57" s="2">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H57" s="2">
-        <v>0.85</v>
+        <v>1.65</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L57" s="2">
-        <v>0</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="K58" s="5">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L58" s="5">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="169">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -58,319 +58,430 @@
     <t>Πελάτες Τιμή Πώλησης</t>
   </si>
   <si>
+    <t>Dove® Αφρολουτρο Original 700ml</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
+  </si>
+  <si>
+    <t>Papadopoulou® Cookies Διπλή Σοκολάτα 180gr</t>
+  </si>
+  <si>
+    <t>Papadopoulou® Cookies με κομματια σοκολατας 180gr</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
+  </si>
+  <si>
+    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Moussel 50μεζ.</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Restore 750ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Silk 750ml</t>
+  </si>
+  <si>
     <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
-  </si>
-  <si>
-    <t>Papadopoulou® Cookies Διπλή Σοκολάτα 180gr</t>
-  </si>
-  <si>
-    <t>Papadopoulou® Cookies με κομματια σοκολατας 180gr</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Tube 50 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
+  </si>
+  <si>
+    <t>Elite® Φρυγ. Σταρ. Οικογ.-20% 125gr (3+1 Δώρο)</t>
   </si>
   <si>
     <t>Tasty® Lays Αλάτι 150gr</t>
   </si>
   <si>
-    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>Nutella® Πραλίνα Βάζο 400gr</t>
+  </si>
+  <si>
+    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
   </si>
   <si>
     <t>Νεκταρίνια® ΝΑΟΥΣΑΣ  (Ζυγιζόμενο) /Kgr</t>
   </si>
   <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nutella® Πραλίνα Βάζο 400gr</t>
+    <t>8712561899185</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>4005808751259</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>5201178026686</t>
+  </si>
+  <si>
+    <t>5201004021502</t>
+  </si>
+  <si>
+    <t>5201004021755</t>
+  </si>
+  <si>
+    <t>3574661469294</t>
+  </si>
+  <si>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>5201020791540</t>
+  </si>
+  <si>
+    <t>0253</t>
+  </si>
+  <si>
+    <t>9011111035721</t>
+  </si>
+  <si>
+    <t>7322540055337</t>
+  </si>
+  <si>
+    <t>8003640011506</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>8003640011001</t>
+  </si>
+  <si>
+    <t>8710447477847</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>3574661467153</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>8710522449325</t>
+  </si>
+  <si>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>4005808283460</t>
+  </si>
+  <si>
+    <t>4005808804511</t>
+  </si>
+  <si>
+    <t>8712561899246</t>
+  </si>
+  <si>
+    <t>8712561899109</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
+  </si>
+  <si>
+    <t>8712561898966</t>
+  </si>
+  <si>
+    <t>8712561899147</t>
+  </si>
+  <si>
+    <t>8712561594424</t>
+  </si>
+  <si>
+    <t>8712561626569</t>
   </si>
   <si>
     <t>5201178035244</t>
   </si>
   <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>4005808473588</t>
-  </si>
-  <si>
-    <t>5201178033912</t>
-  </si>
-  <si>
-    <t>4005808751259</t>
-  </si>
-  <si>
-    <t>5201178032328</t>
-  </si>
-  <si>
-    <t>5201178026686</t>
-  </si>
-  <si>
-    <t>5201004021502</t>
-  </si>
-  <si>
-    <t>5201004021755</t>
-  </si>
-  <si>
-    <t>3574661469294</t>
-  </si>
-  <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
-    <t>3574661312491</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
-  </si>
-  <si>
-    <t>3574661192833</t>
-  </si>
-  <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>3574661467153</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>4005808478200</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
+    <t>4005808433292</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
+  </si>
+  <si>
+    <t>5201178033226</t>
+  </si>
+  <si>
+    <t>5201178030928</t>
+  </si>
+  <si>
+    <t>4005900128720</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>4005808422999</t>
+  </si>
+  <si>
+    <t>4005808407460</t>
+  </si>
+  <si>
+    <t>5201178033011</t>
+  </si>
+  <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
+    <t>5201178033257</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>8710847878404</t>
+  </si>
+  <si>
+    <t>5201485000850</t>
   </si>
   <si>
     <t>5201024779957</t>
   </si>
   <si>
-    <t>0253</t>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>80135876</t>
+  </si>
+  <si>
+    <t>7613034152381</t>
   </si>
   <si>
     <t>0214</t>
   </si>
   <si>
-    <t>0208</t>
-  </si>
-  <si>
-    <t>4005808859634</t>
-  </si>
-  <si>
-    <t>5201178026785</t>
-  </si>
-  <si>
-    <t>4005900128607</t>
-  </si>
-  <si>
-    <t>5201178035831</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>5201178035213</t>
-  </si>
-  <si>
-    <t>4005808478200</t>
-  </si>
-  <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
-    <t>5201178037750</t>
-  </si>
-  <si>
-    <t>4005808441624</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
-  </si>
-  <si>
-    <t>5201178033257</t>
-  </si>
-  <si>
-    <t>4005808283460</t>
-  </si>
-  <si>
-    <t>4005808593637</t>
-  </si>
-  <si>
-    <t>4005808407460</t>
-  </si>
-  <si>
-    <t>4005808422999</t>
-  </si>
-  <si>
-    <t>4005808429882</t>
-  </si>
-  <si>
-    <t>4005900128720</t>
-  </si>
-  <si>
-    <t>5201178030928</t>
-  </si>
-  <si>
-    <t>5201178033226</t>
-  </si>
-  <si>
-    <t>4005808432349</t>
-  </si>
-  <si>
-    <t>4005808433292</t>
-  </si>
-  <si>
-    <t>4005808804511</t>
-  </si>
-  <si>
-    <t>4005808854028</t>
-  </si>
-  <si>
-    <t>4005808856695</t>
-  </si>
-  <si>
-    <t>5201178033011</t>
-  </si>
-  <si>
-    <t>80135876</t>
+    <t>Dove</t>
+  </si>
+  <si>
+    <t>Ροδάκινο</t>
   </si>
   <si>
     <t>Nivea</t>
@@ -382,19 +493,34 @@
     <t>PizBuin</t>
   </si>
   <si>
+    <t>Ηλιος</t>
+  </si>
+  <si>
+    <t>Βερύκοκα</t>
+  </si>
+  <si>
+    <t>Zewa</t>
+  </si>
+  <si>
+    <t>Soft</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
     <t>Lays</t>
   </si>
   <si>
-    <t>Βερύκοκα</t>
+    <t>Nutella</t>
+  </si>
+  <si>
+    <t>Fitness</t>
   </si>
   <si>
     <t>Νεκταρίνια</t>
-  </si>
-  <si>
-    <t>Ροδάκινο</t>
-  </si>
-  <si>
-    <t>Nutella</t>
   </si>
 </sst>
 </file>
@@ -779,7 +905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -851,19 +977,19 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2">
-        <v>14.95</v>
+        <v>4.99</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -874,7 +1000,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="4">
         <v>44013</v>
@@ -886,19 +1012,19 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2">
-        <v>16.65</v>
+        <v>2.1</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I3" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -921,10 +1047,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="G4" s="2">
-        <v>17.85</v>
+        <v>17.95</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -933,7 +1059,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -956,19 +1082,19 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="G5" s="2">
-        <v>18.45</v>
+        <v>8.9</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -988,13 +1114,13 @@
         <v>44027</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G6" s="2">
-        <v>18.45</v>
+        <v>16.65</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1003,7 +1129,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -1023,13 +1149,13 @@
         <v>44027</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2">
-        <v>14.95</v>
+        <v>17.85</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1038,7 +1164,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -1058,13 +1184,13 @@
         <v>44027</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="G8" s="2">
-        <v>11.95</v>
+        <v>18.45</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1073,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -1084,7 +1210,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>44013</v>
@@ -1096,19 +1222,19 @@
         <v>20</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G9" s="2">
-        <v>1.69</v>
+        <v>18.45</v>
       </c>
       <c r="H9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1119,7 +1245,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4">
         <v>44013</v>
@@ -1131,19 +1257,19 @@
         <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="G10" s="2">
-        <v>1.69</v>
+        <v>14.95</v>
       </c>
       <c r="H10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -1166,10 +1292,10 @@
         <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G11" s="2">
-        <v>10.7</v>
+        <v>11.95</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1178,7 +1304,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1189,7 +1315,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4">
         <v>44013</v>
@@ -1201,19 +1327,19 @@
         <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G12" s="2">
-        <v>9.1</v>
+        <v>1.69</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -1224,7 +1350,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4">
         <v>44013</v>
@@ -1236,19 +1362,19 @@
         <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="G13" s="2">
-        <v>12.9</v>
+        <v>1.69</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1271,10 +1397,10 @@
         <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="G14" s="2">
-        <v>13.35</v>
+        <v>10.7</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1283,7 +1409,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1306,10 +1432,10 @@
         <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G15" s="2">
-        <v>16.8</v>
+        <v>9.1</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1318,7 +1444,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -1341,10 +1467,10 @@
         <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="G16" s="2">
-        <v>12.4</v>
+        <v>12.9</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1353,7 +1479,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -1376,10 +1502,10 @@
         <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="G17" s="2">
-        <v>12.5</v>
+        <v>13.35</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1388,7 +1514,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -1411,10 +1537,10 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="G18" s="2">
-        <v>12.2</v>
+        <v>16.8</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1423,7 +1549,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -1446,10 +1572,10 @@
         <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G19" s="2">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1458,7 +1584,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -1469,7 +1595,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4">
         <v>44013</v>
@@ -1478,22 +1604,22 @@
         <v>44027</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G20" s="2">
-        <v>13.35</v>
+        <v>2.1</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I20" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -1513,13 +1639,13 @@
         <v>44027</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G21" s="2">
-        <v>13.35</v>
+        <v>1.78</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1528,7 +1654,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1548,22 +1674,22 @@
         <v>44027</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G22" s="2">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="H22" s="2">
-        <v>1.3</v>
+        <v>1.65</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -1574,7 +1700,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="4">
         <v>44013</v>
@@ -1583,22 +1709,22 @@
         <v>44027</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="G23" s="2">
-        <v>1.95</v>
+        <v>4.95</v>
       </c>
       <c r="H23" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1609,7 +1735,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4">
         <v>44013</v>
@@ -1618,22 +1744,22 @@
         <v>44027</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="G24" s="2">
-        <v>2.3</v>
+        <v>4.95</v>
       </c>
       <c r="H24" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1644,7 +1770,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4">
         <v>44013</v>
@@ -1653,22 +1779,22 @@
         <v>44027</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="G25" s="2">
-        <v>2.1</v>
+        <v>11.9</v>
       </c>
       <c r="H25" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -1688,22 +1814,22 @@
         <v>44027</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="G26" s="2">
-        <v>8.9</v>
+        <v>19.9</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -1714,7 +1840,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4">
         <v>44013</v>
@@ -1723,22 +1849,22 @@
         <v>44027</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="G27" s="2">
-        <v>2.1</v>
+        <v>11.9</v>
       </c>
       <c r="H27" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -1758,22 +1884,22 @@
         <v>44027</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="G28" s="2">
-        <v>17.95</v>
+        <v>9.9</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -1793,13 +1919,13 @@
         <v>44027</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="G29" s="2">
-        <v>19.9</v>
+        <v>13.35</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
@@ -1808,7 +1934,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -1828,13 +1954,13 @@
         <v>44027</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="G30" s="2">
-        <v>9.9</v>
+        <v>13.35</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -1843,7 +1969,7 @@
         <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -1863,13 +1989,13 @@
         <v>44027</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G31" s="2">
-        <v>9.9</v>
+        <v>12.9</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -1878,7 +2004,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -1898,13 +2024,13 @@
         <v>44027</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="G32" s="2">
-        <v>15.95</v>
+        <v>12.2</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -1913,7 +2039,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -1933,13 +2059,13 @@
         <v>44027</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="G33" s="2">
-        <v>10.15</v>
+        <v>12.5</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -1948,7 +2074,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -1968,22 +2094,22 @@
         <v>44027</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G34" s="2">
-        <v>10.45</v>
+        <v>9.9</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -2003,13 +2129,13 @@
         <v>44027</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G35" s="2">
-        <v>9.9</v>
+        <v>18.95</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2018,7 +2144,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -2038,13 +2164,13 @@
         <v>44027</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="G36" s="2">
-        <v>9.800000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2053,7 +2179,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -2073,13 +2199,13 @@
         <v>44027</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G37" s="2">
-        <v>12.7</v>
+        <v>15.5</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2088,7 +2214,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
@@ -2108,22 +2234,22 @@
         <v>44027</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="G38" s="2">
-        <v>17.95</v>
+        <v>4.99</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
@@ -2143,22 +2269,22 @@
         <v>44027</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="G39" s="2">
-        <v>16.2</v>
+        <v>4.99</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="K39" s="1">
         <v>0</v>
@@ -2178,22 +2304,22 @@
         <v>44027</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G40" s="2">
-        <v>17.95</v>
+        <v>4.99</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="K40" s="1">
         <v>0</v>
@@ -2213,22 +2339,22 @@
         <v>44027</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G41" s="2">
-        <v>17.3</v>
+        <v>4.99</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
@@ -2248,22 +2374,22 @@
         <v>44027</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="G42" s="2">
-        <v>18.99</v>
+        <v>4.99</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
@@ -2283,22 +2409,22 @@
         <v>44027</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="G43" s="2">
-        <v>14.3</v>
+        <v>4.99</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
@@ -2318,22 +2444,22 @@
         <v>44027</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="G44" s="2">
-        <v>15.5</v>
+        <v>4.99</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
@@ -2353,13 +2479,13 @@
         <v>44027</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="G45" s="2">
-        <v>17.85</v>
+        <v>14.95</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2368,7 +2494,7 @@
         <v>20</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
@@ -2388,13 +2514,13 @@
         <v>44027</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="G46" s="2">
-        <v>17.3</v>
+        <v>9.9</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2403,7 +2529,7 @@
         <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
@@ -2423,13 +2549,13 @@
         <v>44027</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="G47" s="2">
-        <v>16.95</v>
+        <v>15.95</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2438,7 +2564,7 @@
         <v>20</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K47" s="1">
         <v>0</v>
@@ -2458,13 +2584,13 @@
         <v>44027</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="G48" s="2">
-        <v>18.95</v>
+        <v>17.8</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2473,7 +2599,7 @@
         <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K48" s="1">
         <v>0</v>
@@ -2493,13 +2619,13 @@
         <v>44027</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G49" s="2">
-        <v>15.5</v>
+        <v>10.45</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2508,7 +2634,7 @@
         <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K49" s="1">
         <v>0</v>
@@ -2528,13 +2654,13 @@
         <v>44027</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="G50" s="2">
-        <v>17.3</v>
+        <v>9.9</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2543,7 +2669,7 @@
         <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K50" s="1">
         <v>0</v>
@@ -2563,13 +2689,13 @@
         <v>44027</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="G51" s="2">
-        <v>15.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2578,7 +2704,7 @@
         <v>20</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K51" s="1">
         <v>0</v>
@@ -2598,13 +2724,13 @@
         <v>44027</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="G52" s="2">
-        <v>17.8</v>
+        <v>10.15</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2613,7 +2739,7 @@
         <v>20</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K52" s="1">
         <v>0</v>
@@ -2633,13 +2759,13 @@
         <v>44027</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="G53" s="2">
-        <v>18.95</v>
+        <v>17.95</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2648,7 +2774,7 @@
         <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K53" s="1">
         <v>0</v>
@@ -2668,13 +2794,13 @@
         <v>44027</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="G54" s="2">
-        <v>15.5</v>
+        <v>17.3</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2683,7 +2809,7 @@
         <v>20</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K54" s="1">
         <v>0</v>
@@ -2694,7 +2820,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55" s="4">
         <v>44013</v>
@@ -2703,22 +2829,22 @@
         <v>44027</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="G55" s="2">
-        <v>2.1</v>
+        <v>15.5</v>
       </c>
       <c r="H55" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="K55" s="1">
         <v>0</v>
@@ -2729,7 +2855,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56" s="4">
         <v>44013</v>
@@ -2741,72 +2867,702 @@
         <v>65</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="G56" s="2">
-        <v>3.78</v>
+        <v>18.95</v>
       </c>
       <c r="H56" s="2">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" s="2">
-        <v>2.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D57" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57" s="2">
+        <v>16.95</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>20</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K57" s="1">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D58" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G58" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>20</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D59" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G59" s="2">
+        <v>17.85</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>20</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D60" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G60" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>20</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D61" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G61" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>20</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D62" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G62" s="2">
+        <v>14.3</v>
+      </c>
+      <c r="H62" s="2">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>20</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K62" s="1">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D63" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="H63" s="2">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>20</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D64" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G64" s="2">
+        <v>18.99</v>
+      </c>
+      <c r="H64" s="2">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>20</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K64" s="1">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D65" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G65" s="2">
+        <v>17.95</v>
+      </c>
+      <c r="H65" s="2">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>20</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K65" s="1">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D66" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G66" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="H66" s="2">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>20</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D67" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G67" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="H67" s="2">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>30</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="2">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D68" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G68" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="H68" s="2">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>30</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+      <c r="L68" s="2">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="4">
-        <v>44013</v>
-      </c>
-      <c r="D57" s="4">
-        <v>44027</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G57" s="2">
+      <c r="C69" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D69" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G69" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="H69" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="L69" s="2">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D70" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G70" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>20</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+      <c r="L70" s="2">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D71" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G71" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="H71" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="L71" s="2">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D72" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G72" s="2">
+        <v>3.65</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>30</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1</v>
+      </c>
+      <c r="L72" s="2">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D73" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G73" s="2">
+        <v>2.3</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K73" s="1">
+        <v>2.66</v>
+      </c>
+      <c r="L73" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D74" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G74" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K74" s="1">
+        <v>3.655</v>
+      </c>
+      <c r="L74" s="2">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D75" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G75" s="2">
         <v>1.95</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H75" s="2">
         <v>1.65</v>
       </c>
-      <c r="I57" s="1">
-        <v>0</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="K57" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="L57" s="2">
-        <v>2.19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="K58" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="L58" s="5">
-        <v>4.8</v>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K75" s="1">
+        <v>5.1</v>
+      </c>
+      <c r="L75" s="2">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="K76" s="5">
+        <v>17.415</v>
+      </c>
+      <c r="L76" s="5">
+        <v>32.37</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I57">
+  <conditionalFormatting sqref="I1:I75">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2818,7 +3574,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J57">
+  <conditionalFormatting sqref="J1:J75">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -61,6 +61,9 @@
     <t>Dove® Αφρολουτρο Original 700ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
     <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
   </si>
   <si>
@@ -85,189 +88,189 @@
     <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
   </si>
   <si>
+    <t>PizBuin® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Moussel 50μεζ.</t>
+  </si>
+  <si>
+    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Restore 750ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Silk 750ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Tasty® Lays Αλάτι 150gr</t>
+  </si>
+  <si>
+    <t>Elite® Φρυγ. Σταρ. Οικογ.-20% 125gr (3+1 Δώρο)</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
+  </si>
+  <si>
+    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
+  </si>
+  <si>
+    <t>Nutella® Πραλίνα Βάζο 400gr</t>
+  </si>
+  <si>
     <t>Papadopoulou® Cookies Διπλή Σοκολάτα 180gr</t>
   </si>
   <si>
     <t>Papadopoulou® Cookies με κομματια σοκολατας 180gr</t>
   </si>
   <si>
-    <t>PizBuin® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Tube 50 150ml</t>
-  </si>
-  <si>
-    <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
-  </si>
-  <si>
-    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
-  </si>
-  <si>
-    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Moussel 50μεζ.</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Talco 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Restore 750ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Silk 750ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
-  </si>
-  <si>
-    <t>Elite® Φρυγ. Σταρ. Οικογ.-20% 125gr (3+1 Δώρο)</t>
-  </si>
-  <si>
-    <t>Tasty® Lays Αλάτι 150gr</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
-  </si>
-  <si>
-    <t>Nutella® Πραλίνα Βάζο 400gr</t>
-  </si>
-  <si>
-    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
-  </si>
-  <si>
     <t>Νεκταρίνια® ΝΑΟΥΣΑΣ  (Ζυγιζόμενο) /Kgr</t>
   </si>
   <si>
     <t>8712561899185</t>
   </si>
   <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
     <t>0208</t>
   </si>
   <si>
@@ -295,229 +298,226 @@
     <t>5201178026686</t>
   </si>
   <si>
+    <t>3574661469294</t>
+  </si>
+  <si>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>3574661467153</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>8710447477847</t>
+  </si>
+  <si>
+    <t>8710522449325</t>
+  </si>
+  <si>
+    <t>8003640011001</t>
+  </si>
+  <si>
+    <t>8003640011506</t>
+  </si>
+  <si>
+    <t>7322540055337</t>
+  </si>
+  <si>
+    <t>9011111035721</t>
+  </si>
+  <si>
+    <t>0253</t>
+  </si>
+  <si>
+    <t>5201020791540</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
+  </si>
+  <si>
+    <t>4005808283460</t>
+  </si>
+  <si>
+    <t>4005808433292</t>
+  </si>
+  <si>
+    <t>8712561899246</t>
+  </si>
+  <si>
+    <t>8712561899109</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
+  </si>
+  <si>
+    <t>8712561898966</t>
+  </si>
+  <si>
+    <t>8712561899147</t>
+  </si>
+  <si>
+    <t>8712561594424</t>
+  </si>
+  <si>
+    <t>8712561626569</t>
+  </si>
+  <si>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
+  </si>
+  <si>
+    <t>4005808478200</t>
+  </si>
+  <si>
+    <t>4005808804511</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>5201178033226</t>
+  </si>
+  <si>
+    <t>5201178030928</t>
+  </si>
+  <si>
+    <t>4005900128720</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
+    <t>5201178033257</t>
+  </si>
+  <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
+    <t>4005808422999</t>
+  </si>
+  <si>
+    <t>5201178033011</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
+  </si>
+  <si>
+    <t>4005808407460</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>5201024779957</t>
+  </si>
+  <si>
+    <t>5201485000850</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>8710847878404</t>
+  </si>
+  <si>
+    <t>7613034152381</t>
+  </si>
+  <si>
+    <t>80135876</t>
+  </si>
+  <si>
     <t>5201004021502</t>
   </si>
   <si>
     <t>5201004021755</t>
   </si>
   <si>
-    <t>3574661469294</t>
-  </si>
-  <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
-    <t>3574661312491</t>
-  </si>
-  <si>
-    <t>5201020791540</t>
-  </si>
-  <si>
-    <t>0253</t>
-  </si>
-  <si>
-    <t>9011111035721</t>
-  </si>
-  <si>
-    <t>7322540055337</t>
-  </si>
-  <si>
-    <t>8003640011506</t>
-  </si>
-  <si>
-    <t>4005900128607</t>
-  </si>
-  <si>
-    <t>8003640011001</t>
-  </si>
-  <si>
-    <t>8710447477847</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
-  </si>
-  <si>
-    <t>3574661467153</t>
-  </si>
-  <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>3574661192833</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
-  </si>
-  <si>
-    <t>8710522449325</t>
-  </si>
-  <si>
-    <t>4005808856695</t>
-  </si>
-  <si>
-    <t>4005808283460</t>
-  </si>
-  <si>
-    <t>4005808804511</t>
-  </si>
-  <si>
-    <t>8712561899246</t>
-  </si>
-  <si>
-    <t>8712561899109</t>
-  </si>
-  <si>
-    <t>8712561899284</t>
-  </si>
-  <si>
-    <t>8712561898966</t>
-  </si>
-  <si>
-    <t>8712561899147</t>
-  </si>
-  <si>
-    <t>8712561594424</t>
-  </si>
-  <si>
-    <t>8712561626569</t>
-  </si>
-  <si>
-    <t>5201178035244</t>
-  </si>
-  <si>
-    <t>5201178035831</t>
-  </si>
-  <si>
-    <t>5201178035213</t>
-  </si>
-  <si>
-    <t>4005808854028</t>
-  </si>
-  <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
-    <t>5201178037750</t>
-  </si>
-  <si>
-    <t>4005808441624</t>
-  </si>
-  <si>
-    <t>4005808478200</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
-    <t>4005808433292</t>
-  </si>
-  <si>
-    <t>4005808432349</t>
-  </si>
-  <si>
-    <t>5201178033226</t>
-  </si>
-  <si>
-    <t>5201178030928</t>
-  </si>
-  <si>
-    <t>4005900128720</t>
-  </si>
-  <si>
-    <t>4005808429882</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>4005808422999</t>
-  </si>
-  <si>
-    <t>4005808407460</t>
-  </si>
-  <si>
-    <t>5201178033011</t>
-  </si>
-  <si>
-    <t>4005808593637</t>
-  </si>
-  <si>
-    <t>5201178033257</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
-  </si>
-  <si>
-    <t>8710847878404</t>
-  </si>
-  <si>
-    <t>5201485000850</t>
-  </si>
-  <si>
-    <t>5201024779957</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>80135876</t>
-  </si>
-  <si>
-    <t>7613034152381</t>
-  </si>
-  <si>
     <t>0214</t>
   </si>
   <si>
     <t>Dove</t>
   </si>
   <si>
+    <t>Nivea</t>
+  </si>
+  <si>
     <t>Ροδάκινο</t>
   </si>
   <si>
-    <t>Nivea</t>
+    <t>PizBuin</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Soft</t>
+  </si>
+  <si>
+    <t>Zewa</t>
+  </si>
+  <si>
+    <t>Βερύκοκα</t>
+  </si>
+  <si>
+    <t>Ηλιος</t>
+  </si>
+  <si>
+    <t>Lays</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Nutella</t>
   </si>
   <si>
     <t>Papadopoulou</t>
-  </si>
-  <si>
-    <t>PizBuin</t>
-  </si>
-  <si>
-    <t>Ηλιος</t>
-  </si>
-  <si>
-    <t>Βερύκοκα</t>
-  </si>
-  <si>
-    <t>Zewa</t>
-  </si>
-  <si>
-    <t>Soft</t>
-  </si>
-  <si>
-    <t>Skip</t>
-  </si>
-  <si>
-    <t>Elite</t>
-  </si>
-  <si>
-    <t>Lays</t>
-  </si>
-  <si>
-    <t>Nutella</t>
-  </si>
-  <si>
-    <t>Fitness</t>
   </si>
   <si>
     <t>Νεκταρίνια</t>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4">
         <v>44013</v>
@@ -1015,13 +1015,13 @@
         <v>84</v>
       </c>
       <c r="G3" s="2">
-        <v>2.1</v>
+        <v>19.9</v>
       </c>
       <c r="H3" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>155</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
         <v>44013</v>
@@ -1050,13 +1050,13 @@
         <v>85</v>
       </c>
       <c r="G4" s="2">
-        <v>17.95</v>
+        <v>2.1</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I4" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>156</v>
@@ -1085,16 +1085,16 @@
         <v>86</v>
       </c>
       <c r="G5" s="2">
-        <v>8.9</v>
+        <v>17.95</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -1120,16 +1120,16 @@
         <v>87</v>
       </c>
       <c r="G6" s="2">
-        <v>16.65</v>
+        <v>8.9</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>88</v>
       </c>
       <c r="G7" s="2">
-        <v>17.85</v>
+        <v>16.65</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>89</v>
       </c>
       <c r="G8" s="2">
-        <v>18.45</v>
+        <v>17.85</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -1219,7 +1219,7 @@
         <v>44027</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>90</v>
@@ -1234,7 +1234,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>91</v>
       </c>
       <c r="G10" s="2">
-        <v>14.95</v>
+        <v>18.45</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>92</v>
       </c>
       <c r="G11" s="2">
-        <v>11.95</v>
+        <v>14.95</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4">
         <v>44013</v>
@@ -1330,16 +1330,16 @@
         <v>93</v>
       </c>
       <c r="G12" s="2">
-        <v>1.69</v>
+        <v>11.95</v>
       </c>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4">
         <v>44013</v>
@@ -1365,13 +1365,13 @@
         <v>94</v>
       </c>
       <c r="G13" s="2">
-        <v>1.69</v>
+        <v>10.7</v>
       </c>
       <c r="H13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>157</v>
@@ -1400,7 +1400,7 @@
         <v>95</v>
       </c>
       <c r="G14" s="2">
-        <v>10.7</v>
+        <v>9.1</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>96</v>
       </c>
       <c r="G15" s="2">
-        <v>9.1</v>
+        <v>12.9</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>97</v>
       </c>
       <c r="G16" s="2">
-        <v>12.9</v>
+        <v>13.35</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>98</v>
       </c>
       <c r="G17" s="2">
-        <v>13.35</v>
+        <v>18.95</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>100</v>
       </c>
       <c r="G19" s="2">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="4">
         <v>44013</v>
@@ -1604,22 +1604,22 @@
         <v>44027</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G20" s="2">
-        <v>2.1</v>
+        <v>12.2</v>
       </c>
       <c r="H20" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -1639,13 +1639,13 @@
         <v>44027</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G21" s="2">
-        <v>1.78</v>
+        <v>12.9</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="4">
         <v>44013</v>
@@ -1674,22 +1674,22 @@
         <v>44027</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G22" s="2">
-        <v>1.95</v>
+        <v>13.35</v>
       </c>
       <c r="H22" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -1709,22 +1709,22 @@
         <v>44027</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G23" s="2">
-        <v>4.95</v>
+        <v>13.35</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
       </c>
       <c r="I23" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1744,13 +1744,13 @@
         <v>44027</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G24" s="2">
-        <v>4.95</v>
+        <v>9.9</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1759,7 +1759,7 @@
         <v>30</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>44027</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G25" s="2">
-        <v>11.9</v>
+        <v>9.9</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -1814,22 +1814,22 @@
         <v>44027</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G26" s="2">
-        <v>19.9</v>
+        <v>11.9</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         <v>44027</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G27" s="2">
         <v>11.9</v>
@@ -1864,7 +1864,7 @@
         <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -1884,13 +1884,13 @@
         <v>44027</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G28" s="2">
-        <v>9.9</v>
+        <v>4.95</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1899,7 +1899,7 @@
         <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -1919,22 +1919,22 @@
         <v>44027</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G29" s="2">
-        <v>13.35</v>
+        <v>4.95</v>
       </c>
       <c r="H29" s="2">
         <v>0</v>
       </c>
       <c r="I29" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" s="4">
         <v>44013</v>
@@ -1954,22 +1954,22 @@
         <v>44027</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G30" s="2">
-        <v>13.35</v>
+        <v>1.95</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I30" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -1989,13 +1989,13 @@
         <v>44027</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G31" s="2">
-        <v>12.9</v>
+        <v>1.78</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4">
         <v>44013</v>
@@ -2024,22 +2024,22 @@
         <v>44027</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="G32" s="2">
-        <v>12.2</v>
+        <v>2.1</v>
       </c>
       <c r="H32" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I32" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>113</v>
       </c>
       <c r="G33" s="2">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2074,7 +2074,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -2100,16 +2100,16 @@
         <v>114</v>
       </c>
       <c r="G34" s="2">
-        <v>9.9</v>
+        <v>17.8</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
       </c>
       <c r="I34" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>115</v>
       </c>
       <c r="G35" s="2">
-        <v>18.95</v>
+        <v>17.3</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -2179,7 +2179,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>117</v>
       </c>
       <c r="G37" s="2">
-        <v>15.5</v>
+        <v>4.99</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>124</v>
       </c>
       <c r="G44" s="2">
-        <v>4.99</v>
+        <v>14.95</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>125</v>
       </c>
       <c r="G45" s="2">
-        <v>14.95</v>
+        <v>15.95</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>20</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>126</v>
       </c>
       <c r="G46" s="2">
-        <v>9.9</v>
+        <v>10.15</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>127</v>
       </c>
       <c r="G47" s="2">
-        <v>15.95</v>
+        <v>15.5</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>20</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K47" s="1">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>128</v>
       </c>
       <c r="G48" s="2">
-        <v>17.8</v>
+        <v>9.9</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K48" s="1">
         <v>0</v>
@@ -2625,7 +2625,7 @@
         <v>129</v>
       </c>
       <c r="G49" s="2">
-        <v>10.45</v>
+        <v>12.7</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2634,7 +2634,7 @@
         <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K49" s="1">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>130</v>
       </c>
       <c r="G50" s="2">
-        <v>9.9</v>
+        <v>17.95</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2669,7 +2669,7 @@
         <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K50" s="1">
         <v>0</v>
@@ -2695,7 +2695,7 @@
         <v>131</v>
       </c>
       <c r="G51" s="2">
-        <v>9.800000000000001</v>
+        <v>10.45</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>20</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K51" s="1">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>132</v>
       </c>
       <c r="G52" s="2">
-        <v>10.15</v>
+        <v>18.95</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>20</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K52" s="1">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>133</v>
       </c>
       <c r="G53" s="2">
-        <v>17.95</v>
+        <v>16.95</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K53" s="1">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>20</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K54" s="1">
         <v>0</v>
@@ -2835,7 +2835,7 @@
         <v>135</v>
       </c>
       <c r="G55" s="2">
-        <v>15.5</v>
+        <v>17.85</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>20</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K55" s="1">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         <v>136</v>
       </c>
       <c r="G56" s="2">
-        <v>18.95</v>
+        <v>17.95</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>20</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K56" s="1">
         <v>0</v>
@@ -2905,7 +2905,7 @@
         <v>137</v>
       </c>
       <c r="G57" s="2">
-        <v>16.95</v>
+        <v>18.99</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>20</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K57" s="1">
         <v>0</v>
@@ -2940,7 +2940,7 @@
         <v>138</v>
       </c>
       <c r="G58" s="2">
-        <v>17.3</v>
+        <v>15.5</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         <v>20</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K58" s="1">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>139</v>
       </c>
       <c r="G59" s="2">
-        <v>17.85</v>
+        <v>15.5</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -2984,7 +2984,7 @@
         <v>20</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K59" s="1">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>140</v>
       </c>
       <c r="G60" s="2">
-        <v>12.7</v>
+        <v>15.5</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
@@ -3019,7 +3019,7 @@
         <v>20</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K60" s="1">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>141</v>
       </c>
       <c r="G61" s="2">
-        <v>15.5</v>
+        <v>14.3</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -3054,7 +3054,7 @@
         <v>20</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K61" s="1">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>142</v>
       </c>
       <c r="G62" s="2">
-        <v>14.3</v>
+        <v>16.2</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>20</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K62" s="1">
         <v>0</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C63" s="4">
         <v>44013</v>
@@ -3115,22 +3115,22 @@
         <v>143</v>
       </c>
       <c r="G63" s="2">
-        <v>15.5</v>
+        <v>1.7</v>
       </c>
       <c r="H63" s="2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I63" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="2">
-        <v>0</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3150,22 +3150,22 @@
         <v>144</v>
       </c>
       <c r="G64" s="2">
-        <v>18.99</v>
+        <v>1.95</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="2">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3185,7 +3185,7 @@
         <v>145</v>
       </c>
       <c r="G65" s="2">
-        <v>17.95</v>
+        <v>9.9</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -3194,13 +3194,13 @@
         <v>20</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65" s="2">
-        <v>0</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3220,7 +3220,7 @@
         <v>146</v>
       </c>
       <c r="G66" s="2">
-        <v>16.2</v>
+        <v>9.9</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
@@ -3229,13 +3229,13 @@
         <v>20</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66" s="2">
-        <v>0</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3255,22 +3255,22 @@
         <v>147</v>
       </c>
       <c r="G67" s="2">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K67" s="1">
         <v>1</v>
       </c>
       <c r="L67" s="2">
-        <v>5.59</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3290,7 +3290,7 @@
         <v>148</v>
       </c>
       <c r="G68" s="2">
-        <v>1.95</v>
+        <v>9.9</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -3299,18 +3299,18 @@
         <v>30</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K68" s="1">
         <v>1</v>
       </c>
       <c r="L68" s="2">
-        <v>1.21</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C69" s="4">
         <v>44013</v>
@@ -3325,13 +3325,13 @@
         <v>149</v>
       </c>
       <c r="G69" s="2">
-        <v>1.7</v>
+        <v>3.65</v>
       </c>
       <c r="H69" s="2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="I69" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>165</v>
@@ -3340,12 +3340,12 @@
         <v>1</v>
       </c>
       <c r="L69" s="2">
-        <v>1.15</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C70" s="4">
         <v>44013</v>
@@ -3360,22 +3360,22 @@
         <v>150</v>
       </c>
       <c r="G70" s="2">
-        <v>9.9</v>
+        <v>3.78</v>
       </c>
       <c r="H70" s="2">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I70" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="K70" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L70" s="2">
-        <v>6.38</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3395,27 +3395,27 @@
         <v>151</v>
       </c>
       <c r="G71" s="2">
-        <v>3.78</v>
+        <v>1.69</v>
       </c>
       <c r="H71" s="2">
-        <v>2.95</v>
+        <v>1</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K71" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71" s="2">
-        <v>2.61</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C72" s="4">
         <v>44013</v>
@@ -3430,22 +3430,22 @@
         <v>152</v>
       </c>
       <c r="G72" s="2">
-        <v>3.65</v>
+        <v>1.69</v>
       </c>
       <c r="H72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>167</v>
       </c>
       <c r="K72" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L72" s="2">
-        <v>3.23</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3459,28 +3459,28 @@
         <v>44027</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="G73" s="2">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="H73" s="2">
-        <v>0.85</v>
+        <v>1.65</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K73" s="1">
-        <v>2.66</v>
+        <v>5.775</v>
       </c>
       <c r="L73" s="2">
-        <v>2</v>
+        <v>8.43</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3494,13 +3494,13 @@
         <v>44027</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>84</v>
+        <v>153</v>
       </c>
       <c r="G74" s="2">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H74" s="2">
         <v>0.85</v>
@@ -3509,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K74" s="1">
-        <v>3.655</v>
+        <v>6.495</v>
       </c>
       <c r="L74" s="2">
-        <v>2.76</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3529,36 +3529,36 @@
         <v>44027</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="G75" s="2">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H75" s="2">
-        <v>1.65</v>
+        <v>0.85</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K75" s="1">
-        <v>5.1</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="L75" s="2">
-        <v>7.44</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="K76" s="5">
-        <v>17.415</v>
+        <v>35.13</v>
       </c>
       <c r="L76" s="5">
-        <v>32.37</v>
+        <v>59.86000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="172">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -64,93 +64,96 @@
     <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
+  </si>
+  <si>
     <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
   </si>
   <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Moussel 50μεζ.</t>
+  </si>
+  <si>
+    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
+  </si>
+  <si>
+    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Moussel 50μεζ.</t>
-  </si>
-  <si>
-    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
-  </si>
-  <si>
-    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Tube 50 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
-  </si>
-  <si>
     <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
   </si>
   <si>
@@ -181,22 +184,28 @@
     <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Spray {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
     <t>Nivea® After Sun Lotion 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
   </si>
   <si>
     <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
@@ -211,48 +220,42 @@
     <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
     <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
-  </si>
-  <si>
     <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Elite® Φρυγ. Σταρ. Οικογ.-20% 125gr (3+1 Δώρο)</t>
   </si>
   <si>
     <t>Tasty® Lays Αλάτι 150gr</t>
   </si>
   <si>
-    <t>Elite® Φρυγ. Σταρ. Οικογ.-20% 125gr (3+1 Δώρο)</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
-  </si>
-  <si>
-    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
-  </si>
-  <si>
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
@@ -271,99 +274,102 @@
     <t>4005900128607</t>
   </si>
   <si>
+    <t>4005808283460</t>
+  </si>
+  <si>
     <t>0208</t>
   </si>
   <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>4005808751259</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>5201178026686</t>
+  </si>
+  <si>
+    <t>3574661469294</t>
+  </si>
+  <si>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>3574661467153</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>8710447477847</t>
+  </si>
+  <si>
+    <t>8710522449325</t>
+  </si>
+  <si>
+    <t>8003640011001</t>
+  </si>
+  <si>
+    <t>8003640011506</t>
+  </si>
+  <si>
+    <t>7322540055337</t>
+  </si>
+  <si>
+    <t>9011111035721</t>
+  </si>
+  <si>
+    <t>0253</t>
+  </si>
+  <si>
+    <t>5201020791540</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
+  </si>
+  <si>
     <t>5201178026785</t>
   </si>
   <si>
-    <t>4005808859634</t>
-  </si>
-  <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>4005808473588</t>
-  </si>
-  <si>
-    <t>5201178033912</t>
-  </si>
-  <si>
-    <t>4005808751259</t>
-  </si>
-  <si>
-    <t>5201178032328</t>
-  </si>
-  <si>
-    <t>5201178026686</t>
-  </si>
-  <si>
-    <t>3574661469294</t>
-  </si>
-  <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>4005808856695</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
-  </si>
-  <si>
-    <t>3574661192833</t>
-  </si>
-  <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>3574661467153</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
-  </si>
-  <si>
-    <t>8710447477847</t>
-  </si>
-  <si>
-    <t>8710522449325</t>
-  </si>
-  <si>
-    <t>8003640011001</t>
-  </si>
-  <si>
-    <t>8003640011506</t>
-  </si>
-  <si>
-    <t>7322540055337</t>
-  </si>
-  <si>
-    <t>9011111035721</t>
-  </si>
-  <si>
-    <t>0253</t>
-  </si>
-  <si>
-    <t>5201020791540</t>
-  </si>
-  <si>
-    <t>3574661312491</t>
-  </si>
-  <si>
-    <t>4005808854028</t>
-  </si>
-  <si>
-    <t>4005808283460</t>
-  </si>
-  <si>
     <t>4005808433292</t>
   </si>
   <si>
@@ -394,22 +400,28 @@
     <t>5201178035213</t>
   </si>
   <si>
+    <t>4005808804511</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
     <t>4005808478200</t>
   </si>
   <si>
-    <t>4005808804511</t>
-  </si>
-  <si>
-    <t>5201178037750</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
-    <t>5201178022862</t>
+    <t>4005808407460</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
   </si>
   <si>
     <t>5201178033226</t>
@@ -424,48 +436,42 @@
     <t>4005808429882</t>
   </si>
   <si>
+    <t>4005808422999</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
     <t>5201178033257</t>
   </si>
   <si>
-    <t>4005808593637</t>
-  </si>
-  <si>
-    <t>4005808422999</t>
-  </si>
-  <si>
     <t>5201178033011</t>
   </si>
   <si>
-    <t>4005808432349</t>
-  </si>
-  <si>
-    <t>4005808407460</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
+    <t>7613034152381</t>
+  </si>
+  <si>
+    <t>8710847878404</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>5201485000850</t>
   </si>
   <si>
     <t>5201024779957</t>
   </si>
   <si>
-    <t>5201485000850</t>
-  </si>
-  <si>
-    <t>5201178035831</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>4005808441624</t>
-  </si>
-  <si>
-    <t>8710847878404</t>
-  </si>
-  <si>
-    <t>7613034152381</t>
-  </si>
-  <si>
     <t>80135876</t>
   </si>
   <si>
@@ -505,13 +511,16 @@
     <t>Ηλιος</t>
   </si>
   <si>
+    <t>Μπανάνες</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
     <t>Lays</t>
-  </si>
-  <si>
-    <t>Elite</t>
-  </si>
-  <si>
-    <t>Fitness</t>
   </si>
   <si>
     <t>Nutella</t>
@@ -905,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -977,7 +986,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G2" s="2">
         <v>4.99</v>
@@ -989,7 +998,7 @@
         <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -1012,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2">
         <v>19.9</v>
@@ -1024,7 +1033,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -1035,7 +1044,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>44013</v>
@@ -1047,19 +1056,19 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G4" s="2">
-        <v>2.1</v>
+        <v>17.3</v>
       </c>
       <c r="H4" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -1070,7 +1079,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4">
         <v>44013</v>
@@ -1082,19 +1091,19 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G5" s="2">
-        <v>17.95</v>
+        <v>2.1</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I5" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -1117,7 +1126,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G6" s="2">
         <v>8.9</v>
@@ -1129,7 +1138,7 @@
         <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -1152,7 +1161,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2">
         <v>16.65</v>
@@ -1164,7 +1173,7 @@
         <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -1187,7 +1196,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G8" s="2">
         <v>17.85</v>
@@ -1199,7 +1208,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -1222,7 +1231,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G9" s="2">
         <v>18.45</v>
@@ -1234,7 +1243,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1257,7 +1266,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2">
         <v>18.45</v>
@@ -1269,7 +1278,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -1292,7 +1301,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G11" s="2">
         <v>14.95</v>
@@ -1304,7 +1313,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1327,7 +1336,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G12" s="2">
         <v>11.95</v>
@@ -1339,7 +1348,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -1362,7 +1371,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G13" s="2">
         <v>10.7</v>
@@ -1374,7 +1383,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1397,7 +1406,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G14" s="2">
         <v>9.1</v>
@@ -1409,7 +1418,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1432,7 +1441,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G15" s="2">
         <v>12.9</v>
@@ -1444,7 +1453,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -1467,7 +1476,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="2">
         <v>13.35</v>
@@ -1479,7 +1488,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -1502,7 +1511,7 @@
         <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2">
         <v>18.95</v>
@@ -1514,7 +1523,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -1537,7 +1546,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G18" s="2">
         <v>16.8</v>
@@ -1549,7 +1558,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -1572,7 +1581,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G19" s="2">
         <v>12.5</v>
@@ -1584,7 +1593,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -1607,7 +1616,7 @@
         <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="2">
         <v>12.2</v>
@@ -1619,7 +1628,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -1642,7 +1651,7 @@
         <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G21" s="2">
         <v>12.9</v>
@@ -1654,7 +1663,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1677,7 +1686,7 @@
         <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G22" s="2">
         <v>13.35</v>
@@ -1689,7 +1698,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -1712,7 +1721,7 @@
         <v>34</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G23" s="2">
         <v>13.35</v>
@@ -1724,7 +1733,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1747,7 +1756,7 @@
         <v>35</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G24" s="2">
         <v>9.9</v>
@@ -1759,7 +1768,7 @@
         <v>30</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1782,7 +1791,7 @@
         <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G25" s="2">
         <v>9.9</v>
@@ -1794,7 +1803,7 @@
         <v>30</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -1817,7 +1826,7 @@
         <v>37</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G26" s="2">
         <v>11.9</v>
@@ -1829,7 +1838,7 @@
         <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -1852,7 +1861,7 @@
         <v>37</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G27" s="2">
         <v>11.9</v>
@@ -1864,7 +1873,7 @@
         <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -1887,7 +1896,7 @@
         <v>38</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G28" s="2">
         <v>4.95</v>
@@ -1899,7 +1908,7 @@
         <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -1922,7 +1931,7 @@
         <v>39</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G29" s="2">
         <v>4.95</v>
@@ -1934,7 +1943,7 @@
         <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -1957,7 +1966,7 @@
         <v>40</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G30" s="2">
         <v>1.95</v>
@@ -1969,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -1992,7 +2001,7 @@
         <v>41</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G31" s="2">
         <v>1.78</v>
@@ -2004,7 +2013,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -2024,22 +2033,22 @@
         <v>44027</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="G32" s="2">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="H32" s="2">
-        <v>0.85</v>
+        <v>1.25</v>
       </c>
       <c r="I32" s="1">
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -2059,10 +2068,10 @@
         <v>44027</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G33" s="2">
         <v>12.4</v>
@@ -2074,7 +2083,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -2094,10 +2103,10 @@
         <v>44027</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G34" s="2">
         <v>17.8</v>
@@ -2109,7 +2118,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -2129,13 +2138,13 @@
         <v>44027</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G35" s="2">
-        <v>17.3</v>
+        <v>17.95</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2144,7 +2153,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -2164,10 +2173,10 @@
         <v>44027</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G36" s="2">
         <v>17.3</v>
@@ -2179,7 +2188,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -2199,10 +2208,10 @@
         <v>44027</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G37" s="2">
         <v>4.99</v>
@@ -2214,7 +2223,7 @@
         <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
@@ -2234,10 +2243,10 @@
         <v>44027</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G38" s="2">
         <v>4.99</v>
@@ -2249,7 +2258,7 @@
         <v>30</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
@@ -2269,10 +2278,10 @@
         <v>44027</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G39" s="2">
         <v>4.99</v>
@@ -2284,7 +2293,7 @@
         <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K39" s="1">
         <v>0</v>
@@ -2304,10 +2313,10 @@
         <v>44027</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G40" s="2">
         <v>4.99</v>
@@ -2319,7 +2328,7 @@
         <v>30</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K40" s="1">
         <v>0</v>
@@ -2339,10 +2348,10 @@
         <v>44027</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G41" s="2">
         <v>4.99</v>
@@ -2354,7 +2363,7 @@
         <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
@@ -2374,10 +2383,10 @@
         <v>44027</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G42" s="2">
         <v>4.99</v>
@@ -2389,7 +2398,7 @@
         <v>30</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
@@ -2409,10 +2418,10 @@
         <v>44027</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G43" s="2">
         <v>4.99</v>
@@ -2424,7 +2433,7 @@
         <v>30</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
@@ -2444,10 +2453,10 @@
         <v>44027</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G44" s="2">
         <v>14.95</v>
@@ -2459,7 +2468,7 @@
         <v>20</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
@@ -2479,10 +2488,10 @@
         <v>44027</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G45" s="2">
         <v>15.95</v>
@@ -2494,7 +2503,7 @@
         <v>20</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
@@ -2514,13 +2523,13 @@
         <v>44027</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G46" s="2">
-        <v>10.15</v>
+        <v>15.5</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2529,7 +2538,7 @@
         <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
@@ -2549,13 +2558,13 @@
         <v>44027</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G47" s="2">
-        <v>15.5</v>
+        <v>10.45</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2564,7 +2573,7 @@
         <v>20</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K47" s="1">
         <v>0</v>
@@ -2584,10 +2593,10 @@
         <v>44027</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G48" s="2">
         <v>9.9</v>
@@ -2599,7 +2608,7 @@
         <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K48" s="1">
         <v>0</v>
@@ -2619,10 +2628,10 @@
         <v>44027</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G49" s="2">
         <v>12.7</v>
@@ -2634,7 +2643,7 @@
         <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K49" s="1">
         <v>0</v>
@@ -2654,10 +2663,10 @@
         <v>44027</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G50" s="2">
         <v>17.95</v>
@@ -2669,7 +2678,7 @@
         <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K50" s="1">
         <v>0</v>
@@ -2689,13 +2698,13 @@
         <v>44027</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G51" s="2">
-        <v>10.45</v>
+        <v>10.15</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2704,7 +2713,7 @@
         <v>20</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K51" s="1">
         <v>0</v>
@@ -2724,13 +2733,13 @@
         <v>44027</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G52" s="2">
-        <v>18.95</v>
+        <v>14.3</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2739,7 +2748,7 @@
         <v>20</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K52" s="1">
         <v>0</v>
@@ -2759,13 +2768,13 @@
         <v>44027</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G53" s="2">
-        <v>16.95</v>
+        <v>15.5</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2774,7 +2783,7 @@
         <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K53" s="1">
         <v>0</v>
@@ -2794,13 +2803,13 @@
         <v>44027</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G54" s="2">
-        <v>17.3</v>
+        <v>18.95</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2809,7 +2818,7 @@
         <v>20</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K54" s="1">
         <v>0</v>
@@ -2829,13 +2838,13 @@
         <v>44027</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G55" s="2">
-        <v>17.85</v>
+        <v>16.95</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2844,7 +2853,7 @@
         <v>20</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K55" s="1">
         <v>0</v>
@@ -2864,13 +2873,13 @@
         <v>44027</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G56" s="2">
-        <v>17.95</v>
+        <v>17.3</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2879,7 +2888,7 @@
         <v>20</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K56" s="1">
         <v>0</v>
@@ -2899,13 +2908,13 @@
         <v>44027</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G57" s="2">
-        <v>18.99</v>
+        <v>17.85</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2914,7 +2923,7 @@
         <v>20</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K57" s="1">
         <v>0</v>
@@ -2934,10 +2943,10 @@
         <v>44027</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G58" s="2">
         <v>15.5</v>
@@ -2949,7 +2958,7 @@
         <v>20</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K58" s="1">
         <v>0</v>
@@ -2969,13 +2978,13 @@
         <v>44027</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G59" s="2">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -2984,7 +2993,7 @@
         <v>20</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K59" s="1">
         <v>0</v>
@@ -2995,7 +3004,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C60" s="4">
         <v>44013</v>
@@ -3004,22 +3013,22 @@
         <v>44027</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="G60" s="2">
-        <v>15.5</v>
+        <v>2.1</v>
       </c>
       <c r="H60" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I60" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="K60" s="1">
         <v>0</v>
@@ -3042,10 +3051,10 @@
         <v>70</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G61" s="2">
-        <v>14.3</v>
+        <v>18.99</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -3054,7 +3063,7 @@
         <v>20</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K61" s="1">
         <v>0</v>
@@ -3077,10 +3086,10 @@
         <v>71</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G62" s="2">
-        <v>16.2</v>
+        <v>17.95</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3089,7 +3098,7 @@
         <v>20</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K62" s="1">
         <v>0</v>
@@ -3100,7 +3109,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63" s="4">
         <v>44013</v>
@@ -3112,25 +3121,25 @@
         <v>72</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G63" s="2">
-        <v>1.7</v>
+        <v>15.5</v>
       </c>
       <c r="H63" s="2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="2">
-        <v>1.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3147,10 +3156,10 @@
         <v>73</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G64" s="2">
-        <v>1.95</v>
+        <v>3.65</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -3159,13 +3168,13 @@
         <v>30</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K64" s="1">
         <v>1</v>
       </c>
       <c r="L64" s="2">
-        <v>1.21</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3182,7 +3191,7 @@
         <v>74</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G65" s="2">
         <v>9.9</v>
@@ -3191,16 +3200,16 @@
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="K65" s="1">
         <v>1</v>
       </c>
       <c r="L65" s="2">
-        <v>6.38</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3217,7 +3226,7 @@
         <v>75</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G66" s="2">
         <v>9.9</v>
@@ -3229,7 +3238,7 @@
         <v>20</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K66" s="1">
         <v>1</v>
@@ -3252,10 +3261,10 @@
         <v>76</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G67" s="2">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -3264,13 +3273,13 @@
         <v>20</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K67" s="1">
         <v>1</v>
       </c>
       <c r="L67" s="2">
-        <v>6.32</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3287,25 +3296,25 @@
         <v>77</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G68" s="2">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
       </c>
       <c r="I68" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K68" s="1">
         <v>1</v>
       </c>
       <c r="L68" s="2">
-        <v>5.59</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3322,10 +3331,10 @@
         <v>78</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G69" s="2">
-        <v>3.65</v>
+        <v>1.95</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -3334,13 +3343,13 @@
         <v>30</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K69" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L69" s="2">
-        <v>3.23</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3357,25 +3366,25 @@
         <v>79</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G70" s="2">
-        <v>3.78</v>
+        <v>1.7</v>
       </c>
       <c r="H70" s="2">
-        <v>2.95</v>
+        <v>1.3</v>
       </c>
       <c r="I70" s="1">
         <v>0</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K70" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L70" s="2">
-        <v>5.22</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3392,25 +3401,25 @@
         <v>80</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G71" s="2">
-        <v>1.69</v>
+        <v>3.78</v>
       </c>
       <c r="H71" s="2">
-        <v>1</v>
+        <v>2.95</v>
       </c>
       <c r="I71" s="1">
         <v>0</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K71" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L71" s="2">
-        <v>1.76</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3427,7 +3436,7 @@
         <v>81</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G72" s="2">
         <v>1.69</v>
@@ -3439,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K72" s="1">
         <v>3</v>
@@ -3459,28 +3468,28 @@
         <v>44027</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="G73" s="2">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="H73" s="2">
-        <v>1.65</v>
+        <v>1</v>
       </c>
       <c r="I73" s="1">
         <v>0</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="K73" s="1">
-        <v>5.775</v>
+        <v>5</v>
       </c>
       <c r="L73" s="2">
-        <v>8.43</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3494,28 +3503,28 @@
         <v>44027</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="G74" s="2">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="H74" s="2">
-        <v>0.85</v>
+        <v>1.65</v>
       </c>
       <c r="I74" s="1">
         <v>0</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K74" s="1">
-        <v>6.495</v>
+        <v>6.475</v>
       </c>
       <c r="L74" s="2">
-        <v>4.88</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3529,40 +3538,110 @@
         <v>44027</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="G75" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="H75" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="K75" s="1">
+        <v>8.541</v>
+      </c>
+      <c r="L75" s="2">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D76" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G76" s="2">
         <v>2.1</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H76" s="2">
         <v>0.85</v>
       </c>
-      <c r="I75" s="1">
-        <v>0</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="K75" s="1">
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K76" s="1">
         <v>8.859999999999999</v>
       </c>
-      <c r="L75" s="2">
+      <c r="L76" s="2">
         <v>6.67</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
-      <c r="K76" s="5">
-        <v>35.13</v>
-      </c>
-      <c r="L76" s="5">
-        <v>59.86000000000001</v>
+    <row r="77" spans="1:12">
+      <c r="A77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D77" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G77" s="2">
+        <v>2.3</v>
+      </c>
+      <c r="H77" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K77" s="1">
+        <v>12.945</v>
+      </c>
+      <c r="L77" s="2">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="K78" s="5">
+        <v>58.82100000000001</v>
+      </c>
+      <c r="L78" s="5">
+        <v>88.49000000000001</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I75">
+  <conditionalFormatting sqref="I1:I77">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3574,7 +3653,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J75">
+  <conditionalFormatting sqref="J1:J77">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -3538,28 +3538,28 @@
         <v>44027</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="G75" s="2">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="H75" s="2">
-        <v>1.25</v>
+        <v>0.85</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="K75" s="1">
-        <v>8.541</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="L75" s="2">
-        <v>12.79</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3573,28 +3573,28 @@
         <v>44027</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="G76" s="2">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="H76" s="2">
-        <v>0.85</v>
+        <v>1.25</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K76" s="1">
-        <v>8.859999999999999</v>
+        <v>9.055999999999999</v>
       </c>
       <c r="L76" s="2">
-        <v>6.67</v>
+        <v>13.36</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3634,10 +3634,10 @@
     </row>
     <row r="78" spans="1:12">
       <c r="K78" s="5">
-        <v>58.82100000000001</v>
+        <v>59.336</v>
       </c>
       <c r="L78" s="5">
-        <v>88.49000000000001</v>
+        <v>89.06</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="183">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -61,178 +61,199 @@
     <t>Dove® Αφρολουτρο Original 700ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
   </si>
   <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Moussel 50μεζ.</t>
+  </si>
+  <si>
+    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
+  </si>
+  <si>
+    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
   </si>
   <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Restore 750ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Silk 750ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Lemon 400ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
+  </si>
+  <si>
+    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
   </si>
   <si>
     <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
   </si>
   <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
     <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
   </si>
   <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Moussel 50μεζ.</t>
-  </si>
-  <si>
-    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Apple 400ml</t>
   </si>
   <si>
     <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
   </si>
   <si>
-    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
-  </si>
-  <si>
-    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
-  </si>
-  <si>
-    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Tube 50 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Talco 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Restore 750ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Silk 750ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
+    <t>Fairy® Ultra Ροδι 400ml</t>
   </si>
   <si>
     <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
@@ -241,24 +262,15 @@
     <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
   </si>
   <si>
-    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
     <t>Elite® Φρυγ. Σταρ. Οικογ.-20% 125gr (3+1 Δώρο)</t>
   </si>
   <si>
+    <t>Nutella® Πραλίνα Βάζο 400gr</t>
+  </si>
+  <si>
     <t>Tasty® Lays Αλάτι 150gr</t>
   </si>
   <si>
-    <t>Nutella® Πραλίνα Βάζο 400gr</t>
-  </si>
-  <si>
     <t>Papadopoulou® Cookies Διπλή Σοκολάτα 180gr</t>
   </si>
   <si>
@@ -271,184 +283,208 @@
     <t>8712561899185</t>
   </si>
   <si>
+    <t>4005808433292</t>
+  </si>
+  <si>
+    <t>4005808804511</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
+  </si>
+  <si>
     <t>4005900128607</t>
   </si>
   <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>4005808751259</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>5201178026686</t>
+  </si>
+  <si>
+    <t>3574661469294</t>
+  </si>
+  <si>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>3574661467153</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>8710447477847</t>
+  </si>
+  <si>
+    <t>8710522449325</t>
+  </si>
+  <si>
+    <t>8003640011506</t>
+  </si>
+  <si>
+    <t>9011111035721</t>
+  </si>
+  <si>
+    <t>5201020791540</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
+  </si>
+  <si>
+    <t>5201178033226</t>
+  </si>
+  <si>
     <t>4005808283460</t>
   </si>
   <si>
-    <t>0208</t>
-  </si>
-  <si>
-    <t>4005808859634</t>
-  </si>
-  <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>4005808473588</t>
-  </si>
-  <si>
-    <t>5201178033912</t>
-  </si>
-  <si>
-    <t>4005808751259</t>
-  </si>
-  <si>
-    <t>5201178032328</t>
-  </si>
-  <si>
-    <t>5201178026686</t>
-  </si>
-  <si>
-    <t>3574661469294</t>
-  </si>
-  <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>3574661492148</t>
+    <t>4005900128720</t>
+  </si>
+  <si>
+    <t>8712561899246</t>
+  </si>
+  <si>
+    <t>8712561899109</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
+  </si>
+  <si>
+    <t>8712561899147</t>
+  </si>
+  <si>
+    <t>8712561594424</t>
+  </si>
+  <si>
+    <t>8712561626569</t>
+  </si>
+  <si>
+    <t>8001841395883</t>
+  </si>
+  <si>
+    <t>5201178030928</t>
+  </si>
+  <si>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
+  </si>
+  <si>
+    <t>4005808478200</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
+    <t>4005808422999</t>
+  </si>
+  <si>
+    <t>4005808407460</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>5201178033257</t>
+  </si>
+  <si>
+    <t>5201178033011</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>5201219486417</t>
+  </si>
+  <si>
+    <t>0253</t>
+  </si>
+  <si>
+    <t>8712561898966</t>
+  </si>
+  <si>
+    <t>8003640011001</t>
   </si>
   <si>
     <t>4005808856695</t>
   </si>
   <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
-  </si>
-  <si>
     <t>3574661192833</t>
   </si>
   <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>3574661467153</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
-  </si>
-  <si>
-    <t>8710447477847</t>
-  </si>
-  <si>
-    <t>8710522449325</t>
-  </si>
-  <si>
-    <t>8003640011001</t>
-  </si>
-  <si>
-    <t>8003640011506</t>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>8001090902238</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>8001090902276</t>
   </si>
   <si>
     <t>7322540055337</t>
   </si>
   <si>
-    <t>9011111035721</t>
-  </si>
-  <si>
-    <t>0253</t>
-  </si>
-  <si>
-    <t>5201020791540</t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>3574661312491</t>
-  </si>
-  <si>
-    <t>4005808854028</t>
-  </si>
-  <si>
-    <t>5201178026785</t>
-  </si>
-  <si>
-    <t>4005808433292</t>
-  </si>
-  <si>
-    <t>8712561899246</t>
-  </si>
-  <si>
-    <t>8712561899109</t>
-  </si>
-  <si>
-    <t>8712561899284</t>
-  </si>
-  <si>
-    <t>8712561898966</t>
-  </si>
-  <si>
-    <t>8712561899147</t>
-  </si>
-  <si>
-    <t>8712561594424</t>
-  </si>
-  <si>
-    <t>8712561626569</t>
-  </si>
-  <si>
-    <t>5201178035244</t>
-  </si>
-  <si>
-    <t>5201178035213</t>
-  </si>
-  <si>
-    <t>4005808804511</t>
-  </si>
-  <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
-    <t>5201178037750</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
-    <t>4005808478200</t>
-  </si>
-  <si>
-    <t>4005808407460</t>
-  </si>
-  <si>
-    <t>4005808432349</t>
-  </si>
-  <si>
-    <t>5201178033226</t>
-  </si>
-  <si>
-    <t>5201178030928</t>
-  </si>
-  <si>
-    <t>4005900128720</t>
-  </si>
-  <si>
-    <t>4005808429882</t>
-  </si>
-  <si>
-    <t>4005808422999</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
-  </si>
-  <si>
-    <t>4005808593637</t>
-  </si>
-  <si>
-    <t>5201178033257</t>
-  </si>
-  <si>
-    <t>5201178033011</t>
+    <t>8001090902313</t>
   </si>
   <si>
     <t>7613034152381</t>
@@ -457,24 +493,15 @@
     <t>8710847878404</t>
   </si>
   <si>
-    <t>5201178035831</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>4005808441624</t>
-  </si>
-  <si>
     <t>5201485000850</t>
   </si>
   <si>
+    <t>80135876</t>
+  </si>
+  <si>
     <t>5201024779957</t>
   </si>
   <si>
-    <t>80135876</t>
-  </si>
-  <si>
     <t>5201004021502</t>
   </si>
   <si>
@@ -505,25 +532,31 @@
     <t>Zewa</t>
   </si>
   <si>
+    <t>Ηλιος</t>
+  </si>
+  <si>
+    <t>Μπανάνες</t>
+  </si>
+  <si>
+    <t>Fairy</t>
+  </si>
+  <si>
+    <t>Παπαγάλος</t>
+  </si>
+  <si>
     <t>Βερύκοκα</t>
   </si>
   <si>
-    <t>Ηλιος</t>
-  </si>
-  <si>
-    <t>Μπανάνες</t>
-  </si>
-  <si>
     <t>Fitness</t>
   </si>
   <si>
     <t>Elite</t>
   </si>
   <si>
+    <t>Nutella</t>
+  </si>
+  <si>
     <t>Lays</t>
-  </si>
-  <si>
-    <t>Nutella</t>
   </si>
   <si>
     <t>Papadopoulou</t>
@@ -914,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -986,7 +1019,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2">
         <v>4.99</v>
@@ -998,7 +1031,7 @@
         <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -1021,10 +1054,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2">
-        <v>19.9</v>
+        <v>17.3</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1033,7 +1066,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -1056,10 +1089,10 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" s="2">
-        <v>17.3</v>
+        <v>15.5</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1068,7 +1101,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -1079,7 +1112,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <v>44013</v>
@@ -1091,19 +1124,19 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G5" s="2">
-        <v>2.1</v>
+        <v>17.8</v>
       </c>
       <c r="H5" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -1126,19 +1159,19 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2">
-        <v>8.9</v>
+        <v>19.9</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -1149,7 +1182,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4">
         <v>44013</v>
@@ -1161,19 +1194,19 @@
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G7" s="2">
-        <v>16.65</v>
+        <v>2.1</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I7" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -1196,10 +1229,10 @@
         <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G8" s="2">
-        <v>17.85</v>
+        <v>17.95</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1208,7 +1241,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -1231,19 +1264,19 @@
         <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G9" s="2">
-        <v>18.45</v>
+        <v>8.9</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1263,13 +1296,13 @@
         <v>44027</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G10" s="2">
-        <v>18.45</v>
+        <v>16.65</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1278,7 +1311,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -1298,13 +1331,13 @@
         <v>44027</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G11" s="2">
-        <v>14.95</v>
+        <v>17.85</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1313,7 +1346,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1333,13 +1366,13 @@
         <v>44027</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G12" s="2">
-        <v>11.95</v>
+        <v>18.45</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1348,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -1371,10 +1404,10 @@
         <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G13" s="2">
-        <v>10.7</v>
+        <v>18.45</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1383,7 +1416,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1406,10 +1439,10 @@
         <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>9.1</v>
+        <v>14.95</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1418,7 +1451,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1441,10 +1474,10 @@
         <v>26</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G15" s="2">
-        <v>12.9</v>
+        <v>11.95</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1453,7 +1486,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -1476,10 +1509,10 @@
         <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G16" s="2">
-        <v>13.35</v>
+        <v>10.7</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1488,7 +1521,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -1511,10 +1544,10 @@
         <v>28</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G17" s="2">
-        <v>18.95</v>
+        <v>9.1</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1523,7 +1556,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -1546,10 +1579,10 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G18" s="2">
-        <v>16.8</v>
+        <v>12.9</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1558,7 +1591,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -1581,10 +1614,10 @@
         <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G19" s="2">
-        <v>12.5</v>
+        <v>13.35</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1593,7 +1626,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -1616,10 +1649,10 @@
         <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G20" s="2">
-        <v>12.2</v>
+        <v>16.8</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1628,7 +1661,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -1651,10 +1684,10 @@
         <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G21" s="2">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1663,7 +1696,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1686,10 +1719,10 @@
         <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G22" s="2">
-        <v>13.35</v>
+        <v>12.5</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1698,7 +1731,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -1721,10 +1754,10 @@
         <v>34</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G23" s="2">
-        <v>13.35</v>
+        <v>12.9</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1733,7 +1766,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1756,19 +1789,19 @@
         <v>35</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G24" s="2">
-        <v>9.9</v>
+        <v>13.35</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1791,19 +1824,19 @@
         <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G25" s="2">
-        <v>9.9</v>
+        <v>13.35</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -1826,10 +1859,10 @@
         <v>37</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G26" s="2">
-        <v>11.9</v>
+        <v>9.9</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1838,7 +1871,7 @@
         <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -1858,13 +1891,13 @@
         <v>44027</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G27" s="2">
-        <v>11.9</v>
+        <v>9.9</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1873,7 +1906,7 @@
         <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -1893,13 +1926,13 @@
         <v>44027</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G28" s="2">
-        <v>4.95</v>
+        <v>11.9</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1908,7 +1941,7 @@
         <v>30</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -1928,10 +1961,10 @@
         <v>44027</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G29" s="2">
         <v>4.95</v>
@@ -1943,7 +1976,7 @@
         <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -1954,7 +1987,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4">
         <v>44013</v>
@@ -1963,22 +1996,22 @@
         <v>44027</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G30" s="2">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="H30" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -1989,7 +2022,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4">
         <v>44013</v>
@@ -1998,22 +2031,22 @@
         <v>44027</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G31" s="2">
-        <v>1.78</v>
+        <v>1.69</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I31" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -2024,7 +2057,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="4">
         <v>44013</v>
@@ -2033,22 +2066,22 @@
         <v>44027</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G32" s="2">
-        <v>1.69</v>
+        <v>15.5</v>
       </c>
       <c r="H32" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -2068,13 +2101,13 @@
         <v>44027</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G33" s="2">
-        <v>12.4</v>
+        <v>18.95</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2083,7 +2116,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -2103,13 +2136,13 @@
         <v>44027</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G34" s="2">
-        <v>17.8</v>
+        <v>17.3</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2118,7 +2151,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -2138,13 +2171,13 @@
         <v>44027</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G35" s="2">
-        <v>17.95</v>
+        <v>17.3</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2153,7 +2186,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -2173,22 +2206,22 @@
         <v>44027</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G36" s="2">
-        <v>17.3</v>
+        <v>4.99</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -2208,10 +2241,10 @@
         <v>44027</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G37" s="2">
         <v>4.99</v>
@@ -2223,7 +2256,7 @@
         <v>30</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
@@ -2243,10 +2276,10 @@
         <v>44027</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G38" s="2">
         <v>4.99</v>
@@ -2258,7 +2291,7 @@
         <v>30</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
@@ -2278,10 +2311,10 @@
         <v>44027</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G39" s="2">
         <v>4.99</v>
@@ -2293,7 +2326,7 @@
         <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K39" s="1">
         <v>0</v>
@@ -2313,10 +2346,10 @@
         <v>44027</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G40" s="2">
         <v>4.99</v>
@@ -2328,7 +2361,7 @@
         <v>30</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K40" s="1">
         <v>0</v>
@@ -2348,10 +2381,10 @@
         <v>44027</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G41" s="2">
         <v>4.99</v>
@@ -2363,7 +2396,7 @@
         <v>30</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
@@ -2383,13 +2416,13 @@
         <v>44027</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G42" s="2">
-        <v>4.99</v>
+        <v>1.35</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2398,7 +2431,7 @@
         <v>30</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
@@ -2418,22 +2451,22 @@
         <v>44027</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G43" s="2">
-        <v>4.99</v>
+        <v>16.95</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
@@ -2453,10 +2486,10 @@
         <v>44027</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G44" s="2">
         <v>14.95</v>
@@ -2468,7 +2501,7 @@
         <v>20</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K44" s="1">
         <v>0</v>
@@ -2488,10 +2521,10 @@
         <v>44027</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G45" s="2">
         <v>15.95</v>
@@ -2503,7 +2536,7 @@
         <v>20</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K45" s="1">
         <v>0</v>
@@ -2523,13 +2556,13 @@
         <v>44027</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G46" s="2">
-        <v>15.5</v>
+        <v>10.15</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2538,7 +2571,7 @@
         <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K46" s="1">
         <v>0</v>
@@ -2558,10 +2591,10 @@
         <v>44027</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G47" s="2">
         <v>10.45</v>
@@ -2573,7 +2606,7 @@
         <v>20</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K47" s="1">
         <v>0</v>
@@ -2584,7 +2617,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" s="4">
         <v>44013</v>
@@ -2593,22 +2626,22 @@
         <v>44027</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="G48" s="2">
-        <v>9.9</v>
+        <v>2.1</v>
       </c>
       <c r="H48" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I48" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="K48" s="1">
         <v>0</v>
@@ -2631,10 +2664,10 @@
         <v>59</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G49" s="2">
-        <v>12.7</v>
+        <v>17.85</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2643,7 +2676,7 @@
         <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K49" s="1">
         <v>0</v>
@@ -2666,10 +2699,10 @@
         <v>60</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G50" s="2">
-        <v>17.95</v>
+        <v>15.5</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
@@ -2678,7 +2711,7 @@
         <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K50" s="1">
         <v>0</v>
@@ -2701,10 +2734,10 @@
         <v>61</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G51" s="2">
-        <v>10.15</v>
+        <v>14.3</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
@@ -2713,7 +2746,7 @@
         <v>20</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K51" s="1">
         <v>0</v>
@@ -2736,10 +2769,10 @@
         <v>62</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G52" s="2">
-        <v>14.3</v>
+        <v>17.95</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2748,7 +2781,7 @@
         <v>20</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K52" s="1">
         <v>0</v>
@@ -2771,10 +2804,10 @@
         <v>63</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G53" s="2">
-        <v>15.5</v>
+        <v>16.2</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2783,7 +2816,7 @@
         <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K53" s="1">
         <v>0</v>
@@ -2806,10 +2839,10 @@
         <v>64</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G54" s="2">
-        <v>18.95</v>
+        <v>17.95</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2818,7 +2851,7 @@
         <v>20</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K54" s="1">
         <v>0</v>
@@ -2841,10 +2874,10 @@
         <v>65</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G55" s="2">
-        <v>16.95</v>
+        <v>15.5</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2853,7 +2886,7 @@
         <v>20</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K55" s="1">
         <v>0</v>
@@ -2876,10 +2909,10 @@
         <v>66</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G56" s="2">
-        <v>17.3</v>
+        <v>9.9</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2888,7 +2921,7 @@
         <v>20</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K56" s="1">
         <v>0</v>
@@ -2911,10 +2944,10 @@
         <v>67</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G57" s="2">
-        <v>17.85</v>
+        <v>18.99</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2923,7 +2956,7 @@
         <v>20</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K57" s="1">
         <v>0</v>
@@ -2946,10 +2979,10 @@
         <v>68</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G58" s="2">
-        <v>15.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
@@ -2958,13 +2991,13 @@
         <v>20</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" s="2">
-        <v>0</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -2981,25 +3014,25 @@
         <v>69</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G59" s="2">
-        <v>16.2</v>
+        <v>3.7</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="K59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="2">
-        <v>0</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3013,28 +3046,28 @@
         <v>44027</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="G60" s="2">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H60" s="2">
-        <v>0.85</v>
+        <v>1.65</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="K60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" s="2">
-        <v>0</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3048,28 +3081,28 @@
         <v>44027</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G61" s="2">
-        <v>18.99</v>
+        <v>4.99</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61" s="2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3083,28 +3116,28 @@
         <v>44027</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G62" s="2">
-        <v>17.95</v>
+        <v>11.9</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
       </c>
       <c r="I62" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="K62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="2">
-        <v>0</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3121,10 +3154,10 @@
         <v>72</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G63" s="2">
-        <v>15.5</v>
+        <v>18.95</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -3133,13 +3166,13 @@
         <v>20</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="2">
-        <v>0</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3156,25 +3189,25 @@
         <v>73</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G64" s="2">
-        <v>3.65</v>
+        <v>12.2</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K64" s="1">
         <v>1</v>
       </c>
       <c r="L64" s="2">
-        <v>3.23</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3191,25 +3224,25 @@
         <v>74</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G65" s="2">
-        <v>9.9</v>
+        <v>12.7</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="K65" s="1">
         <v>1</v>
       </c>
       <c r="L65" s="2">
-        <v>5.59</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3223,28 +3256,28 @@
         <v>44027</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G66" s="2">
-        <v>9.9</v>
+        <v>1.35</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K66" s="1">
         <v>1</v>
       </c>
       <c r="L66" s="2">
-        <v>6.38</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3258,10 +3291,10 @@
         <v>44027</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G67" s="2">
         <v>9.9</v>
@@ -3273,7 +3306,7 @@
         <v>20</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K67" s="1">
         <v>1</v>
@@ -3293,13 +3326,13 @@
         <v>44027</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G68" s="2">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H68" s="2">
         <v>0</v>
@@ -3308,13 +3341,13 @@
         <v>20</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K68" s="1">
         <v>1</v>
       </c>
       <c r="L68" s="2">
-        <v>6.32</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3328,13 +3361,13 @@
         <v>44027</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G69" s="2">
-        <v>1.95</v>
+        <v>1.35</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -3343,18 +3376,18 @@
         <v>30</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K69" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L69" s="2">
-        <v>3.63</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C70" s="4">
         <v>44013</v>
@@ -3363,33 +3396,33 @@
         <v>44027</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G70" s="2">
-        <v>1.7</v>
+        <v>4.95</v>
       </c>
       <c r="H70" s="2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="I70" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K70" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L70" s="2">
-        <v>3.45</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C71" s="4">
         <v>44013</v>
@@ -3398,33 +3431,33 @@
         <v>44027</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G71" s="2">
-        <v>3.78</v>
+        <v>1.35</v>
       </c>
       <c r="H71" s="2">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I71" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K71" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L71" s="2">
-        <v>7.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C72" s="4">
         <v>44013</v>
@@ -3433,33 +3466,33 @@
         <v>44027</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G72" s="2">
-        <v>1.69</v>
+        <v>3.65</v>
       </c>
       <c r="H72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K72" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L72" s="2">
-        <v>2.64</v>
+        <v>5.49</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C73" s="4">
         <v>44013</v>
@@ -3468,33 +3501,33 @@
         <v>44027</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G73" s="2">
-        <v>1.69</v>
+        <v>9.9</v>
       </c>
       <c r="H73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K73" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L73" s="2">
-        <v>4.4</v>
+        <v>11.18</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74" s="4">
         <v>44013</v>
@@ -3503,28 +3536,28 @@
         <v>44027</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="G74" s="2">
         <v>1.95</v>
       </c>
       <c r="H74" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I74" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="K74" s="1">
-        <v>6.475</v>
+        <v>4</v>
       </c>
       <c r="L74" s="2">
-        <v>9.449999999999999</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3538,28 +3571,28 @@
         <v>44027</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="G75" s="2">
-        <v>2.1</v>
+        <v>3.78</v>
       </c>
       <c r="H75" s="2">
-        <v>0.85</v>
+        <v>2.95</v>
       </c>
       <c r="I75" s="1">
         <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="K75" s="1">
-        <v>8.859999999999999</v>
+        <v>4</v>
       </c>
       <c r="L75" s="2">
-        <v>6.67</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3573,28 +3606,28 @@
         <v>44027</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="G76" s="2">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="H76" s="2">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K76" s="1">
-        <v>9.055999999999999</v>
+        <v>7</v>
       </c>
       <c r="L76" s="2">
-        <v>13.36</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3608,40 +3641,215 @@
         <v>44027</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G77" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K77" s="1">
+        <v>9</v>
+      </c>
+      <c r="L77" s="2">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D78" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G78" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K78" s="1">
+        <v>9</v>
+      </c>
+      <c r="L78" s="2">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D79" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G79" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K79" s="1">
+        <v>10.485</v>
+      </c>
+      <c r="L79" s="2">
+        <v>15.31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D80" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G80" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="H80" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K80" s="1">
+        <v>13.485</v>
+      </c>
+      <c r="L80" s="2">
+        <v>9.619999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D81" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="H81" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K81" s="1">
+        <v>19.256</v>
+      </c>
+      <c r="L81" s="2">
+        <v>24.38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="4">
+        <v>44013</v>
+      </c>
+      <c r="D82" s="4">
+        <v>44027</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G82" s="2">
         <v>2.3</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H82" s="2">
         <v>0.85</v>
       </c>
-      <c r="I77" s="1">
-        <v>0</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K77" s="1">
-        <v>12.945</v>
-      </c>
-      <c r="L77" s="2">
-        <v>9.73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="K78" s="5">
-        <v>59.336</v>
-      </c>
-      <c r="L78" s="5">
-        <v>89.06</v>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K82" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="L82" s="2">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="K83" s="5">
+        <v>122.426</v>
+      </c>
+      <c r="L83" s="5">
+        <v>194.72</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I77">
+  <conditionalFormatting sqref="I1:I82">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -3653,7 +3861,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J77">
+  <conditionalFormatting sqref="J1:J82">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -3764,10 +3764,10 @@
         <v>167</v>
       </c>
       <c r="K80" s="1">
-        <v>13.485</v>
+        <v>14.485</v>
       </c>
       <c r="L80" s="2">
-        <v>9.619999999999999</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3834,18 +3834,18 @@
         <v>182</v>
       </c>
       <c r="K82" s="1">
-        <v>25.2</v>
+        <v>32.4</v>
       </c>
       <c r="L82" s="2">
-        <v>18.95</v>
+        <v>24.36</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>122.426</v>
+        <v>130.626</v>
       </c>
       <c r="L83" s="5">
-        <v>194.72</v>
+        <v>200.88</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -58,499 +58,499 @@
     <t>Πελάτες Τιμή Πώλησης</t>
   </si>
   <si>
+    <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
+  </si>
+  <si>
+    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Moussel 50μεζ.</t>
+  </si>
+  <si>
     <t>Dove® Αφρολουτρο Original 700ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Tube 50 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Moussel 50μεζ.</t>
-  </si>
-  <si>
-    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Restore 750ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Silk 750ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
   </si>
   <si>
     <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
   </si>
   <si>
-    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+    <t>Fairy® Ultra Ροδι 400ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Lemon 400ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
   </si>
   <si>
     <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
   </si>
   <si>
-    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Talco 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Restore 750ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Silk 750ml</t>
-  </si>
-  <si>
-    <t>Fairy® Ultra Lemon 400ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
-  </si>
-  <si>
     <t>Nivea® After Sun Lotion 200ml</t>
   </si>
   <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
+  </si>
+  <si>
+    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
+  </si>
+  <si>
+    <t>Elite® Φρυγ. Σταρ. Οικογ.-20% 125gr (3+1 Δώρο)</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Apple 400ml</t>
   </si>
   <si>
     <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
   </si>
   <si>
-    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
-  </si>
-  <si>
-    <t>Fairy® Ultra Apple 400ml</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
-  </si>
-  <si>
-    <t>Fairy® Ultra Ροδι 400ml</t>
-  </si>
-  <si>
-    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
-  </si>
-  <si>
-    <t>Elite® Φρυγ. Σταρ. Οικογ.-20% 125gr (3+1 Δώρο)</t>
-  </si>
-  <si>
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
     <t>Tasty® Lays Αλάτι 150gr</t>
   </si>
   <si>
+    <t>Papadopoulou® Cookies με κομματια σοκολατας 180gr</t>
+  </si>
+  <si>
     <t>Papadopoulou® Cookies Διπλή Σοκολάτα 180gr</t>
   </si>
   <si>
-    <t>Papadopoulou® Cookies με κομματια σοκολατας 180gr</t>
-  </si>
-  <si>
     <t>Νεκταρίνια® ΝΑΟΥΣΑΣ  (Ζυγιζόμενο) /Kgr</t>
   </si>
   <si>
+    <t>4005808283460</t>
+  </si>
+  <si>
+    <t>4005808449002</t>
+  </si>
+  <si>
+    <t>5201178033257</t>
+  </si>
+  <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
+    <t>5201178033011</t>
+  </si>
+  <si>
+    <t>4005808407460</t>
+  </si>
+  <si>
+    <t>4005808422999</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
+    <t>4005900128720</t>
+  </si>
+  <si>
+    <t>5201178030928</t>
+  </si>
+  <si>
+    <t>5201178033226</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
+  </si>
+  <si>
+    <t>4005808433292</t>
+  </si>
+  <si>
+    <t>4005808804511</t>
+  </si>
+  <si>
+    <t>4005808854028</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>8712561899109</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>9011111035721</t>
+  </si>
+  <si>
+    <t>8003640011506</t>
+  </si>
+  <si>
+    <t>8710447477847</t>
+  </si>
+  <si>
+    <t>5201178026686</t>
+  </si>
+  <si>
+    <t>3574661467153</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>3574661469294</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>8710522449325</t>
+  </si>
+  <si>
+    <t>8003640011001</t>
+  </si>
+  <si>
+    <t>4005808751259</t>
+  </si>
+  <si>
     <t>8712561899185</t>
   </si>
   <si>
-    <t>4005808433292</t>
-  </si>
-  <si>
-    <t>4005808804511</t>
-  </si>
-  <si>
-    <t>4005808854028</t>
-  </si>
-  <si>
-    <t>4005900128607</t>
-  </si>
-  <si>
-    <t>0208</t>
-  </si>
-  <si>
-    <t>5201178026785</t>
-  </si>
-  <si>
-    <t>4005808859634</t>
-  </si>
-  <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>4005808473588</t>
-  </si>
-  <si>
-    <t>5201178033912</t>
-  </si>
-  <si>
-    <t>4005808751259</t>
-  </si>
-  <si>
-    <t>5201178032328</t>
-  </si>
-  <si>
-    <t>5201178026686</t>
-  </si>
-  <si>
-    <t>3574661469294</t>
-  </si>
-  <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
-    <t>3574661312491</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
-  </si>
-  <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>3574661467153</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
-  </si>
-  <si>
-    <t>8710447477847</t>
-  </si>
-  <si>
-    <t>8710522449325</t>
-  </si>
-  <si>
-    <t>8003640011506</t>
-  </si>
-  <si>
-    <t>9011111035721</t>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>8712561594424</t>
+  </si>
+  <si>
+    <t>8712561626569</t>
+  </si>
+  <si>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>8712561899147</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
+  </si>
+  <si>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
   </si>
   <si>
     <t>5201020791540</t>
   </si>
   <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>4005808432349</t>
-  </si>
-  <si>
-    <t>5201178033226</t>
-  </si>
-  <si>
-    <t>4005808283460</t>
-  </si>
-  <si>
-    <t>4005900128720</t>
+    <t>8001090902313</t>
+  </si>
+  <si>
+    <t>8001841395883</t>
+  </si>
+  <si>
+    <t>8712561898966</t>
   </si>
   <si>
     <t>8712561899246</t>
   </si>
   <si>
-    <t>8712561899109</t>
-  </si>
-  <si>
-    <t>8712561899284</t>
-  </si>
-  <si>
-    <t>8712561899147</t>
-  </si>
-  <si>
-    <t>8712561594424</t>
-  </si>
-  <si>
-    <t>8712561626569</t>
-  </si>
-  <si>
-    <t>8001841395883</t>
-  </si>
-  <si>
-    <t>5201178030928</t>
-  </si>
-  <si>
-    <t>5201178035244</t>
-  </si>
-  <si>
-    <t>5201178035213</t>
-  </si>
-  <si>
     <t>4005808478200</t>
   </si>
   <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
-    <t>4005808429882</t>
-  </si>
-  <si>
-    <t>4005808422999</t>
-  </si>
-  <si>
-    <t>4005808407460</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
-    <t>4005808449002</t>
-  </si>
-  <si>
-    <t>5201178033257</t>
-  </si>
-  <si>
-    <t>5201178033011</t>
-  </si>
-  <si>
-    <t>5201178037750</t>
-  </si>
-  <si>
-    <t>4005808593637</t>
-  </si>
-  <si>
-    <t>4005808441624</t>
+    <t>7613034152381</t>
+  </si>
+  <si>
+    <t>0253</t>
+  </si>
+  <si>
+    <t>7322540055337</t>
+  </si>
+  <si>
+    <t>8710847878404</t>
+  </si>
+  <si>
+    <t>5201485000850</t>
+  </si>
+  <si>
+    <t>8001090902238</t>
+  </si>
+  <si>
+    <t>8001090902276</t>
   </si>
   <si>
     <t>5201219486417</t>
   </si>
   <si>
-    <t>0253</t>
-  </si>
-  <si>
-    <t>8712561898966</t>
-  </si>
-  <si>
-    <t>8003640011001</t>
-  </si>
-  <si>
-    <t>4005808856695</t>
-  </si>
-  <si>
-    <t>3574661192833</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>8001090902238</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>5201178035831</t>
-  </si>
-  <si>
-    <t>8001090902276</t>
-  </si>
-  <si>
-    <t>7322540055337</t>
-  </si>
-  <si>
-    <t>8001090902313</t>
-  </si>
-  <si>
-    <t>7613034152381</t>
-  </si>
-  <si>
-    <t>8710847878404</t>
-  </si>
-  <si>
-    <t>5201485000850</t>
-  </si>
-  <si>
     <t>80135876</t>
   </si>
   <si>
     <t>5201024779957</t>
   </si>
   <si>
+    <t>5201004021755</t>
+  </si>
+  <si>
     <t>5201004021502</t>
   </si>
   <si>
-    <t>5201004021755</t>
-  </si>
-  <si>
     <t>0214</t>
   </si>
   <si>
+    <t>Nivea</t>
+  </si>
+  <si>
+    <t>Ροδάκινο</t>
+  </si>
+  <si>
     <t>Dove</t>
   </si>
   <si>
-    <t>Nivea</t>
-  </si>
-  <si>
-    <t>Ροδάκινο</t>
+    <t>Μπανάνες</t>
+  </si>
+  <si>
+    <t>Zewa</t>
+  </si>
+  <si>
+    <t>Soft</t>
+  </si>
+  <si>
+    <t>Skip</t>
   </si>
   <si>
     <t>PizBuin</t>
   </si>
   <si>
-    <t>Skip</t>
-  </si>
-  <si>
-    <t>Soft</t>
-  </si>
-  <si>
-    <t>Zewa</t>
-  </si>
-  <si>
     <t>Ηλιος</t>
   </si>
   <si>
-    <t>Μπανάνες</t>
-  </si>
-  <si>
     <t>Fairy</t>
   </si>
   <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>Βερύκοκα</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
     <t>Παπαγάλος</t>
-  </si>
-  <si>
-    <t>Βερύκοκα</t>
-  </si>
-  <si>
-    <t>Fitness</t>
-  </si>
-  <si>
-    <t>Elite</t>
   </si>
   <si>
     <t>Nutella</t>
@@ -1022,13 +1022,13 @@
         <v>88</v>
       </c>
       <c r="G2" s="2">
-        <v>4.99</v>
+        <v>17.3</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>165</v>
@@ -1057,7 +1057,7 @@
         <v>89</v>
       </c>
       <c r="G3" s="2">
-        <v>17.3</v>
+        <v>16.2</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>90</v>
       </c>
       <c r="G4" s="2">
-        <v>15.5</v>
+        <v>17.95</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="2">
-        <v>17.8</v>
+        <v>18.99</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>92</v>
       </c>
       <c r="G6" s="2">
-        <v>19.9</v>
+        <v>15.5</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K6" s="1">
         <v>0</v>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
         <v>44013</v>
@@ -1197,16 +1197,16 @@
         <v>93</v>
       </c>
       <c r="G7" s="2">
-        <v>2.1</v>
+        <v>14.3</v>
       </c>
       <c r="H7" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>94</v>
       </c>
       <c r="G8" s="2">
-        <v>17.95</v>
+        <v>15.5</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K8" s="1">
         <v>0</v>
@@ -1267,16 +1267,16 @@
         <v>95</v>
       </c>
       <c r="G9" s="2">
-        <v>8.9</v>
+        <v>17.85</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K9" s="1">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>96</v>
       </c>
       <c r="G10" s="2">
-        <v>16.65</v>
+        <v>17.3</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K10" s="1">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>97</v>
       </c>
       <c r="G11" s="2">
-        <v>17.85</v>
+        <v>16.95</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K11" s="1">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>98</v>
       </c>
       <c r="G12" s="2">
-        <v>18.45</v>
+        <v>18.95</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K12" s="1">
         <v>0</v>
@@ -1401,13 +1401,13 @@
         <v>44027</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="G13" s="2">
-        <v>18.45</v>
+        <v>15.5</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K13" s="1">
         <v>0</v>
@@ -1436,13 +1436,13 @@
         <v>44027</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>14.95</v>
+        <v>17.3</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1471,13 +1471,13 @@
         <v>44027</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>101</v>
       </c>
       <c r="G15" s="2">
-        <v>11.95</v>
+        <v>15.5</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K15" s="1">
         <v>0</v>
@@ -1506,13 +1506,13 @@
         <v>44027</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>102</v>
       </c>
       <c r="G16" s="2">
-        <v>10.7</v>
+        <v>17.8</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1521,7 +1521,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K16" s="1">
         <v>0</v>
@@ -1541,13 +1541,13 @@
         <v>44027</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G17" s="2">
-        <v>9.1</v>
+        <v>19.9</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K17" s="1">
         <v>0</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4">
         <v>44013</v>
@@ -1576,22 +1576,22 @@
         <v>44027</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>104</v>
       </c>
       <c r="G18" s="2">
-        <v>12.9</v>
+        <v>2.1</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I18" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -1611,13 +1611,13 @@
         <v>44027</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>105</v>
       </c>
       <c r="G19" s="2">
-        <v>13.35</v>
+        <v>17.95</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -1646,22 +1646,22 @@
         <v>44027</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G20" s="2">
-        <v>16.8</v>
+        <v>8.9</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K20" s="1">
         <v>0</v>
@@ -1681,13 +1681,13 @@
         <v>44027</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>107</v>
       </c>
       <c r="G21" s="2">
-        <v>12.4</v>
+        <v>16.65</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1716,13 +1716,13 @@
         <v>44027</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>108</v>
       </c>
       <c r="G22" s="2">
-        <v>12.5</v>
+        <v>17.95</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -1751,13 +1751,13 @@
         <v>44027</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>109</v>
       </c>
       <c r="G23" s="2">
-        <v>12.9</v>
+        <v>17.85</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1786,13 +1786,13 @@
         <v>44027</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>110</v>
       </c>
       <c r="G24" s="2">
-        <v>13.35</v>
+        <v>14.95</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>44027</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>111</v>
       </c>
       <c r="G25" s="2">
-        <v>13.35</v>
+        <v>9.9</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K25" s="1">
         <v>0</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="4">
         <v>44013</v>
@@ -1856,22 +1856,22 @@
         <v>44027</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G26" s="2">
-        <v>9.9</v>
+        <v>2.1</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I26" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>38</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G27" s="2">
-        <v>9.9</v>
+        <v>4.99</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>30</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" s="4">
         <v>44013</v>
@@ -1929,19 +1929,19 @@
         <v>39</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G28" s="2">
-        <v>11.9</v>
+        <v>1.69</v>
       </c>
       <c r="H28" s="2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I28" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>40</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G29" s="2">
         <v>4.95</v>
@@ -1976,7 +1976,7 @@
         <v>30</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         <v>41</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G30" s="2">
-        <v>1.78</v>
+        <v>11.9</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4">
         <v>44013</v>
@@ -2034,19 +2034,19 @@
         <v>42</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G31" s="2">
-        <v>1.69</v>
+        <v>9.9</v>
       </c>
       <c r="H31" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -2069,10 +2069,10 @@
         <v>43</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G32" s="2">
-        <v>15.5</v>
+        <v>11.95</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -2104,10 +2104,10 @@
         <v>44</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G33" s="2">
-        <v>18.95</v>
+        <v>13.35</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -2139,10 +2139,10 @@
         <v>45</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G34" s="2">
-        <v>17.3</v>
+        <v>13.35</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>46</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G35" s="2">
-        <v>17.3</v>
+        <v>12.5</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -2209,19 +2209,19 @@
         <v>47</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G36" s="2">
-        <v>4.99</v>
+        <v>12.4</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
       </c>
       <c r="I36" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>48</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G37" s="2">
-        <v>4.99</v>
+        <v>16.8</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
       </c>
       <c r="I37" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
@@ -2279,19 +2279,19 @@
         <v>49</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G38" s="2">
-        <v>4.99</v>
+        <v>13.35</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
       </c>
       <c r="I38" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
@@ -2314,19 +2314,19 @@
         <v>50</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G39" s="2">
-        <v>4.99</v>
+        <v>12.9</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
       </c>
       <c r="I39" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K39" s="1">
         <v>0</v>
@@ -2349,19 +2349,19 @@
         <v>51</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G40" s="2">
-        <v>4.99</v>
+        <v>9.1</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K40" s="1">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         <v>52</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G41" s="2">
-        <v>4.99</v>
+        <v>10.7</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
       </c>
       <c r="I41" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K41" s="1">
         <v>0</v>
@@ -2419,19 +2419,19 @@
         <v>53</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G42" s="2">
-        <v>1.35</v>
+        <v>12.9</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K42" s="1">
         <v>0</v>
@@ -2454,10 +2454,10 @@
         <v>54</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G43" s="2">
-        <v>16.95</v>
+        <v>18.45</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2466,7 +2466,7 @@
         <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K43" s="1">
         <v>0</v>
@@ -2489,10 +2489,10 @@
         <v>55</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G44" s="2">
-        <v>14.95</v>
+        <v>12.2</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>20</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="K44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" s="2">
-        <v>0</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2524,25 +2524,25 @@
         <v>56</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G45" s="2">
-        <v>15.95</v>
+        <v>9.9</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="K45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>0</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2556,28 +2556,28 @@
         <v>44027</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G46" s="2">
-        <v>10.15</v>
+        <v>11.9</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>0</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2591,13 +2591,13 @@
         <v>44027</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G47" s="2">
-        <v>10.45</v>
+        <v>18.45</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -2606,18 +2606,18 @@
         <v>20</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="2">
-        <v>0</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48" s="4">
         <v>44013</v>
@@ -2626,28 +2626,28 @@
         <v>44027</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="G48" s="2">
-        <v>2.1</v>
+        <v>4.99</v>
       </c>
       <c r="H48" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>167</v>
       </c>
       <c r="K48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" s="2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2661,13 +2661,13 @@
         <v>44027</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G49" s="2">
-        <v>17.85</v>
+        <v>12.7</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2676,13 +2676,13 @@
         <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>0</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2696,28 +2696,28 @@
         <v>44027</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>135</v>
       </c>
       <c r="G50" s="2">
-        <v>15.5</v>
+        <v>4.99</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2731,28 +2731,28 @@
         <v>44027</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>136</v>
       </c>
       <c r="G51" s="2">
-        <v>14.3</v>
+        <v>4.99</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2766,13 +2766,13 @@
         <v>44027</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>137</v>
       </c>
       <c r="G52" s="2">
-        <v>17.95</v>
+        <v>18.95</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -2781,13 +2781,13 @@
         <v>20</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="2">
-        <v>0</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2801,28 +2801,28 @@
         <v>44027</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>138</v>
       </c>
       <c r="G53" s="2">
-        <v>16.2</v>
+        <v>4.99</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2836,13 +2836,13 @@
         <v>44027</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>139</v>
       </c>
       <c r="G54" s="2">
-        <v>17.95</v>
+        <v>9.9</v>
       </c>
       <c r="H54" s="2">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>20</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" s="2">
-        <v>0</v>
+        <v>6.38</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2871,13 +2871,13 @@
         <v>44027</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G55" s="2">
-        <v>15.5</v>
+        <v>15.95</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>20</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" s="2">
-        <v>0</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2906,13 +2906,13 @@
         <v>44027</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G56" s="2">
-        <v>9.9</v>
+        <v>14.95</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>20</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" s="2">
-        <v>0</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2941,13 +2941,13 @@
         <v>44027</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G57" s="2">
-        <v>18.99</v>
+        <v>10.45</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2956,13 +2956,13 @@
         <v>20</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="2">
-        <v>0</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2976,28 +2976,28 @@
         <v>44027</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>143</v>
       </c>
       <c r="G58" s="2">
-        <v>9.800000000000001</v>
+        <v>4.99</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K58" s="1">
         <v>1</v>
       </c>
       <c r="L58" s="2">
-        <v>6.32</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3011,33 +3011,33 @@
         <v>44027</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>144</v>
       </c>
       <c r="G59" s="2">
-        <v>3.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
       </c>
       <c r="I59" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="K59" s="1">
         <v>1</v>
       </c>
       <c r="L59" s="2">
-        <v>2.61</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" s="4">
         <v>44013</v>
@@ -3046,28 +3046,28 @@
         <v>44027</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G60" s="2">
-        <v>1.95</v>
+        <v>9.9</v>
       </c>
       <c r="H60" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I60" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L60" s="2">
-        <v>1.28</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3081,28 +3081,28 @@
         <v>44027</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G61" s="2">
-        <v>4.99</v>
+        <v>1.78</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L61" s="2">
-        <v>3.3</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3116,13 +3116,13 @@
         <v>44027</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G62" s="2">
-        <v>11.9</v>
+        <v>1.35</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3131,13 +3131,13 @@
         <v>30</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K62" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L62" s="2">
-        <v>6.52</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3157,22 +3157,22 @@
         <v>148</v>
       </c>
       <c r="G63" s="2">
-        <v>18.95</v>
+        <v>1.35</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L63" s="2">
-        <v>12.22</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3192,22 +3192,22 @@
         <v>149</v>
       </c>
       <c r="G64" s="2">
-        <v>12.2</v>
+        <v>4.99</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K64" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L64" s="2">
-        <v>7.87</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3227,22 +3227,22 @@
         <v>150</v>
       </c>
       <c r="G65" s="2">
-        <v>12.7</v>
+        <v>4.99</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K65" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" s="2">
-        <v>8.19</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3256,28 +3256,28 @@
         <v>44027</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G66" s="2">
-        <v>1.35</v>
+        <v>10.15</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L66" s="2">
-        <v>0.76</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3291,33 +3291,33 @@
         <v>44027</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>152</v>
       </c>
       <c r="G67" s="2">
-        <v>9.9</v>
+        <v>3.65</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
       </c>
       <c r="I67" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="K67" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L67" s="2">
-        <v>6.38</v>
+        <v>7.75</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C68" s="4">
         <v>44013</v>
@@ -3326,28 +3326,28 @@
         <v>44027</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>153</v>
       </c>
       <c r="G68" s="2">
-        <v>9.9</v>
+        <v>1.95</v>
       </c>
       <c r="H68" s="2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I68" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="K68" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L68" s="2">
-        <v>6.38</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3361,13 +3361,13 @@
         <v>44027</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>154</v>
       </c>
       <c r="G69" s="2">
-        <v>1.35</v>
+        <v>4.95</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -3376,13 +3376,13 @@
         <v>30</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K69" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L69" s="2">
-        <v>1.36</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3396,13 +3396,13 @@
         <v>44027</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>155</v>
       </c>
       <c r="G70" s="2">
-        <v>4.95</v>
+        <v>9.9</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -3414,10 +3414,10 @@
         <v>171</v>
       </c>
       <c r="K70" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L70" s="2">
-        <v>5.58</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3431,13 +3431,13 @@
         <v>44027</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>156</v>
       </c>
       <c r="G71" s="2">
-        <v>1.35</v>
+        <v>1.95</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -3446,13 +3446,13 @@
         <v>30</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K71" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L71" s="2">
-        <v>1.85</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3466,13 +3466,13 @@
         <v>44027</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G72" s="2">
-        <v>3.65</v>
+        <v>1.35</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
@@ -3481,13 +3481,13 @@
         <v>30</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K72" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L72" s="2">
-        <v>5.49</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3507,7 +3507,7 @@
         <v>158</v>
       </c>
       <c r="G73" s="2">
-        <v>9.9</v>
+        <v>1.35</v>
       </c>
       <c r="H73" s="2">
         <v>0</v>
@@ -3516,13 +3516,13 @@
         <v>30</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="K73" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L73" s="2">
-        <v>11.18</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3542,22 +3542,22 @@
         <v>159</v>
       </c>
       <c r="G74" s="2">
-        <v>1.95</v>
+        <v>3.7</v>
       </c>
       <c r="H74" s="2">
         <v>0</v>
       </c>
       <c r="I74" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>178</v>
       </c>
       <c r="K74" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L74" s="2">
-        <v>4.84</v>
+        <v>14.02</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3589,10 +3589,10 @@
         <v>179</v>
       </c>
       <c r="K75" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L75" s="2">
-        <v>10.44</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3624,10 +3624,10 @@
         <v>180</v>
       </c>
       <c r="K76" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L76" s="2">
-        <v>8.050000000000001</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3659,10 +3659,10 @@
         <v>181</v>
       </c>
       <c r="K77" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="L77" s="2">
-        <v>7.92</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3676,28 +3676,28 @@
         <v>44027</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="G78" s="2">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="H78" s="2">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="I78" s="1">
         <v>0</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="K78" s="1">
-        <v>9</v>
+        <v>15.285</v>
       </c>
       <c r="L78" s="2">
-        <v>7.92</v>
+        <v>22.32</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3711,28 +3711,28 @@
         <v>44027</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="G79" s="2">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="H79" s="2">
-        <v>1.65</v>
+        <v>1</v>
       </c>
       <c r="I79" s="1">
         <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K79" s="1">
-        <v>10.485</v>
+        <v>17</v>
       </c>
       <c r="L79" s="2">
-        <v>15.31</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3746,10 +3746,10 @@
         <v>44027</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G80" s="2">
         <v>2.1</v>
@@ -3761,13 +3761,13 @@
         <v>0</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K80" s="1">
-        <v>14.485</v>
+        <v>20.185</v>
       </c>
       <c r="L80" s="2">
-        <v>10.37</v>
+        <v>14.43</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3781,10 +3781,10 @@
         <v>44027</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G81" s="2">
         <v>1.69</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K81" s="1">
-        <v>19.256</v>
+        <v>34.216</v>
       </c>
       <c r="L81" s="2">
-        <v>24.38</v>
+        <v>40.91</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3834,18 +3834,18 @@
         <v>182</v>
       </c>
       <c r="K82" s="1">
-        <v>32.4</v>
+        <v>48.78</v>
       </c>
       <c r="L82" s="2">
-        <v>24.36</v>
+        <v>36.48</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>130.626</v>
+        <v>233.466</v>
       </c>
       <c r="L83" s="5">
-        <v>200.88</v>
+        <v>396.65</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -3624,10 +3624,10 @@
         <v>180</v>
       </c>
       <c r="K76" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L76" s="2">
-        <v>11.5</v>
+        <v>12.65</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3694,10 +3694,10 @@
         <v>176</v>
       </c>
       <c r="K78" s="1">
-        <v>15.285</v>
+        <v>16.38</v>
       </c>
       <c r="L78" s="2">
-        <v>22.32</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3764,10 +3764,10 @@
         <v>166</v>
       </c>
       <c r="K80" s="1">
-        <v>20.185</v>
+        <v>21.645</v>
       </c>
       <c r="L80" s="2">
-        <v>14.43</v>
+        <v>15.53</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3799,10 +3799,10 @@
         <v>168</v>
       </c>
       <c r="K81" s="1">
-        <v>34.216</v>
+        <v>34.681</v>
       </c>
       <c r="L81" s="2">
-        <v>40.91</v>
+        <v>41.42</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3834,18 +3834,18 @@
         <v>182</v>
       </c>
       <c r="K82" s="1">
-        <v>48.78</v>
+        <v>49.28</v>
       </c>
       <c r="L82" s="2">
-        <v>36.48</v>
+        <v>36.86</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>233.466</v>
+        <v>237.986</v>
       </c>
       <c r="L83" s="5">
-        <v>396.65</v>
+        <v>401.39</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -103,6 +103,9 @@
     <t>Nivea® Sun Spray {SPF30} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
   </si>
   <si>
@@ -115,159 +118,156 @@
     <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
     <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
   </si>
   <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
+  </si>
+  <si>
+    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
+  </si>
+  <si>
     <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
   </si>
   <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
-  </si>
-  <si>
-    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
-  </si>
-  <si>
-    <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Lotion 200ml</t>
   </si>
   <si>
     <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
   </si>
   <si>
-    <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Tube 50 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+    <t>Skip® Υγρό  Moussel 50μεζ.</t>
   </si>
   <si>
     <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
   </si>
   <si>
-    <t>Skip® Υγρό  Moussel 50μεζ.</t>
-  </si>
-  <si>
     <t>Dove® Αφρολουτρο Original 700ml</t>
   </si>
   <si>
     <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
   </si>
   <si>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
     <t>Dove® Ντους Restore 750ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+  </si>
+  <si>
     <t>Dove® Ντους Silk 750ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
+  </si>
+  <si>
+    <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
   </si>
   <si>
     <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
   </si>
   <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Talco 700ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
+    <t>Nivea® After Sun Lotion 200ml</t>
   </si>
   <si>
     <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
   </si>
   <si>
-    <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
-  </si>
-  <si>
     <t>Fairy® Ultra Ροδι 400ml</t>
   </si>
   <si>
     <t>Fairy® Ultra Lemon 400ml</t>
   </si>
   <si>
-    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion 200ml</t>
+    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
   </si>
   <si>
     <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
   </si>
   <si>
-    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
-  </si>
-  <si>
     <t>Elite® Φρυγ. Σταρ. Οικογ.-20% 125gr (3+1 Δώρο)</t>
   </si>
   <si>
     <t>Fairy® Ultra Apple 400ml</t>
   </si>
   <si>
+    <t>Nutella® Πραλίνα Βάζο 400gr</t>
+  </si>
+  <si>
     <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
   </si>
   <si>
-    <t>Nutella® Πραλίνα Βάζο 400gr</t>
-  </si>
-  <si>
     <t>Tasty® Lays Αλάτι 150gr</t>
   </si>
   <si>
@@ -325,6 +325,9 @@
     <t>4005808854028</t>
   </si>
   <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
     <t>4005900128607</t>
   </si>
   <si>
@@ -337,153 +340,150 @@
     <t>4005808859634</t>
   </si>
   <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
     <t>4005808262106</t>
   </si>
   <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
     <t>4005808473588</t>
   </si>
   <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>8712561899109</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>9011111035721</t>
+  </si>
+  <si>
+    <t>8003640011506</t>
+  </si>
+  <si>
+    <t>8710447477847</t>
+  </si>
+  <si>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>3574661467153</t>
+  </si>
+  <si>
     <t>5201178032328</t>
   </si>
   <si>
-    <t>5201178037750</t>
-  </si>
-  <si>
-    <t>8712561899109</t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>9011111035721</t>
-  </si>
-  <si>
-    <t>8003640011506</t>
-  </si>
-  <si>
-    <t>8710447477847</t>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
+  </si>
+  <si>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>3574661469294</t>
   </si>
   <si>
     <t>5201178026686</t>
   </si>
   <si>
-    <t>3574661467153</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
-  </si>
-  <si>
-    <t>3574661312491</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>3574661469294</t>
-  </si>
-  <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>5201178033912</t>
+    <t>8710522449325</t>
   </si>
   <si>
     <t>3574661192833</t>
   </si>
   <si>
-    <t>8710522449325</t>
+    <t>4005808751259</t>
+  </si>
+  <si>
+    <t>8712561899185</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
+  </si>
+  <si>
+    <t>8712561899147</t>
+  </si>
+  <si>
+    <t>8712561594424</t>
+  </si>
+  <si>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>8712561626569</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>4005808441624</t>
+  </si>
+  <si>
+    <t>8712561899246</t>
+  </si>
+  <si>
+    <t>5201020791540</t>
+  </si>
+  <si>
+    <t>8712561898966</t>
+  </si>
+  <si>
+    <t>5201178035213</t>
   </si>
   <si>
     <t>8003640011001</t>
   </si>
   <si>
-    <t>4005808751259</t>
-  </si>
-  <si>
-    <t>8712561899185</t>
-  </si>
-  <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>8712561594424</t>
-  </si>
-  <si>
-    <t>8712561626569</t>
-  </si>
-  <si>
-    <t>4005808856695</t>
-  </si>
-  <si>
-    <t>8712561899147</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>5201178035213</t>
-  </si>
-  <si>
-    <t>5201178035244</t>
-  </si>
-  <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
-    <t>8712561899284</t>
-  </si>
-  <si>
-    <t>4005808441624</t>
+    <t>4005808478200</t>
   </si>
   <si>
     <t>5201178035831</t>
   </si>
   <si>
-    <t>5201020791540</t>
-  </si>
-  <si>
     <t>8001090902313</t>
   </si>
   <si>
     <t>8001841395883</t>
   </si>
   <si>
-    <t>8712561898966</t>
-  </si>
-  <si>
-    <t>8712561899246</t>
-  </si>
-  <si>
-    <t>4005808478200</t>
+    <t>0253</t>
+  </si>
+  <si>
+    <t>7322540055337</t>
+  </si>
+  <si>
+    <t>8710847878404</t>
   </si>
   <si>
     <t>7613034152381</t>
   </si>
   <si>
-    <t>0253</t>
-  </si>
-  <si>
-    <t>7322540055337</t>
-  </si>
-  <si>
-    <t>8710847878404</t>
-  </si>
-  <si>
     <t>5201485000850</t>
   </si>
   <si>
@@ -493,12 +493,12 @@
     <t>8001090902276</t>
   </si>
   <si>
+    <t>80135876</t>
+  </si>
+  <si>
     <t>5201219486417</t>
   </si>
   <si>
-    <t>80135876</t>
-  </si>
-  <si>
     <t>5201024779957</t>
   </si>
   <si>
@@ -541,19 +541,19 @@
     <t>Fairy</t>
   </si>
   <si>
+    <t>Βερύκοκα</t>
+  </si>
+  <si>
     <t>Fitness</t>
   </si>
   <si>
-    <t>Βερύκοκα</t>
-  </si>
-  <si>
     <t>Elite</t>
   </si>
   <si>
+    <t>Nutella</t>
+  </si>
+  <si>
     <t>Παπαγάλος</t>
-  </si>
-  <si>
-    <t>Nutella</t>
   </si>
   <si>
     <t>Lays</t>
@@ -1547,7 +1547,7 @@
         <v>103</v>
       </c>
       <c r="G17" s="2">
-        <v>19.9</v>
+        <v>18.45</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4">
         <v>44013</v>
@@ -1582,16 +1582,16 @@
         <v>104</v>
       </c>
       <c r="G18" s="2">
-        <v>2.1</v>
+        <v>19.9</v>
       </c>
       <c r="H18" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K18" s="1">
         <v>0</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="4">
         <v>44013</v>
@@ -1617,16 +1617,16 @@
         <v>105</v>
       </c>
       <c r="G19" s="2">
-        <v>17.95</v>
+        <v>2.1</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I19" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>106</v>
       </c>
       <c r="G20" s="2">
-        <v>8.9</v>
+        <v>17.95</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
       </c>
       <c r="I20" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>165</v>
@@ -1687,13 +1687,13 @@
         <v>107</v>
       </c>
       <c r="G21" s="2">
-        <v>16.65</v>
+        <v>8.9</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>165</v>
@@ -1757,7 +1757,7 @@
         <v>109</v>
       </c>
       <c r="G23" s="2">
-        <v>17.85</v>
+        <v>16.65</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>110</v>
       </c>
       <c r="G24" s="2">
-        <v>14.95</v>
+        <v>17.85</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1856,10 +1856,10 @@
         <v>44027</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G26" s="2">
         <v>2.1</v>
@@ -2072,7 +2072,7 @@
         <v>117</v>
       </c>
       <c r="G32" s="2">
-        <v>11.95</v>
+        <v>13.35</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>119</v>
       </c>
       <c r="G34" s="2">
-        <v>13.35</v>
+        <v>14.95</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>120</v>
       </c>
       <c r="G35" s="2">
-        <v>12.5</v>
+        <v>12.9</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>121</v>
       </c>
       <c r="G36" s="2">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>122</v>
       </c>
       <c r="G37" s="2">
-        <v>16.8</v>
+        <v>12.4</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>123</v>
       </c>
       <c r="G38" s="2">
-        <v>13.35</v>
+        <v>16.8</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>124</v>
       </c>
       <c r="G39" s="2">
-        <v>12.9</v>
+        <v>13.35</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2352,7 +2352,7 @@
         <v>125</v>
       </c>
       <c r="G40" s="2">
-        <v>9.1</v>
+        <v>12.9</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>126</v>
       </c>
       <c r="G41" s="2">
-        <v>10.7</v>
+        <v>9.1</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>127</v>
       </c>
       <c r="G42" s="2">
-        <v>12.9</v>
+        <v>10.7</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -2457,7 +2457,7 @@
         <v>128</v>
       </c>
       <c r="G43" s="2">
-        <v>18.45</v>
+        <v>11.95</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -2492,22 +2492,22 @@
         <v>129</v>
       </c>
       <c r="G44" s="2">
-        <v>12.2</v>
+        <v>9.9</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
       </c>
       <c r="I44" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K44" s="1">
         <v>1</v>
       </c>
       <c r="L44" s="2">
-        <v>7.87</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2527,22 +2527,22 @@
         <v>130</v>
       </c>
       <c r="G45" s="2">
-        <v>9.9</v>
+        <v>12.2</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
       </c>
       <c r="I45" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K45" s="1">
         <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>4.47</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2556,28 +2556,28 @@
         <v>44027</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G46" s="2">
-        <v>11.9</v>
+        <v>18.45</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
       </c>
       <c r="I46" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="K46" s="1">
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>6.52</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2591,28 +2591,28 @@
         <v>44027</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>132</v>
       </c>
       <c r="G47" s="2">
-        <v>18.45</v>
+        <v>4.99</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
       </c>
       <c r="I47" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K47" s="1">
         <v>1</v>
       </c>
       <c r="L47" s="2">
-        <v>11.9</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2626,28 +2626,28 @@
         <v>44027</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>133</v>
       </c>
       <c r="G48" s="2">
-        <v>4.99</v>
+        <v>12.7</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K48" s="1">
         <v>1</v>
       </c>
       <c r="L48" s="2">
-        <v>3.3</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2661,28 +2661,28 @@
         <v>44027</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>134</v>
       </c>
       <c r="G49" s="2">
-        <v>12.7</v>
+        <v>4.99</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
       </c>
       <c r="I49" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>8.19</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2696,7 +2696,7 @@
         <v>44027</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>135</v>
@@ -2731,7 +2731,7 @@
         <v>44027</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>136</v>
@@ -2766,7 +2766,7 @@
         <v>44027</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>137</v>
@@ -2801,28 +2801,28 @@
         <v>44027</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>138</v>
       </c>
       <c r="G53" s="2">
-        <v>4.99</v>
+        <v>14.95</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
       </c>
       <c r="I53" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K53" s="1">
         <v>1</v>
       </c>
       <c r="L53" s="2">
-        <v>3.3</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2836,7 +2836,7 @@
         <v>44027</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>139</v>
@@ -2871,28 +2871,28 @@
         <v>44027</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G55" s="2">
-        <v>15.95</v>
+        <v>4.99</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
       </c>
       <c r="I55" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K55" s="1">
         <v>1</v>
       </c>
       <c r="L55" s="2">
-        <v>10.29</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2906,13 +2906,13 @@
         <v>44027</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G56" s="2">
-        <v>14.95</v>
+        <v>10.45</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="2">
-        <v>9.65</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2941,13 +2941,13 @@
         <v>44027</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G57" s="2">
-        <v>10.45</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="2">
-        <v>6.74</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2976,7 +2976,7 @@
         <v>44027</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>143</v>
@@ -2994,10 +2994,10 @@
         <v>167</v>
       </c>
       <c r="K58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L58" s="2">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3011,13 +3011,13 @@
         <v>44027</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>144</v>
       </c>
       <c r="G59" s="2">
-        <v>9.800000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         <v>20</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K59" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L59" s="2">
-        <v>6.32</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3046,28 +3046,28 @@
         <v>44027</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G60" s="2">
-        <v>9.9</v>
+        <v>4.99</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
       </c>
       <c r="L60" s="2">
-        <v>12.76</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3081,13 +3081,13 @@
         <v>44027</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G61" s="2">
-        <v>1.78</v>
+        <v>15.95</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
@@ -3096,13 +3096,13 @@
         <v>20</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K61" s="1">
         <v>2</v>
       </c>
       <c r="L61" s="2">
-        <v>2.27</v>
+        <v>20.58</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3116,13 +3116,13 @@
         <v>44027</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G62" s="2">
-        <v>1.35</v>
+        <v>11.9</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3131,13 +3131,13 @@
         <v>30</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K62" s="1">
         <v>2</v>
       </c>
       <c r="L62" s="2">
-        <v>1.85</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3157,22 +3157,22 @@
         <v>148</v>
       </c>
       <c r="G63" s="2">
-        <v>1.35</v>
+        <v>10.15</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K63" s="1">
         <v>2</v>
       </c>
       <c r="L63" s="2">
-        <v>1.52</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3192,22 +3192,22 @@
         <v>149</v>
       </c>
       <c r="G64" s="2">
-        <v>4.99</v>
+        <v>9.9</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K64" s="1">
         <v>2</v>
       </c>
       <c r="L64" s="2">
-        <v>8.01</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3227,7 +3227,7 @@
         <v>150</v>
       </c>
       <c r="G65" s="2">
-        <v>4.99</v>
+        <v>1.35</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
@@ -3236,13 +3236,13 @@
         <v>30</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="K65" s="1">
         <v>2</v>
       </c>
       <c r="L65" s="2">
-        <v>6.6</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3262,27 +3262,27 @@
         <v>151</v>
       </c>
       <c r="G66" s="2">
-        <v>10.15</v>
+        <v>1.35</v>
       </c>
       <c r="H66" s="2">
         <v>0</v>
       </c>
       <c r="I66" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="K66" s="1">
         <v>2</v>
       </c>
       <c r="L66" s="2">
-        <v>13.1</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C67" s="4">
         <v>44013</v>
@@ -3297,13 +3297,13 @@
         <v>152</v>
       </c>
       <c r="G67" s="2">
-        <v>3.65</v>
+        <v>1.95</v>
       </c>
       <c r="H67" s="2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I67" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>175</v>
@@ -3312,12 +3312,12 @@
         <v>3</v>
       </c>
       <c r="L67" s="2">
-        <v>7.75</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C68" s="4">
         <v>44013</v>
@@ -3332,22 +3332,22 @@
         <v>153</v>
       </c>
       <c r="G68" s="2">
-        <v>1.95</v>
+        <v>4.95</v>
       </c>
       <c r="H68" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I68" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K68" s="1">
         <v>3</v>
       </c>
       <c r="L68" s="2">
-        <v>3.84</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3367,7 +3367,7 @@
         <v>154</v>
       </c>
       <c r="G69" s="2">
-        <v>4.95</v>
+        <v>9.9</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -3376,13 +3376,13 @@
         <v>30</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K69" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L69" s="2">
-        <v>8.369999999999999</v>
+        <v>21.52</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3402,7 +3402,7 @@
         <v>155</v>
       </c>
       <c r="G70" s="2">
-        <v>9.9</v>
+        <v>3.65</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -3411,13 +3411,13 @@
         <v>30</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K70" s="1">
         <v>4</v>
       </c>
       <c r="L70" s="2">
-        <v>21.52</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3466,7 +3466,7 @@
         <v>44027</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>157</v>
@@ -3484,10 +3484,10 @@
         <v>174</v>
       </c>
       <c r="K72" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L72" s="2">
-        <v>3.8</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3519,15 +3519,15 @@
         <v>174</v>
       </c>
       <c r="K73" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L73" s="2">
-        <v>4.4</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C74" s="4">
         <v>44013</v>
@@ -3542,27 +3542,27 @@
         <v>159</v>
       </c>
       <c r="G74" s="2">
-        <v>3.7</v>
+        <v>3.78</v>
       </c>
       <c r="H74" s="2">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I74" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>178</v>
       </c>
       <c r="K74" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L74" s="2">
-        <v>14.02</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C75" s="4">
         <v>44013</v>
@@ -3577,22 +3577,22 @@
         <v>160</v>
       </c>
       <c r="G75" s="2">
-        <v>3.78</v>
+        <v>3.7</v>
       </c>
       <c r="H75" s="2">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I75" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>179</v>
       </c>
       <c r="K75" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L75" s="2">
-        <v>22.58</v>
+        <v>17.28</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3676,10 +3676,10 @@
         <v>44027</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G78" s="2">
         <v>1.95</v>
@@ -3691,13 +3691,13 @@
         <v>0</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K78" s="1">
-        <v>16.38</v>
+        <v>16.68</v>
       </c>
       <c r="L78" s="2">
-        <v>23.92</v>
+        <v>24.36</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3729,10 +3729,10 @@
         <v>181</v>
       </c>
       <c r="K79" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L79" s="2">
-        <v>14.96</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3746,10 +3746,10 @@
         <v>44027</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G80" s="2">
         <v>2.1</v>
@@ -3764,10 +3764,10 @@
         <v>166</v>
       </c>
       <c r="K80" s="1">
-        <v>21.645</v>
+        <v>26.045</v>
       </c>
       <c r="L80" s="2">
-        <v>15.53</v>
+        <v>18.85</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3799,10 +3799,10 @@
         <v>168</v>
       </c>
       <c r="K81" s="1">
-        <v>34.681</v>
+        <v>38.186</v>
       </c>
       <c r="L81" s="2">
-        <v>41.42</v>
+        <v>45.3</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3834,18 +3834,18 @@
         <v>182</v>
       </c>
       <c r="K82" s="1">
-        <v>49.28</v>
+        <v>51.735</v>
       </c>
       <c r="L82" s="2">
-        <v>36.86</v>
+        <v>38.71</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>237.986</v>
+        <v>258.646</v>
       </c>
       <c r="L83" s="5">
-        <v>401.39</v>
+        <v>437.57</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -61,219 +61,219 @@
     <t>Nivea® Sun Spray Invisible {SPF20} 200ml</t>
   </si>
   <si>
+    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Tube 50 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
+  </si>
+  <si>
+    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
+  </si>
+  <si>
+    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+  </si>
+  <si>
     <t>Nivea® Sun Kids Caring Sun Lotion {SPF30} 200ml (Αδιάβροχο)</t>
   </si>
   <si>
-    <t>Nivea® Sun Kids Lotion SPF{50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Caring {SPF50+} 300ml l</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids Spray Trigger {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Lotion Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF20} 200ml (-2.00€)</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Protect &amp; Bronze Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray {SPF20} 200ml</t>
+    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Sensitive Gel 175ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
   </si>
   <si>
     <t>Nivea® Sun Spray {SPF30} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Trigger {SPF30} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray High protect sensitive {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Oil Protect &amp; Bronze (SPF30) 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Kids  Sensitive Trigger SPF50+300ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Refresh {SPF20} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Trigger {SPF20} 300ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Sensitive Gel 175ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Silk Glow 700ml</t>
-  </si>
-  <si>
-    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
-  </si>
-  <si>
-    <t>Zewa® Ρολό Υγείας Peach Deluxe 8τεμ.</t>
+    <t>PizBuin® After Sun Spray 200ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Talco 700ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Restore 750ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
+  </si>
+  <si>
+    <t>Dove® Ντους Silk 750ml</t>
   </si>
   <si>
     <t>Soft® Σκονη Πλυντηριου 100μεζ.</t>
   </si>
   <si>
-    <t>Skip® Υγρό  Active Cleam 50μεζ.</t>
-  </si>
-  <si>
-    <t>PizBuin® Sensitive Sun Dpray {SPF50+} 200ml</t>
+    <t>Skip® Υγρό  Moussel 50μεζ.</t>
+  </si>
+  <si>
+    <t>Nivea® After Sun Lotion In Shower 250ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
+  </si>
+  <si>
+    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
   </si>
   <si>
     <t>PizBuin® Sensitive Skin Lotion {SPF50+} 200ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Spray Trigger Protect&amp;Bronze Spf20 300ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Moisturizing Sun Lotion {SPF30} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Tube 50 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Instant Glow Spray {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF50} 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® Hydro Infusion Dun Gel Cream {SPF30} 150ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Spray 200ml</t>
-  </si>
-  <si>
-    <t>PizBuin® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Tanning Oil Spray (SFP 6) 200ml</t>
-  </si>
-  <si>
-    <t>Skip® Υγρό  Moussel 50μεζ.</t>
-  </si>
-  <si>
-    <t>PizBuin® Oil Tan + Prot {SPF15} 150ml</t>
-  </si>
-  <si>
     <t>Dove® Αφρολουτρο Original 700ml</t>
   </si>
   <si>
-    <t>Nivea® Sun Carotene Sun Lotion {SPF6} 200ml (Αδιάβροχο)</t>
-  </si>
-  <si>
-    <t>Dove® Αφρολουτρο Talco 700ml</t>
-  </si>
-  <si>
-    <t>Dove® Αφρόλουτρο Πρασινο Τσαι 500ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Restore 750ml</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Caring {SPF50+} 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Kids Spray TRIGGER spf50+ 300ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Spray Oil Deep Tan 0 SPF 200 ml</t>
-  </si>
-  <si>
-    <t>Dove® Ντους Silk 750ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion In Shower 250ml</t>
-  </si>
-  <si>
     <t>Nivea® Sun Carotene Lotion Deep Tanning 200ml (Αδιάβροχο)</t>
   </si>
   <si>
+    <t>Nivea® After Sun Lotion 200ml</t>
+  </si>
+  <si>
+    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Ροδι 400ml</t>
+  </si>
+  <si>
+    <t>Fairy® Ultra Lemon 400ml</t>
+  </si>
+  <si>
+    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
+  </si>
+  <si>
     <t>Dove® Αφρολουτρο Purely Pampering 750ml</t>
   </si>
   <si>
+    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
+  </si>
+  <si>
+    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
     <t>Ηλιος® Σπαγγετι Νο10  500gr (2+1Δωρο)</t>
   </si>
   <si>
-    <t>Dove® Αφρολουτρο Με Αρωμα Αμυγδαλο 700ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun®Adults Sensitive Lotion  SPF50+200ml</t>
-  </si>
-  <si>
-    <t>Nivea® After Sun Lotion 200ml</t>
-  </si>
-  <si>
-    <t>Nivea Sun® Lotion Protect Bronze Tan Prolong 200ml</t>
-  </si>
-  <si>
-    <t>Fairy® Ultra Ροδι 400ml</t>
-  </si>
-  <si>
-    <t>Fairy® Ultra Lemon 400ml</t>
-  </si>
-  <si>
-    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
     <t>Zewa® Ρολό Υγείας Camomile Deluxe 8τεμ.</t>
   </si>
   <si>
+    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
+  </si>
+  <si>
     <t>Skip® Υγρό  Aloe Vera 50μεζ.</t>
   </si>
   <si>
-    <t>Fitness® Δημητριακά Απλή Γεύση 375gr</t>
-  </si>
-  <si>
     <t>Elite® Φρυγ. Σταρ. Οικογ.-20% 125gr (3+1 Δώρο)</t>
   </si>
   <si>
+    <t>Nutella® Πραλίνα Βάζο 400gr</t>
+  </si>
+  <si>
     <t>Fairy® Ultra Apple 400ml</t>
   </si>
   <si>
-    <t>Nutella® Πραλίνα Βάζο 400gr</t>
+    <t>Tasty® Lays Αλάτι 150gr</t>
+  </si>
+  <si>
+    <t>Papadopoulou® Cookies με κομματια σοκολατας 180gr</t>
   </si>
   <si>
     <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
   </si>
   <si>
-    <t>Tasty® Lays Αλάτι 150gr</t>
-  </si>
-  <si>
-    <t>Papadopoulou® Cookies με κομματια σοκολατας 180gr</t>
-  </si>
-  <si>
     <t>Papadopoulou® Cookies Διπλή Σοκολάτα 180gr</t>
   </si>
   <si>
@@ -283,228 +283,228 @@
     <t>4005808283460</t>
   </si>
   <si>
+    <t>4005808407460</t>
+  </si>
+  <si>
+    <t>4005808422999</t>
+  </si>
+  <si>
+    <t>4005808429882</t>
+  </si>
+  <si>
+    <t>4005900128720</t>
+  </si>
+  <si>
+    <t>5201178030928</t>
+  </si>
+  <si>
+    <t>5201178033226</t>
+  </si>
+  <si>
+    <t>4005808432349</t>
+  </si>
+  <si>
+    <t>4005808433292</t>
+  </si>
+  <si>
+    <t>4005808804511</t>
+  </si>
+  <si>
+    <t>4005900128607</t>
+  </si>
+  <si>
+    <t>4005808593637</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>4005808262106</t>
+  </si>
+  <si>
+    <t>4005808473588</t>
+  </si>
+  <si>
+    <t>5201178033912</t>
+  </si>
+  <si>
+    <t>5201178032328</t>
+  </si>
+  <si>
+    <t>5201178026686</t>
+  </si>
+  <si>
+    <t>3574661312491</t>
+  </si>
+  <si>
+    <t>3574661181417</t>
+  </si>
+  <si>
+    <t>3574661492148</t>
+  </si>
+  <si>
+    <t>3574661469294</t>
+  </si>
+  <si>
+    <t>5201178026785</t>
+  </si>
+  <si>
+    <t>5201178033257</t>
+  </si>
+  <si>
+    <t>5201178033011</t>
+  </si>
+  <si>
+    <t>5201178035138</t>
+  </si>
+  <si>
+    <t>8712561899109</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>9011111035721</t>
+  </si>
+  <si>
     <t>4005808449002</t>
   </si>
   <si>
-    <t>5201178033257</t>
-  </si>
-  <si>
-    <t>4005808593637</t>
-  </si>
-  <si>
-    <t>5201178033011</t>
-  </si>
-  <si>
-    <t>4005808407460</t>
-  </si>
-  <si>
-    <t>4005808422999</t>
-  </si>
-  <si>
-    <t>4005808429882</t>
-  </si>
-  <si>
-    <t>4005900128720</t>
-  </si>
-  <si>
-    <t>5201178030928</t>
-  </si>
-  <si>
-    <t>5201178033226</t>
-  </si>
-  <si>
-    <t>4005808432349</t>
-  </si>
-  <si>
-    <t>4005808433292</t>
-  </si>
-  <si>
-    <t>4005808804511</t>
+    <t>3574661467177</t>
+  </si>
+  <si>
+    <t>8710447477847</t>
+  </si>
+  <si>
+    <t>5201178037750</t>
+  </si>
+  <si>
+    <t>3574661464985</t>
+  </si>
+  <si>
+    <t>3574661492124</t>
   </si>
   <si>
     <t>4005808854028</t>
   </si>
   <si>
-    <t>5201178033912</t>
-  </si>
-  <si>
-    <t>4005900128607</t>
-  </si>
-  <si>
-    <t>0208</t>
-  </si>
-  <si>
-    <t>5201178026785</t>
-  </si>
-  <si>
-    <t>4005808859634</t>
-  </si>
-  <si>
-    <t>5201178035138</t>
-  </si>
-  <si>
-    <t>4005808262106</t>
-  </si>
-  <si>
-    <t>4005808473588</t>
-  </si>
-  <si>
-    <t>5201178037750</t>
-  </si>
-  <si>
-    <t>8712561899109</t>
-  </si>
-  <si>
-    <t>0201</t>
-  </si>
-  <si>
-    <t>9011111035721</t>
+    <t>3574661407692</t>
+  </si>
+  <si>
+    <t>4005808445417</t>
+  </si>
+  <si>
+    <t>8712561899284</t>
+  </si>
+  <si>
+    <t>8712561899147</t>
+  </si>
+  <si>
+    <t>8712561594424</t>
+  </si>
+  <si>
+    <t>4005808751259</t>
+  </si>
+  <si>
+    <t>5201178035244</t>
+  </si>
+  <si>
+    <t>8712561626569</t>
   </si>
   <si>
     <t>8003640011506</t>
   </si>
   <si>
-    <t>8710447477847</t>
-  </si>
-  <si>
-    <t>3574661467177</t>
+    <t>8710522449325</t>
+  </si>
+  <si>
+    <t>5201178022862</t>
+  </si>
+  <si>
+    <t>3574661192833</t>
+  </si>
+  <si>
+    <t>4005808856695</t>
+  </si>
+  <si>
+    <t>3574661192857</t>
+  </si>
+  <si>
+    <t>5201178035923</t>
+  </si>
+  <si>
+    <t>8003640011001</t>
   </si>
   <si>
     <t>3574661467153</t>
   </si>
   <si>
-    <t>5201178032328</t>
-  </si>
-  <si>
-    <t>3574661192857</t>
-  </si>
-  <si>
-    <t>3574661464985</t>
-  </si>
-  <si>
-    <t>3574661312491</t>
-  </si>
-  <si>
-    <t>3574661181417</t>
-  </si>
-  <si>
-    <t>3574661492148</t>
-  </si>
-  <si>
-    <t>3574661492124</t>
-  </si>
-  <si>
-    <t>3574661407692</t>
-  </si>
-  <si>
-    <t>3574661469294</t>
-  </si>
-  <si>
-    <t>5201178026686</t>
-  </si>
-  <si>
-    <t>8710522449325</t>
-  </si>
-  <si>
-    <t>3574661192833</t>
-  </si>
-  <si>
-    <t>4005808751259</t>
-  </si>
-  <si>
     <t>8712561899185</t>
   </si>
   <si>
-    <t>4005808445417</t>
-  </si>
-  <si>
-    <t>8712561899284</t>
-  </si>
-  <si>
-    <t>8712561899147</t>
-  </si>
-  <si>
-    <t>8712561594424</t>
-  </si>
-  <si>
-    <t>4005808856695</t>
-  </si>
-  <si>
-    <t>5201178035244</t>
-  </si>
-  <si>
-    <t>5201178035923</t>
-  </si>
-  <si>
-    <t>8712561626569</t>
-  </si>
-  <si>
-    <t>5201178022862</t>
-  </si>
-  <si>
     <t>4005808441624</t>
   </si>
   <si>
+    <t>4005808478200</t>
+  </si>
+  <si>
+    <t>5201178035831</t>
+  </si>
+  <si>
+    <t>8001090902313</t>
+  </si>
+  <si>
+    <t>8001841395883</t>
+  </si>
+  <si>
+    <t>8712561898966</t>
+  </si>
+  <si>
     <t>8712561899246</t>
   </si>
   <si>
+    <t>5201178035213</t>
+  </si>
+  <si>
+    <t>0253</t>
+  </si>
+  <si>
     <t>5201020791540</t>
   </si>
   <si>
-    <t>8712561898966</t>
-  </si>
-  <si>
-    <t>5201178035213</t>
-  </si>
-  <si>
-    <t>8003640011001</t>
-  </si>
-  <si>
-    <t>4005808478200</t>
-  </si>
-  <si>
-    <t>5201178035831</t>
-  </si>
-  <si>
-    <t>8001090902313</t>
-  </si>
-  <si>
-    <t>8001841395883</t>
-  </si>
-  <si>
-    <t>0253</t>
-  </si>
-  <si>
     <t>7322540055337</t>
   </si>
   <si>
+    <t>7613034152381</t>
+  </si>
+  <si>
+    <t>8001090902238</t>
+  </si>
+  <si>
     <t>8710847878404</t>
   </si>
   <si>
-    <t>7613034152381</t>
-  </si>
-  <si>
     <t>5201485000850</t>
   </si>
   <si>
-    <t>8001090902238</t>
+    <t>80135876</t>
   </si>
   <si>
     <t>8001090902276</t>
   </si>
   <si>
-    <t>80135876</t>
+    <t>5201024779957</t>
+  </si>
+  <si>
+    <t>5201004021755</t>
   </si>
   <si>
     <t>5201219486417</t>
   </si>
   <si>
-    <t>5201024779957</t>
-  </si>
-  <si>
-    <t>5201004021755</t>
-  </si>
-  <si>
     <t>5201004021502</t>
   </si>
   <si>
@@ -517,6 +517,9 @@
     <t>Ροδάκινο</t>
   </si>
   <si>
+    <t>PizBuin</t>
+  </si>
+  <si>
     <t>Dove</t>
   </si>
   <si>
@@ -526,24 +529,21 @@
     <t>Zewa</t>
   </si>
   <si>
+    <t>Skip</t>
+  </si>
+  <si>
     <t>Soft</t>
   </si>
   <si>
-    <t>Skip</t>
-  </si>
-  <si>
-    <t>PizBuin</t>
+    <t>Fairy</t>
+  </si>
+  <si>
+    <t>Βερύκοκα</t>
   </si>
   <si>
     <t>Ηλιος</t>
   </si>
   <si>
-    <t>Fairy</t>
-  </si>
-  <si>
-    <t>Βερύκοκα</t>
-  </si>
-  <si>
     <t>Fitness</t>
   </si>
   <si>
@@ -553,13 +553,13 @@
     <t>Nutella</t>
   </si>
   <si>
+    <t>Lays</t>
+  </si>
+  <si>
+    <t>Papadopoulou</t>
+  </si>
+  <si>
     <t>Παπαγάλος</t>
-  </si>
-  <si>
-    <t>Lays</t>
-  </si>
-  <si>
-    <t>Papadopoulou</t>
   </si>
   <si>
     <t>Νεκταρίνια</t>
@@ -1057,7 +1057,7 @@
         <v>89</v>
       </c>
       <c r="G3" s="2">
-        <v>16.2</v>
+        <v>14.3</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1092,7 +1092,7 @@
         <v>90</v>
       </c>
       <c r="G4" s="2">
-        <v>17.95</v>
+        <v>15.5</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>91</v>
       </c>
       <c r="G5" s="2">
-        <v>18.99</v>
+        <v>17.85</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>92</v>
       </c>
       <c r="G6" s="2">
-        <v>15.5</v>
+        <v>17.3</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>93</v>
       </c>
       <c r="G7" s="2">
-        <v>14.3</v>
+        <v>16.95</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>94</v>
       </c>
       <c r="G8" s="2">
-        <v>15.5</v>
+        <v>18.95</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>95</v>
       </c>
       <c r="G9" s="2">
-        <v>17.85</v>
+        <v>15.5</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>97</v>
       </c>
       <c r="G11" s="2">
-        <v>16.95</v>
+        <v>15.5</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>98</v>
       </c>
       <c r="G12" s="2">
-        <v>18.95</v>
+        <v>19.9</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>99</v>
       </c>
       <c r="G13" s="2">
-        <v>15.5</v>
+        <v>18.99</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4">
         <v>44013</v>
@@ -1442,16 +1442,16 @@
         <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>17.3</v>
+        <v>2.1</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I14" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
@@ -1477,13 +1477,13 @@
         <v>101</v>
       </c>
       <c r="G15" s="2">
-        <v>15.5</v>
+        <v>8.9</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>165</v>
@@ -1512,7 +1512,7 @@
         <v>102</v>
       </c>
       <c r="G16" s="2">
-        <v>17.8</v>
+        <v>16.65</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>103</v>
       </c>
       <c r="G17" s="2">
-        <v>18.45</v>
+        <v>17.85</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>104</v>
       </c>
       <c r="G18" s="2">
-        <v>19.9</v>
+        <v>18.45</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="4">
         <v>44013</v>
@@ -1617,16 +1617,16 @@
         <v>105</v>
       </c>
       <c r="G19" s="2">
-        <v>2.1</v>
+        <v>14.95</v>
       </c>
       <c r="H19" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K19" s="1">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>106</v>
       </c>
       <c r="G20" s="2">
-        <v>17.95</v>
+        <v>11.95</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1687,16 +1687,16 @@
         <v>107</v>
       </c>
       <c r="G21" s="2">
-        <v>8.9</v>
+        <v>12.4</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K21" s="1">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>108</v>
       </c>
       <c r="G22" s="2">
-        <v>17.95</v>
+        <v>16.8</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K22" s="1">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>109</v>
       </c>
       <c r="G23" s="2">
-        <v>16.65</v>
+        <v>13.35</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K23" s="1">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>110</v>
       </c>
       <c r="G24" s="2">
-        <v>17.85</v>
+        <v>10.7</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K24" s="1">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>111</v>
       </c>
       <c r="G25" s="2">
-        <v>9.9</v>
+        <v>17.95</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="4">
         <v>44013</v>
@@ -1856,22 +1856,22 @@
         <v>44027</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G26" s="2">
-        <v>2.1</v>
+        <v>17.95</v>
       </c>
       <c r="H26" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K26" s="1">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>44027</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G27" s="2">
-        <v>4.99</v>
+        <v>15.5</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K27" s="1">
         <v>0</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4">
         <v>44013</v>
@@ -1926,22 +1926,22 @@
         <v>44027</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G28" s="2">
-        <v>1.69</v>
+        <v>17.95</v>
       </c>
       <c r="H28" s="2">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K28" s="1">
         <v>0</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4">
         <v>44013</v>
@@ -1961,22 +1961,22 @@
         <v>44027</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G29" s="2">
-        <v>4.95</v>
+        <v>2.1</v>
       </c>
       <c r="H29" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I29" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K29" s="1">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>115</v>
       </c>
       <c r="G30" s="2">
-        <v>11.9</v>
+        <v>4.99</v>
       </c>
       <c r="H30" s="2">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>30</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K30" s="1">
         <v>0</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4">
         <v>44013</v>
@@ -2037,16 +2037,16 @@
         <v>116</v>
       </c>
       <c r="G31" s="2">
-        <v>9.9</v>
+        <v>1.69</v>
       </c>
       <c r="H31" s="2">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="I31" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K31" s="1">
         <v>0</v>
@@ -2072,16 +2072,16 @@
         <v>117</v>
       </c>
       <c r="G32" s="2">
-        <v>13.35</v>
+        <v>4.95</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
       </c>
       <c r="I32" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K32" s="1">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>118</v>
       </c>
       <c r="G33" s="2">
-        <v>13.35</v>
+        <v>16.2</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K33" s="1">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>119</v>
       </c>
       <c r="G34" s="2">
-        <v>14.95</v>
+        <v>13.35</v>
       </c>
       <c r="H34" s="2">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K34" s="1">
         <v>0</v>
@@ -2177,16 +2177,16 @@
         <v>120</v>
       </c>
       <c r="G35" s="2">
-        <v>12.9</v>
+        <v>9.9</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
       </c>
       <c r="I35" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K35" s="1">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>121</v>
       </c>
       <c r="G36" s="2">
-        <v>12.5</v>
+        <v>9.9</v>
       </c>
       <c r="H36" s="2">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K36" s="1">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>122</v>
       </c>
       <c r="G37" s="2">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="H37" s="2">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>20</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K37" s="1">
         <v>0</v>
@@ -2282,7 +2282,7 @@
         <v>123</v>
       </c>
       <c r="G38" s="2">
-        <v>16.8</v>
+        <v>12.9</v>
       </c>
       <c r="H38" s="2">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K38" s="1">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>124</v>
       </c>
       <c r="G39" s="2">
-        <v>13.35</v>
+        <v>17.8</v>
       </c>
       <c r="H39" s="2">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>20</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="2">
-        <v>0</v>
+        <v>11.48</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2352,7 +2352,7 @@
         <v>125</v>
       </c>
       <c r="G40" s="2">
-        <v>12.9</v>
+        <v>9.1</v>
       </c>
       <c r="H40" s="2">
         <v>0</v>
@@ -2361,13 +2361,13 @@
         <v>20</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="2">
-        <v>0</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2387,7 +2387,7 @@
         <v>126</v>
       </c>
       <c r="G41" s="2">
-        <v>9.1</v>
+        <v>12.7</v>
       </c>
       <c r="H41" s="2">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         <v>20</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="2">
-        <v>0</v>
+        <v>8.19</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2422,22 +2422,22 @@
         <v>127</v>
       </c>
       <c r="G42" s="2">
-        <v>10.7</v>
+        <v>4.99</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2457,22 +2457,22 @@
         <v>128</v>
       </c>
       <c r="G43" s="2">
-        <v>11.95</v>
+        <v>4.99</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
       </c>
       <c r="I43" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" s="2">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2492,7 +2492,7 @@
         <v>129</v>
       </c>
       <c r="G44" s="2">
-        <v>9.9</v>
+        <v>4.99</v>
       </c>
       <c r="H44" s="2">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>30</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K44" s="1">
         <v>1</v>
       </c>
       <c r="L44" s="2">
-        <v>4.47</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2521,13 +2521,13 @@
         <v>44027</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>130</v>
       </c>
       <c r="G45" s="2">
-        <v>12.2</v>
+        <v>18.45</v>
       </c>
       <c r="H45" s="2">
         <v>0</v>
@@ -2536,13 +2536,13 @@
         <v>20</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K45" s="1">
         <v>1</v>
       </c>
       <c r="L45" s="2">
-        <v>7.87</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2556,13 +2556,13 @@
         <v>44027</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>131</v>
       </c>
       <c r="G46" s="2">
-        <v>18.45</v>
+        <v>14.95</v>
       </c>
       <c r="H46" s="2">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="2">
-        <v>11.9</v>
+        <v>9.65</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2606,7 +2606,7 @@
         <v>30</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K47" s="1">
         <v>1</v>
@@ -2632,22 +2632,22 @@
         <v>133</v>
       </c>
       <c r="G48" s="2">
-        <v>12.7</v>
+        <v>11.9</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
       </c>
       <c r="I48" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="K48" s="1">
         <v>1</v>
       </c>
       <c r="L48" s="2">
-        <v>8.19</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2667,7 +2667,7 @@
         <v>134</v>
       </c>
       <c r="G49" s="2">
-        <v>4.99</v>
+        <v>9.9</v>
       </c>
       <c r="H49" s="2">
         <v>0</v>
@@ -2676,13 +2676,13 @@
         <v>30</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
       </c>
       <c r="L49" s="2">
-        <v>3.3</v>
+        <v>4.47</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2702,22 +2702,22 @@
         <v>135</v>
       </c>
       <c r="G50" s="2">
-        <v>4.99</v>
+        <v>10.45</v>
       </c>
       <c r="H50" s="2">
         <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
       </c>
       <c r="L50" s="2">
-        <v>3.3</v>
+        <v>6.74</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2737,13 +2737,13 @@
         <v>136</v>
       </c>
       <c r="G51" s="2">
-        <v>4.99</v>
+        <v>12.2</v>
       </c>
       <c r="H51" s="2">
         <v>0</v>
       </c>
       <c r="I51" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>167</v>
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="L51" s="2">
-        <v>3.3</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2807,7 +2807,7 @@
         <v>138</v>
       </c>
       <c r="G53" s="2">
-        <v>14.95</v>
+        <v>12.9</v>
       </c>
       <c r="H53" s="2">
         <v>0</v>
@@ -2816,13 +2816,13 @@
         <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K53" s="1">
         <v>1</v>
       </c>
       <c r="L53" s="2">
-        <v>9.65</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2871,13 +2871,13 @@
         <v>44027</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>140</v>
       </c>
       <c r="G55" s="2">
-        <v>4.99</v>
+        <v>11.9</v>
       </c>
       <c r="H55" s="2">
         <v>0</v>
@@ -2886,13 +2886,13 @@
         <v>30</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K55" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L55" s="2">
-        <v>3.3</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2906,13 +2906,13 @@
         <v>44027</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>141</v>
       </c>
       <c r="G56" s="2">
-        <v>10.45</v>
+        <v>13.35</v>
       </c>
       <c r="H56" s="2">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>20</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K56" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L56" s="2">
-        <v>6.74</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2941,28 +2941,28 @@
         <v>44027</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G57" s="2">
-        <v>9.800000000000001</v>
+        <v>4.99</v>
       </c>
       <c r="H57" s="2">
         <v>0</v>
       </c>
       <c r="I57" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L57" s="2">
-        <v>6.32</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2976,28 +2976,28 @@
         <v>44027</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>143</v>
       </c>
       <c r="G58" s="2">
-        <v>4.99</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H58" s="2">
         <v>0</v>
       </c>
       <c r="I58" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K58" s="1">
         <v>2</v>
       </c>
       <c r="L58" s="2">
-        <v>6.6</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3011,13 +3011,13 @@
         <v>44027</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>144</v>
       </c>
       <c r="G59" s="2">
-        <v>1.78</v>
+        <v>10.15</v>
       </c>
       <c r="H59" s="2">
         <v>0</v>
@@ -3026,13 +3026,13 @@
         <v>20</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K59" s="1">
         <v>2</v>
       </c>
       <c r="L59" s="2">
-        <v>2.27</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3046,28 +3046,28 @@
         <v>44027</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>145</v>
       </c>
       <c r="G60" s="2">
-        <v>4.99</v>
+        <v>9.9</v>
       </c>
       <c r="H60" s="2">
         <v>0</v>
       </c>
       <c r="I60" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K60" s="1">
         <v>2</v>
       </c>
       <c r="L60" s="2">
-        <v>8.01</v>
+        <v>12.76</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3081,28 +3081,28 @@
         <v>44027</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>146</v>
       </c>
       <c r="G61" s="2">
-        <v>15.95</v>
+        <v>1.35</v>
       </c>
       <c r="H61" s="2">
         <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="K61" s="1">
         <v>2</v>
       </c>
       <c r="L61" s="2">
-        <v>20.58</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3116,13 +3116,13 @@
         <v>44027</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G62" s="2">
-        <v>11.9</v>
+        <v>1.35</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -3131,13 +3131,13 @@
         <v>30</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K62" s="1">
         <v>2</v>
       </c>
       <c r="L62" s="2">
-        <v>13.24</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3157,22 +3157,22 @@
         <v>148</v>
       </c>
       <c r="G63" s="2">
-        <v>10.15</v>
+        <v>4.99</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K63" s="1">
         <v>2</v>
       </c>
       <c r="L63" s="2">
-        <v>13.1</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3192,22 +3192,22 @@
         <v>149</v>
       </c>
       <c r="G64" s="2">
-        <v>9.9</v>
+        <v>4.99</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K64" s="1">
         <v>2</v>
       </c>
       <c r="L64" s="2">
-        <v>12.76</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3227,27 +3227,27 @@
         <v>150</v>
       </c>
       <c r="G65" s="2">
-        <v>1.35</v>
+        <v>15.95</v>
       </c>
       <c r="H65" s="2">
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K65" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L65" s="2">
-        <v>1.85</v>
+        <v>30.87</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C66" s="4">
         <v>44013</v>
@@ -3262,27 +3262,27 @@
         <v>151</v>
       </c>
       <c r="G66" s="2">
-        <v>1.35</v>
+        <v>1.95</v>
       </c>
       <c r="H66" s="2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I66" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>174</v>
       </c>
       <c r="K66" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L66" s="2">
-        <v>1.52</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C67" s="4">
         <v>44013</v>
@@ -3297,22 +3297,22 @@
         <v>152</v>
       </c>
       <c r="G67" s="2">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="H67" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I67" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>175</v>
       </c>
       <c r="K67" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L67" s="2">
-        <v>3.84</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3341,13 +3341,13 @@
         <v>30</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K68" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L68" s="2">
-        <v>8.369999999999999</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3367,7 +3367,7 @@
         <v>154</v>
       </c>
       <c r="G69" s="2">
-        <v>9.9</v>
+        <v>3.65</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -3376,13 +3376,13 @@
         <v>30</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K69" s="1">
         <v>4</v>
       </c>
       <c r="L69" s="2">
-        <v>21.52</v>
+        <v>10.01</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3396,13 +3396,13 @@
         <v>44027</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>155</v>
       </c>
       <c r="G70" s="2">
-        <v>3.65</v>
+        <v>1.35</v>
       </c>
       <c r="H70" s="2">
         <v>0</v>
@@ -3411,13 +3411,13 @@
         <v>30</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K70" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L70" s="2">
-        <v>10.01</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3431,13 +3431,13 @@
         <v>44027</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>156</v>
       </c>
       <c r="G71" s="2">
-        <v>1.95</v>
+        <v>9.9</v>
       </c>
       <c r="H71" s="2">
         <v>0</v>
@@ -3446,13 +3446,13 @@
         <v>30</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K71" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L71" s="2">
-        <v>6.05</v>
+        <v>38.29</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3466,13 +3466,13 @@
         <v>44027</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>157</v>
       </c>
       <c r="G72" s="2">
-        <v>1.35</v>
+        <v>1.95</v>
       </c>
       <c r="H72" s="2">
         <v>0</v>
@@ -3481,18 +3481,18 @@
         <v>30</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K72" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L72" s="2">
-        <v>4.56</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C73" s="4">
         <v>44013</v>
@@ -3507,27 +3507,27 @@
         <v>158</v>
       </c>
       <c r="G73" s="2">
-        <v>1.35</v>
+        <v>3.78</v>
       </c>
       <c r="H73" s="2">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I73" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K73" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L73" s="2">
-        <v>5.16</v>
+        <v>25.19</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74" s="4">
         <v>44013</v>
@@ -3542,27 +3542,27 @@
         <v>159</v>
       </c>
       <c r="G74" s="2">
-        <v>3.78</v>
+        <v>1.35</v>
       </c>
       <c r="H74" s="2">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I74" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="K74" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L74" s="2">
-        <v>22.58</v>
+        <v>8.09</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C75" s="4">
         <v>44013</v>
@@ -3577,22 +3577,22 @@
         <v>160</v>
       </c>
       <c r="G75" s="2">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H75" s="2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="I75" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>179</v>
       </c>
       <c r="K75" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L75" s="2">
-        <v>17.28</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3612,10 +3612,10 @@
         <v>161</v>
       </c>
       <c r="G76" s="2">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H76" s="2">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="I76" s="1">
         <v>0</v>
@@ -3624,15 +3624,15 @@
         <v>180</v>
       </c>
       <c r="K76" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L76" s="2">
-        <v>12.65</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C77" s="4">
         <v>44013</v>
@@ -3647,22 +3647,22 @@
         <v>162</v>
       </c>
       <c r="G77" s="2">
-        <v>1.69</v>
+        <v>3.7</v>
       </c>
       <c r="H77" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>181</v>
       </c>
       <c r="K77" s="1">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L77" s="2">
-        <v>10.56</v>
+        <v>27.06</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3676,10 +3676,10 @@
         <v>44027</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G78" s="2">
         <v>1.95</v>
@@ -3691,13 +3691,13 @@
         <v>0</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K78" s="1">
-        <v>16.68</v>
+        <v>17.665</v>
       </c>
       <c r="L78" s="2">
-        <v>24.36</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3726,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K79" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L79" s="2">
-        <v>17.6</v>
+        <v>19.36</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3746,10 +3746,10 @@
         <v>44027</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G80" s="2">
         <v>2.1</v>
@@ -3764,10 +3764,10 @@
         <v>166</v>
       </c>
       <c r="K80" s="1">
-        <v>26.045</v>
+        <v>30.995</v>
       </c>
       <c r="L80" s="2">
-        <v>18.85</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3781,10 +3781,10 @@
         <v>44027</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G81" s="2">
         <v>1.69</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K81" s="1">
-        <v>38.186</v>
+        <v>45.161</v>
       </c>
       <c r="L81" s="2">
-        <v>45.3</v>
+        <v>52.88</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3834,18 +3834,18 @@
         <v>182</v>
       </c>
       <c r="K82" s="1">
-        <v>51.735</v>
+        <v>66.265</v>
       </c>
       <c r="L82" s="2">
-        <v>38.71</v>
+        <v>49.16</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="K83" s="5">
-        <v>258.646</v>
+        <v>320.086</v>
       </c>
       <c r="L83" s="5">
-        <v>437.57</v>
+        <v>576.03</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -61,28 +61,64 @@
     <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
   </si>
   <si>
+    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
+    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
+  </si>
+  <si>
+    <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
+  </si>
+  <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
-    <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
+    <t>Νεκταρίνια® ΝΑΟΥΣΑΣ  (Ζυγιζόμενο) /Kgr</t>
   </si>
   <si>
     <t>4005808859634</t>
   </si>
   <si>
+    <t>0253</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>5201219486417</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
     <t>80135876</t>
   </si>
   <si>
-    <t>5201219486417</t>
+    <t>0214</t>
   </si>
   <si>
     <t>Nivea</t>
   </si>
   <si>
+    <t>Βερύκοκα</t>
+  </si>
+  <si>
+    <t>Μπανάνες</t>
+  </si>
+  <si>
+    <t>Παπαγάλος</t>
+  </si>
+  <si>
+    <t>Ροδάκινο</t>
+  </si>
+  <si>
     <t>Nutella</t>
   </si>
   <si>
-    <t>Παπαγάλος</t>
+    <t>Νεκταρίνια</t>
   </si>
 </sst>
 </file>
@@ -467,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -539,7 +575,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2">
         <v>8.9</v>
@@ -551,7 +587,7 @@
         <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -574,19 +610,19 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2">
-        <v>3.78</v>
+        <v>1.65</v>
       </c>
       <c r="H3" s="2">
-        <v>2.95</v>
+        <v>1.65</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -597,7 +633,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
         <v>44028</v>
@@ -609,37 +645,317 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44028</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44043</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44028</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44043</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44028</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44028</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44043</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44028</v>
+      </c>
+      <c r="D9" s="4">
+        <v>44043</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44028</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44043</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>50</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44028</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44043</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="1">
+        <v>4.45</v>
+      </c>
+      <c r="L11" s="2">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4">
+        <v>44028</v>
+      </c>
+      <c r="D12" s="4">
+        <v>44043</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="1">
+        <v>6</v>
+      </c>
+      <c r="L12" s="2">
+        <v>5.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="K13" s="5">
+        <v>14.15</v>
+      </c>
+      <c r="L13" s="5">
+        <v>18.5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I4">
+  <conditionalFormatting sqref="I1:I12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -651,7 +967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J4">
+  <conditionalFormatting sqref="J1:J12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -61,18 +61,15 @@
     <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
   </si>
   <si>
+    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
+  </si>
+  <si>
     <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
   </si>
   <si>
-    <t>Μπανάνες® ΕΚΟΥΑΔΟΡ (Ζυγιζόμενο) / Kgr</t>
-  </si>
-  <si>
     <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
   </si>
   <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
@@ -82,18 +79,15 @@
     <t>4005808859634</t>
   </si>
   <si>
+    <t>0208</t>
+  </si>
+  <si>
     <t>0253</t>
   </si>
   <si>
-    <t>0201</t>
-  </si>
-  <si>
     <t>5201219486417</t>
   </si>
   <si>
-    <t>0208</t>
-  </si>
-  <si>
     <t>80135876</t>
   </si>
   <si>
@@ -103,16 +97,13 @@
     <t>Nivea</t>
   </si>
   <si>
+    <t>Ροδάκινο</t>
+  </si>
+  <si>
     <t>Βερύκοκα</t>
   </si>
   <si>
-    <t>Μπανάνες</t>
-  </si>
-  <si>
     <t>Παπαγάλος</t>
-  </si>
-  <si>
-    <t>Ροδάκινο</t>
   </si>
   <si>
     <t>Nutella</t>
@@ -503,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -575,7 +566,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2">
         <v>8.9</v>
@@ -587,7 +578,7 @@
         <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -610,19 +601,19 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2">
-        <v>1.65</v>
+        <v>0.85</v>
       </c>
       <c r="H3" s="2">
-        <v>1.65</v>
+        <v>0.85</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1">
         <v>0</v>
@@ -642,22 +633,22 @@
         <v>44043</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2">
-        <v>1.25</v>
+        <v>0.85</v>
       </c>
       <c r="H4" s="2">
-        <v>1.25</v>
+        <v>0.85</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -668,7 +659,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4">
         <v>44028</v>
@@ -677,28 +668,28 @@
         <v>44043</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2">
-        <v>3.7</v>
+        <v>1.65</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="I5" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -712,10 +703,10 @@
         <v>44043</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G6" s="2">
         <v>0.85</v>
@@ -727,18 +718,18 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>3.535</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
         <v>44028</v>
@@ -747,28 +738,28 @@
         <v>44043</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2">
-        <v>0.85</v>
+        <v>3.7</v>
       </c>
       <c r="H7" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>9.81</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -782,28 +773,28 @@
         <v>44043</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2">
-        <v>0.85</v>
+        <v>1.65</v>
       </c>
       <c r="H8" s="2">
-        <v>0.85</v>
+        <v>1.65</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>10.07</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -817,28 +808,28 @@
         <v>44043</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G9" s="2">
-        <v>1.65</v>
+        <v>3.78</v>
       </c>
       <c r="H9" s="2">
-        <v>1.65</v>
+        <v>2.95</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="1">
-        <v>1.7</v>
+        <v>12</v>
       </c>
       <c r="L9" s="2">
-        <v>2.48</v>
+        <v>32.06</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -855,107 +846,37 @@
         <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2">
-        <v>3.78</v>
+        <v>0.85</v>
       </c>
       <c r="H10" s="2">
-        <v>2.95</v>
+        <v>0.85</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K10" s="1">
-        <v>2</v>
+        <v>40.129</v>
       </c>
       <c r="L10" s="2">
-        <v>5.22</v>
+        <v>30.8</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44028</v>
-      </c>
-      <c r="D11" s="4">
-        <v>44043</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1.25</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="1">
-        <v>4.45</v>
-      </c>
-      <c r="L11" s="2">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4">
-        <v>44028</v>
-      </c>
-      <c r="D12" s="4">
-        <v>44043</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="1">
-        <v>6</v>
-      </c>
-      <c r="L12" s="2">
-        <v>5.62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="K13" s="5">
-        <v>14.15</v>
-      </c>
-      <c r="L13" s="5">
-        <v>18.5</v>
+      <c r="K11" s="5">
+        <v>71.56399999999999</v>
+      </c>
+      <c r="L11" s="5">
+        <v>89.23999999999999</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I12">
+  <conditionalFormatting sqref="I1:I10">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -967,7 +888,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J12">
+  <conditionalFormatting sqref="J1:J10">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -616,10 +616,10 @@
         <v>27</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -651,10 +651,10 @@
         <v>27</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -694,7 +694,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>44028</v>
@@ -703,33 +703,33 @@
         <v>44043</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G6" s="2">
-        <v>0.85</v>
+        <v>3.7</v>
       </c>
       <c r="H6" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1">
-        <v>3.535</v>
+        <v>8</v>
       </c>
       <c r="L6" s="2">
-        <v>2.66</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4">
         <v>44028</v>
@@ -738,28 +738,28 @@
         <v>44043</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2">
-        <v>3.7</v>
+        <v>0.85</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="I7" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K7" s="1">
-        <v>6</v>
+        <v>8.414999999999999</v>
       </c>
       <c r="L7" s="2">
-        <v>9.81</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -791,10 +791,10 @@
         <v>28</v>
       </c>
       <c r="K8" s="1">
-        <v>6.9</v>
+        <v>9.295</v>
       </c>
       <c r="L8" s="2">
-        <v>10.07</v>
+        <v>13.57</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -826,10 +826,10 @@
         <v>30</v>
       </c>
       <c r="K9" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L9" s="2">
-        <v>32.06</v>
+        <v>37.28</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -861,18 +861,18 @@
         <v>31</v>
       </c>
       <c r="K10" s="1">
-        <v>40.129</v>
+        <v>45.557</v>
       </c>
       <c r="L10" s="2">
-        <v>30.8</v>
+        <v>34.89</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="K11" s="5">
-        <v>71.56399999999999</v>
+        <v>91.267</v>
       </c>
       <c r="L11" s="5">
-        <v>89.23999999999999</v>
+        <v>115.76</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
   </si>
   <si>
-    <t>Ροδάκινα® Ναουσας (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
     <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>4005808859634</t>
   </si>
   <si>
-    <t>0208</t>
-  </si>
-  <si>
     <t>0253</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
   </si>
   <si>
     <t>Nivea</t>
-  </si>
-  <si>
-    <t>Ροδάκινο</t>
   </si>
   <si>
     <t>Βερύκοκα</t>
@@ -494,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2">
         <v>8.9</v>
@@ -578,7 +569,7 @@
         <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
@@ -601,30 +592,30 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2">
-        <v>0.85</v>
+        <v>1.65</v>
       </c>
       <c r="H3" s="2">
-        <v>0.85</v>
+        <v>1.65</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3" s="2">
-        <v>3.41</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>44028</v>
@@ -633,28 +624,28 @@
         <v>44043</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="2">
-        <v>0.85</v>
+        <v>3.7</v>
       </c>
       <c r="H4" s="2">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L4" s="2">
-        <v>3.36</v>
+        <v>13.08</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -668,10 +659,10 @@
         <v>44043</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2">
         <v>1.65</v>
@@ -683,18 +674,18 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1">
-        <v>3</v>
+        <v>9.865</v>
       </c>
       <c r="L5" s="2">
-        <v>3.84</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
         <v>44028</v>
@@ -706,25 +697,25 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2">
-        <v>3.7</v>
+        <v>3.78</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="I6" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L6" s="2">
-        <v>13.08</v>
+        <v>39.89</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -738,10 +729,10 @@
         <v>44043</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2">
         <v>0.85</v>
@@ -753,130 +744,25 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7" s="1">
-        <v>8.414999999999999</v>
+        <v>53.497</v>
       </c>
       <c r="L7" s="2">
-        <v>6.33</v>
+        <v>40.85</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44028</v>
-      </c>
-      <c r="D8" s="4">
-        <v>44043</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="1">
-        <v>9.295</v>
-      </c>
-      <c r="L8" s="2">
-        <v>13.57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44028</v>
-      </c>
-      <c r="D9" s="4">
-        <v>44043</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3.78</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="1">
-        <v>14</v>
-      </c>
-      <c r="L9" s="2">
-        <v>37.28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44028</v>
-      </c>
-      <c r="D10" s="4">
-        <v>44043</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="1">
-        <v>45.557</v>
-      </c>
-      <c r="L10" s="2">
-        <v>34.89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="K11" s="5">
-        <v>91.267</v>
-      </c>
-      <c r="L11" s="5">
-        <v>115.76</v>
+      <c r="K8" s="5">
+        <v>89.36199999999999</v>
+      </c>
+      <c r="L8" s="5">
+        <v>112.06</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I10">
+  <conditionalFormatting sqref="I1:I7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -888,7 +774,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J10">
+  <conditionalFormatting sqref="J1:J7">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -572,10 +572,10 @@
         <v>24</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -642,10 +642,10 @@
         <v>26</v>
       </c>
       <c r="K4" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L4" s="2">
-        <v>13.08</v>
+        <v>16.34</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -677,10 +677,10 @@
         <v>25</v>
       </c>
       <c r="K5" s="1">
-        <v>9.865</v>
+        <v>16.765</v>
       </c>
       <c r="L5" s="2">
-        <v>14.4</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -712,10 +712,10 @@
         <v>27</v>
       </c>
       <c r="K6" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L6" s="2">
-        <v>39.89</v>
+        <v>60.77</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -747,18 +747,18 @@
         <v>28</v>
       </c>
       <c r="K7" s="1">
-        <v>53.497</v>
+        <v>83.44799999999999</v>
       </c>
       <c r="L7" s="2">
-        <v>40.85</v>
+        <v>63.35</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="K8" s="5">
-        <v>89.36199999999999</v>
+        <v>138.213</v>
       </c>
       <c r="L8" s="5">
-        <v>112.06</v>
+        <v>175.95</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -677,10 +677,10 @@
         <v>25</v>
       </c>
       <c r="K5" s="1">
-        <v>16.765</v>
+        <v>17.11</v>
       </c>
       <c r="L5" s="2">
-        <v>24.48</v>
+        <v>24.98</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -747,18 +747,18 @@
         <v>28</v>
       </c>
       <c r="K7" s="1">
-        <v>83.44799999999999</v>
+        <v>90.47799999999999</v>
       </c>
       <c r="L7" s="2">
-        <v>63.35</v>
+        <v>68.64</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="K8" s="5">
-        <v>138.213</v>
+        <v>145.588</v>
       </c>
       <c r="L8" s="5">
-        <v>175.95</v>
+        <v>181.74</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -677,10 +677,10 @@
         <v>25</v>
       </c>
       <c r="K5" s="1">
-        <v>17.11</v>
+        <v>18.025</v>
       </c>
       <c r="L5" s="2">
-        <v>24.98</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -712,10 +712,10 @@
         <v>27</v>
       </c>
       <c r="K6" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" s="2">
-        <v>60.77</v>
+        <v>63.38</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -747,18 +747,18 @@
         <v>28</v>
       </c>
       <c r="K7" s="1">
-        <v>90.47799999999999</v>
+        <v>107.733</v>
       </c>
       <c r="L7" s="2">
-        <v>68.64</v>
+        <v>81.62</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="K8" s="5">
-        <v>145.588</v>
+        <v>164.758</v>
       </c>
       <c r="L8" s="5">
-        <v>181.74</v>
+        <v>198.67</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -642,10 +642,10 @@
         <v>26</v>
       </c>
       <c r="K4" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L4" s="2">
-        <v>16.34</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -677,10 +677,10 @@
         <v>25</v>
       </c>
       <c r="K5" s="1">
-        <v>18.025</v>
+        <v>25.11</v>
       </c>
       <c r="L5" s="2">
-        <v>26.32</v>
+        <v>36.67</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -712,10 +712,10 @@
         <v>27</v>
       </c>
       <c r="K6" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2">
-        <v>63.38</v>
+        <v>73.81999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -747,18 +747,18 @@
         <v>28</v>
       </c>
       <c r="K7" s="1">
-        <v>107.733</v>
+        <v>131.163</v>
       </c>
       <c r="L7" s="2">
-        <v>81.62</v>
+        <v>99.02</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="K8" s="5">
-        <v>164.758</v>
+        <v>201.273</v>
       </c>
       <c r="L8" s="5">
-        <v>198.67</v>
+        <v>240.12</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -712,10 +712,10 @@
         <v>27</v>
       </c>
       <c r="K6" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2">
-        <v>73.81999999999999</v>
+        <v>81.65000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -747,18 +747,18 @@
         <v>28</v>
       </c>
       <c r="K7" s="1">
-        <v>131.163</v>
+        <v>135.838</v>
       </c>
       <c r="L7" s="2">
-        <v>99.02</v>
+        <v>102.54</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="K8" s="5">
-        <v>201.273</v>
+        <v>208.948</v>
       </c>
       <c r="L8" s="5">
-        <v>240.12</v>
+        <v>251.47</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -747,18 +747,18 @@
         <v>28</v>
       </c>
       <c r="K7" s="1">
-        <v>135.838</v>
+        <v>136.838</v>
       </c>
       <c r="L7" s="2">
-        <v>102.54</v>
+        <v>103.29</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="K8" s="5">
-        <v>208.948</v>
+        <v>209.948</v>
       </c>
       <c r="L8" s="5">
-        <v>251.47</v>
+        <v>252.22</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -642,10 +642,10 @@
         <v>26</v>
       </c>
       <c r="K4" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" s="2">
-        <v>19.6</v>
+        <v>21.23</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -677,10 +677,10 @@
         <v>25</v>
       </c>
       <c r="K5" s="1">
-        <v>25.11</v>
+        <v>31.26</v>
       </c>
       <c r="L5" s="2">
-        <v>36.67</v>
+        <v>45.66</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -712,10 +712,10 @@
         <v>27</v>
       </c>
       <c r="K6" s="1">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L6" s="2">
-        <v>81.65000000000001</v>
+        <v>92.09</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -747,18 +747,18 @@
         <v>28</v>
       </c>
       <c r="K7" s="1">
-        <v>136.838</v>
+        <v>161.113</v>
       </c>
       <c r="L7" s="2">
-        <v>103.29</v>
+        <v>121.38</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="K8" s="5">
-        <v>209.948</v>
+        <v>245.373</v>
       </c>
       <c r="L8" s="5">
-        <v>252.22</v>
+        <v>291.37</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -659,28 +659,28 @@
         <v>44043</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2">
-        <v>1.65</v>
+        <v>3.78</v>
       </c>
       <c r="H5" s="2">
-        <v>1.65</v>
+        <v>2.95</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1">
-        <v>31.26</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2">
-        <v>45.66</v>
+        <v>92.09</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -694,28 +694,28 @@
         <v>44043</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G6" s="2">
-        <v>3.78</v>
+        <v>1.65</v>
       </c>
       <c r="H6" s="2">
-        <v>2.95</v>
+        <v>1.65</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K6" s="1">
-        <v>35</v>
+        <v>35.025</v>
       </c>
       <c r="L6" s="2">
-        <v>92.09</v>
+        <v>51.16</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -747,18 +747,18 @@
         <v>28</v>
       </c>
       <c r="K7" s="1">
-        <v>161.113</v>
+        <v>161.713</v>
       </c>
       <c r="L7" s="2">
-        <v>121.38</v>
+        <v>121.83</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="K8" s="5">
-        <v>245.373</v>
+        <v>249.738</v>
       </c>
       <c r="L8" s="5">
-        <v>291.37</v>
+        <v>297.32</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -52,18 +52,18 @@
     <t>Turnover</t>
   </si>
   <si>
+    <t>Πελάτες Τιμή Πώλησης</t>
+  </si>
+  <si>
     <t>Πωλήσεις Έκπτωση 1</t>
   </si>
   <si>
-    <t>Πελάτες Τιμή Πώλησης</t>
+    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
   </si>
   <si>
     <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
   </si>
   <si>
-    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
     <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
   </si>
   <si>
@@ -73,12 +73,12 @@
     <t>Νεκταρίνια® ΝΑΟΥΣΑΣ  (Ζυγιζόμενο) /Kgr</t>
   </si>
   <si>
+    <t>0253</t>
+  </si>
+  <si>
     <t>4005808859634</t>
   </si>
   <si>
-    <t>0253</t>
-  </si>
-  <si>
     <t>5201219486417</t>
   </si>
   <si>
@@ -88,10 +88,10 @@
     <t>0214</t>
   </si>
   <si>
+    <t>Βερύκοκα</t>
+  </si>
+  <si>
     <t>Nivea</t>
-  </si>
-  <si>
-    <t>Βερύκοκα</t>
   </si>
   <si>
     <t>Παπαγάλος</t>
@@ -560,22 +560,22 @@
         <v>19</v>
       </c>
       <c r="G2" s="2">
-        <v>8.9</v>
+        <v>1.95</v>
       </c>
       <c r="H2" s="2">
+        <v>1.65</v>
+      </c>
+      <c r="I2" s="1">
         <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2" s="2">
-        <v>7.17</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -595,27 +595,27 @@
         <v>20</v>
       </c>
       <c r="G3" s="2">
-        <v>1.65</v>
+        <v>8.9</v>
       </c>
       <c r="H3" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" s="2">
-        <v>3.84</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
         <v>44028</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <v>44028</v>
@@ -659,33 +659,33 @@
         <v>44043</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2">
-        <v>3.78</v>
+        <v>1.95</v>
       </c>
       <c r="H5" s="2">
-        <v>2.95</v>
+        <v>1.65</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K5" s="1">
-        <v>35</v>
+        <v>37.15</v>
       </c>
       <c r="L5" s="2">
-        <v>92.09</v>
+        <v>54.27</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4">
         <v>44028</v>
@@ -694,33 +694,33 @@
         <v>44043</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2">
-        <v>1.65</v>
+        <v>3.78</v>
       </c>
       <c r="H6" s="2">
-        <v>1.65</v>
+        <v>2.95</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6" s="1">
-        <v>35.025</v>
+        <v>42</v>
       </c>
       <c r="L6" s="2">
-        <v>51.16</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
         <v>44028</v>
@@ -747,18 +747,18 @@
         <v>28</v>
       </c>
       <c r="K7" s="1">
-        <v>161.713</v>
+        <v>177.943</v>
       </c>
       <c r="L7" s="2">
-        <v>121.83</v>
+        <v>134.03</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="K8" s="5">
-        <v>249.738</v>
+        <v>277.093</v>
       </c>
       <c r="L8" s="5">
-        <v>297.32</v>
+        <v>338.0700000000001</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -52,15 +52,12 @@
     <t>Turnover</t>
   </si>
   <si>
+    <t>Πωλήσεις Έκπτωση 1</t>
+  </si>
+  <si>
     <t>Πελάτες Τιμή Πώλησης</t>
   </si>
   <si>
-    <t>Πωλήσεις Έκπτωση 1</t>
-  </si>
-  <si>
-    <t>Βερύκοκα® Ελληνικά (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
     <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
   </si>
   <si>
@@ -70,12 +67,6 @@
     <t>Nutella® Πραλίνα Βάζο 400gr</t>
   </si>
   <si>
-    <t>Νεκταρίνια® ΝΑΟΥΣΑΣ  (Ζυγιζόμενο) /Kgr</t>
-  </si>
-  <si>
-    <t>0253</t>
-  </si>
-  <si>
     <t>4005808859634</t>
   </si>
   <si>
@@ -85,12 +76,6 @@
     <t>80135876</t>
   </si>
   <si>
-    <t>0214</t>
-  </si>
-  <si>
-    <t>Βερύκοκα</t>
-  </si>
-  <si>
     <t>Nivea</t>
   </si>
   <si>
@@ -98,9 +83,6 @@
   </si>
   <si>
     <t>Nutella</t>
-  </si>
-  <si>
-    <t>Νεκταρίνια</t>
   </si>
 </sst>
 </file>
@@ -485,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -557,30 +539,30 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2">
-        <v>1.95</v>
+        <v>8.9</v>
       </c>
       <c r="H2" s="2">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L2" s="2">
-        <v>3.84</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4">
         <v>44028</v>
@@ -592,10 +574,10 @@
         <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2">
-        <v>8.9</v>
+        <v>3.7</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -604,13 +586,13 @@
         <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L3" s="2">
-        <v>14.34</v>
+        <v>24.49</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -627,142 +609,37 @@
         <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2">
-        <v>3.7</v>
+        <v>3.78</v>
       </c>
       <c r="H4" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>50</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="L4" s="2">
-        <v>21.23</v>
+        <v>120.8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4">
-        <v>44028</v>
-      </c>
-      <c r="D5" s="4">
-        <v>44043</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.95</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1.65</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="1">
-        <v>37.15</v>
-      </c>
-      <c r="L5" s="2">
-        <v>54.27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4">
-        <v>44028</v>
-      </c>
-      <c r="D6" s="4">
-        <v>44043</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3.78</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2.95</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1">
-        <v>42</v>
-      </c>
-      <c r="L6" s="2">
-        <v>110.36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="4">
-        <v>44028</v>
-      </c>
-      <c r="D7" s="4">
-        <v>44043</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="1">
-        <v>177.943</v>
-      </c>
-      <c r="L7" s="2">
-        <v>134.03</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="K8" s="5">
-        <v>277.093</v>
-      </c>
-      <c r="L8" s="5">
-        <v>338.0700000000001</v>
+      <c r="K5" s="5">
+        <v>65</v>
+      </c>
+      <c r="L5" s="5">
+        <v>159.63</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I7">
+  <conditionalFormatting sqref="I1:I4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -774,7 +651,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J7">
+  <conditionalFormatting sqref="J1:J4">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -624,18 +624,18 @@
         <v>22</v>
       </c>
       <c r="K4" s="1">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2">
-        <v>120.8</v>
+        <v>131.24</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="K5" s="5">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L5" s="5">
-        <v>159.63</v>
+        <v>170.07</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -624,18 +624,18 @@
         <v>22</v>
       </c>
       <c r="K4" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2">
-        <v>131.24</v>
+        <v>133.85</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="K5" s="5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L5" s="5">
-        <v>170.07</v>
+        <v>172.68</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -589,10 +589,10 @@
         <v>21</v>
       </c>
       <c r="K3" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L3" s="2">
-        <v>24.49</v>
+        <v>27.76</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -624,18 +624,18 @@
         <v>22</v>
       </c>
       <c r="K4" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L4" s="2">
-        <v>133.85</v>
+        <v>136.46</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="K5" s="5">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L5" s="5">
-        <v>172.68</v>
+        <v>178.56</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -624,18 +624,18 @@
         <v>22</v>
       </c>
       <c r="K4" s="1">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L4" s="2">
-        <v>136.46</v>
+        <v>149.51</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="K5" s="5">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L5" s="5">
-        <v>178.56</v>
+        <v>191.61</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -589,10 +589,10 @@
         <v>21</v>
       </c>
       <c r="K3" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2">
-        <v>27.76</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -632,10 +632,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="K5" s="5">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L5" s="5">
-        <v>191.61</v>
+        <v>194.87</v>
       </c>
     </row>
   </sheetData>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -55,34 +55,37 @@
     <t>Πωλήσεις Έκπτωση 1</t>
   </si>
   <si>
-    <t>Πελάτες Τιμή Πώλησης</t>
-  </si>
-  <si>
-    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
-  </si>
-  <si>
-    <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
-  </si>
-  <si>
-    <t>Nutella® Πραλίνα Βάζο 400gr</t>
-  </si>
-  <si>
-    <t>4005808859634</t>
-  </si>
-  <si>
-    <t>5201219486417</t>
-  </si>
-  <si>
-    <t>80135876</t>
-  </si>
-  <si>
-    <t>Nivea</t>
-  </si>
-  <si>
-    <t>Παπαγάλος</t>
-  </si>
-  <si>
-    <t>Nutella</t>
+    <t>Minios® Δημητριακα PJ Mask Flakes 250gr</t>
+  </si>
+  <si>
+    <t>Peppa Pig® Choco Flakes 250gr</t>
+  </si>
+  <si>
+    <t>Minios® Δημητριακα Choco Letters 250gr</t>
+  </si>
+  <si>
+    <t>Servin® Μαλακτικο Ρουχων Freesh Breeze 750ml</t>
+  </si>
+  <si>
+    <t>5200132750124</t>
+  </si>
+  <si>
+    <t>5200132750117</t>
+  </si>
+  <si>
+    <t>5200132750148</t>
+  </si>
+  <si>
+    <t>5203565995339</t>
+  </si>
+  <si>
+    <t>Minios</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Servin</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -530,19 +533,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="4">
-        <v>44028</v>
+        <v>44075</v>
       </c>
       <c r="D2" s="4">
-        <v>44043</v>
+        <v>44104</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="2">
-        <v>8.9</v>
+        <v>2.95</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -551,13 +554,13 @@
         <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>14.34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -565,19 +568,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="4">
-        <v>44028</v>
+        <v>44075</v>
       </c>
       <c r="D3" s="4">
-        <v>44043</v>
+        <v>44104</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="2">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -586,60 +589,95 @@
         <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>31.02</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4">
-        <v>44028</v>
+        <v>44075</v>
       </c>
       <c r="D4" s="4">
-        <v>44043</v>
+        <v>44104</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="2">
-        <v>3.78</v>
+        <v>2.95</v>
       </c>
       <c r="H4" s="2">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="1">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="L4" s="2">
-        <v>149.51</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="K5" s="5">
-        <v>80</v>
-      </c>
-      <c r="L5" s="5">
-        <v>194.87</v>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44075</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44104</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.75</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="K6" s="5">
+        <v>8</v>
+      </c>
+      <c r="L6" s="5">
+        <v>9.75</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I4">
+  <conditionalFormatting sqref="I1:I5">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -651,7 +689,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J4">
+  <conditionalFormatting sqref="J1:J5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>

--- a/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
+++ b/A_DAILY_ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ΤΙΜΟΚΑΤΑΛΟΓΟΣ</t>
   </si>
@@ -55,37 +55,34 @@
     <t>Πωλήσεις Έκπτωση 1</t>
   </si>
   <si>
-    <t>Minios® Δημητριακα PJ Mask Flakes 250gr</t>
-  </si>
-  <si>
-    <t>Peppa Pig® Choco Flakes 250gr</t>
-  </si>
-  <si>
-    <t>Minios® Δημητριακα Choco Letters 250gr</t>
-  </si>
-  <si>
-    <t>Servin® Μαλακτικο Ρουχων Freesh Breeze 750ml</t>
-  </si>
-  <si>
-    <t>5200132750124</t>
-  </si>
-  <si>
-    <t>5200132750117</t>
-  </si>
-  <si>
-    <t>5200132750148</t>
-  </si>
-  <si>
-    <t>5203565995339</t>
-  </si>
-  <si>
-    <t>Minios</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Servin</t>
+    <t>Πελάτες Τιμή Πώλησης</t>
+  </si>
+  <si>
+    <t>Nivea® Sun Spray Protect &amp; Bronze {20} 200ml</t>
+  </si>
+  <si>
+    <t>Παπαγάλος® Ελληνικός Καφές Κουπάτος 143gr</t>
+  </si>
+  <si>
+    <t>Nutella® Πραλίνα Βάζο 400gr</t>
+  </si>
+  <si>
+    <t>4005808859634</t>
+  </si>
+  <si>
+    <t>5201219486417</t>
+  </si>
+  <si>
+    <t>80135876</t>
+  </si>
+  <si>
+    <t>Nivea</t>
+  </si>
+  <si>
+    <t>Παπαγάλος</t>
+  </si>
+  <si>
+    <t>Nutella</t>
   </si>
 </sst>
 </file>
@@ -470,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -533,19 +530,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="4">
-        <v>44075</v>
+        <v>44028</v>
       </c>
       <c r="D2" s="4">
-        <v>44104</v>
+        <v>44043</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="2">
-        <v>2.95</v>
+        <v>8.9</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -554,13 +551,13 @@
         <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>14.34</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -568,19 +565,19 @@
         <v>12</v>
       </c>
       <c r="C3" s="4">
-        <v>44075</v>
+        <v>44028</v>
       </c>
       <c r="D3" s="4">
-        <v>44104</v>
+        <v>44043</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="2">
-        <v>2.95</v>
+        <v>3.95</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -589,27 +586,27 @@
         <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="1">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="L3" s="2">
-        <v>1.73</v>
+        <v>31.02</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
-        <v>44075</v>
+        <v>44028</v>
       </c>
       <c r="D4" s="4">
-        <v>44104</v>
+        <v>44043</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>19</v>
@@ -618,66 +615,31 @@
         <v>2.95</v>
       </c>
       <c r="H4" s="2">
+        <v>2.95</v>
+      </c>
+      <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>50</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4" s="1">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="L4" s="2">
-        <v>5.19</v>
+        <v>149.51</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4">
-        <v>44075</v>
-      </c>
-      <c r="D5" s="4">
-        <v>44104</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>50</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="1">
-        <v>4</v>
-      </c>
-      <c r="L5" s="2">
-        <v>2.83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="K6" s="5">
-        <v>8</v>
-      </c>
-      <c r="L6" s="5">
-        <v>9.75</v>
+      <c r="K5" s="5">
+        <v>80</v>
+      </c>
+      <c r="L5" s="5">
+        <v>194.87</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I5">
+  <conditionalFormatting sqref="I1:I4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -689,7 +651,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J5">
+  <conditionalFormatting sqref="J1:J4">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
